--- a/excel/contrcat_10105.xlsx
+++ b/excel/contrcat_10105.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr updateLinks="never" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -48,7 +48,7 @@
     <definedName name="他社決定時の案件内容確認">[1]ダウンリスト!$W$1:$W$3</definedName>
     <definedName name="締め">[1]ダウンリスト!$I$1:$I$3</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="65">
   <si>
     <r>
       <rPr>
@@ -642,13 +642,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>備考</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>他社決定時の案件内容確認</t>
     <rPh sb="0" eb="1">
       <t>タ</t>
@@ -684,51 +677,24 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>根本</t>
+    <t>備考
+(営業)</t>
     <rPh sb="0" eb="2">
-      <t>ネモト</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>小松</t>
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>エイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>備考
+(管理)</t>
     <rPh sb="0" eb="2">
-      <t>コマツ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>阪上</t>
-    <rPh sb="0" eb="2">
-      <t>サカガミ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>仲宗根</t>
-    <rPh sb="0" eb="3">
-      <t>ナカソネ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>堀口</t>
-    <rPh sb="0" eb="2">
-      <t>ホリグチ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>大窪</t>
-    <rPh sb="0" eb="2">
-      <t>オオクボ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>坂口</t>
-    <rPh sb="0" eb="2">
-      <t>サカグチ</t>
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1626,52 +1592,34 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1701,14 +1649,50 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1737,6 +1721,15 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1746,6 +1739,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1755,9 +1757,36 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="6" fontId="6" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1774,6 +1803,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1794,6 +1829,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1815,12 +1853,15 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1833,6 +1874,15 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1878,12 +1928,30 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="5" fontId="6" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="5" fontId="6" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1902,6 +1970,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1920,6 +1997,33 @@
     <xf numFmtId="178" fontId="6" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1928,6 +2032,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1938,6 +2051,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1956,12 +2075,30 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1980,6 +2117,9 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="6" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2014,21 +2154,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2037,6 +2162,8 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2052,8 +2179,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -2061,6 +2200,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2070,30 +2212,102 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2101,75 +2315,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2181,196 +2326,14 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2381,16 +2344,19 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3153,8 +3119,8 @@
   </sheetPr>
   <dimension ref="A1:BC60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AH1"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3163,363 +3129,363 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="264" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
-      <c r="N1" s="159"/>
-      <c r="O1" s="159"/>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="159"/>
-      <c r="R1" s="159"/>
-      <c r="S1" s="159"/>
-      <c r="T1" s="159"/>
-      <c r="U1" s="159"/>
-      <c r="V1" s="159"/>
-      <c r="W1" s="159"/>
-      <c r="X1" s="159"/>
-      <c r="Y1" s="159"/>
-      <c r="Z1" s="159"/>
-      <c r="AA1" s="159"/>
-      <c r="AB1" s="159"/>
-      <c r="AC1" s="159"/>
-      <c r="AD1" s="159"/>
-      <c r="AE1" s="159"/>
-      <c r="AF1" s="159"/>
-      <c r="AG1" s="159"/>
-      <c r="AH1" s="159"/>
+      <c r="B1" s="264"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
+      <c r="F1" s="264"/>
+      <c r="G1" s="264"/>
+      <c r="H1" s="264"/>
+      <c r="I1" s="264"/>
+      <c r="J1" s="264"/>
+      <c r="K1" s="264"/>
+      <c r="L1" s="264"/>
+      <c r="M1" s="264"/>
+      <c r="N1" s="264"/>
+      <c r="O1" s="264"/>
+      <c r="P1" s="264"/>
+      <c r="Q1" s="264"/>
+      <c r="R1" s="264"/>
+      <c r="S1" s="264"/>
+      <c r="T1" s="264"/>
+      <c r="U1" s="264"/>
+      <c r="V1" s="264"/>
+      <c r="W1" s="264"/>
+      <c r="X1" s="264"/>
+      <c r="Y1" s="264"/>
+      <c r="Z1" s="264"/>
+      <c r="AA1" s="264"/>
+      <c r="AB1" s="264"/>
+      <c r="AC1" s="264"/>
+      <c r="AD1" s="264"/>
+      <c r="AE1" s="264"/>
+      <c r="AF1" s="264"/>
+      <c r="AG1" s="264"/>
+      <c r="AH1" s="264"/>
     </row>
     <row r="2" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="161"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="162"/>
-      <c r="S2" s="189" t="s">
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="178"/>
+      <c r="M2" s="178"/>
+      <c r="N2" s="178"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="179"/>
+      <c r="S2" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="222"/>
-      <c r="U2" s="222"/>
-      <c r="V2" s="222"/>
-      <c r="W2" s="222"/>
-      <c r="X2" s="190"/>
-      <c r="Y2" s="163"/>
-      <c r="Z2" s="164"/>
-      <c r="AA2" s="164"/>
-      <c r="AB2" s="164"/>
-      <c r="AC2" s="164"/>
-      <c r="AD2" s="164"/>
-      <c r="AE2" s="164"/>
-      <c r="AF2" s="164"/>
-      <c r="AG2" s="164"/>
-      <c r="AH2" s="165"/>
-      <c r="AI2" s="12" t="s">
+      <c r="T2" s="129"/>
+      <c r="U2" s="129"/>
+      <c r="V2" s="129"/>
+      <c r="W2" s="129"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="265"/>
+      <c r="Z2" s="266"/>
+      <c r="AA2" s="266"/>
+      <c r="AB2" s="266"/>
+      <c r="AC2" s="266"/>
+      <c r="AD2" s="266"/>
+      <c r="AE2" s="266"/>
+      <c r="AF2" s="266"/>
+      <c r="AG2" s="266"/>
+      <c r="AH2" s="267"/>
+      <c r="AI2" s="219" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="14"/>
+      <c r="AJ2" s="220"/>
+      <c r="AK2" s="220"/>
+      <c r="AL2" s="221"/>
     </row>
     <row r="3" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="179" t="s">
+      <c r="A3" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="180"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="173"/>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173"/>
-      <c r="L3" s="173"/>
-      <c r="M3" s="173"/>
-      <c r="N3" s="173"/>
-      <c r="O3" s="173"/>
-      <c r="P3" s="174"/>
-      <c r="S3" s="185" t="s">
+      <c r="B3" s="211"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="222"/>
+      <c r="E3" s="222"/>
+      <c r="F3" s="222"/>
+      <c r="G3" s="222"/>
+      <c r="H3" s="222"/>
+      <c r="I3" s="222"/>
+      <c r="J3" s="222"/>
+      <c r="K3" s="222"/>
+      <c r="L3" s="222"/>
+      <c r="M3" s="222"/>
+      <c r="N3" s="222"/>
+      <c r="O3" s="222"/>
+      <c r="P3" s="223"/>
+      <c r="S3" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="225"/>
-      <c r="U3" s="225"/>
-      <c r="V3" s="225"/>
-      <c r="W3" s="225"/>
-      <c r="X3" s="186"/>
-      <c r="Y3" s="175"/>
-      <c r="Z3" s="176"/>
-      <c r="AA3" s="176"/>
-      <c r="AB3" s="176"/>
-      <c r="AC3" s="176"/>
-      <c r="AD3" s="176"/>
-      <c r="AE3" s="176"/>
-      <c r="AF3" s="176"/>
-      <c r="AG3" s="176"/>
-      <c r="AH3" s="177"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="17"/>
+      <c r="T3" s="124"/>
+      <c r="U3" s="124"/>
+      <c r="V3" s="124"/>
+      <c r="W3" s="124"/>
+      <c r="X3" s="125"/>
+      <c r="Y3" s="224"/>
+      <c r="Z3" s="225"/>
+      <c r="AA3" s="225"/>
+      <c r="AB3" s="225"/>
+      <c r="AC3" s="225"/>
+      <c r="AD3" s="225"/>
+      <c r="AE3" s="225"/>
+      <c r="AF3" s="225"/>
+      <c r="AG3" s="225"/>
+      <c r="AH3" s="226"/>
+      <c r="AI3" s="173"/>
+      <c r="AJ3" s="174"/>
+      <c r="AK3" s="174"/>
+      <c r="AL3" s="227"/>
     </row>
     <row r="4" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="182" t="s">
+      <c r="A4" s="234" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="183"/>
-      <c r="C4" s="184"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="146"/>
-      <c r="O4" s="146"/>
-      <c r="P4" s="147"/>
-      <c r="S4" s="261" t="s">
+      <c r="B4" s="235"/>
+      <c r="C4" s="236"/>
+      <c r="D4" s="237"/>
+      <c r="E4" s="199"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="199"/>
+      <c r="H4" s="199"/>
+      <c r="I4" s="199"/>
+      <c r="J4" s="199"/>
+      <c r="K4" s="199"/>
+      <c r="L4" s="199"/>
+      <c r="M4" s="199"/>
+      <c r="N4" s="199"/>
+      <c r="O4" s="199"/>
+      <c r="P4" s="200"/>
+      <c r="S4" s="260" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="262"/>
-      <c r="U4" s="262"/>
-      <c r="V4" s="262"/>
-      <c r="W4" s="262"/>
-      <c r="X4" s="263"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="93"/>
-      <c r="AB4" s="93"/>
-      <c r="AC4" s="93"/>
-      <c r="AD4" s="93"/>
-      <c r="AE4" s="93"/>
-      <c r="AF4" s="93"/>
-      <c r="AG4" s="93"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="20"/>
+      <c r="T4" s="261"/>
+      <c r="U4" s="261"/>
+      <c r="V4" s="261"/>
+      <c r="W4" s="261"/>
+      <c r="X4" s="262"/>
+      <c r="Y4" s="120"/>
+      <c r="Z4" s="121"/>
+      <c r="AA4" s="121"/>
+      <c r="AB4" s="121"/>
+      <c r="AC4" s="121"/>
+      <c r="AD4" s="121"/>
+      <c r="AE4" s="121"/>
+      <c r="AF4" s="121"/>
+      <c r="AG4" s="121"/>
+      <c r="AH4" s="122"/>
+      <c r="AI4" s="228"/>
+      <c r="AJ4" s="229"/>
+      <c r="AK4" s="229"/>
+      <c r="AL4" s="230"/>
     </row>
     <row r="5" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="182" t="s">
+      <c r="A5" s="234" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="183"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="114"/>
+      <c r="B5" s="235"/>
+      <c r="C5" s="236"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="162"/>
+      <c r="I5" s="162"/>
+      <c r="J5" s="162"/>
+      <c r="K5" s="162"/>
+      <c r="L5" s="162"/>
+      <c r="M5" s="162"/>
+      <c r="N5" s="162"/>
+      <c r="O5" s="162"/>
+      <c r="P5" s="163"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="185" t="s">
+      <c r="S5" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="T5" s="225"/>
-      <c r="U5" s="225"/>
-      <c r="V5" s="225"/>
-      <c r="W5" s="225"/>
-      <c r="X5" s="186"/>
-      <c r="Y5" s="178"/>
-      <c r="Z5" s="93"/>
-      <c r="AA5" s="93"/>
-      <c r="AB5" s="93"/>
-      <c r="AC5" s="93"/>
-      <c r="AD5" s="93"/>
-      <c r="AE5" s="93"/>
-      <c r="AF5" s="93"/>
-      <c r="AG5" s="93"/>
-      <c r="AH5" s="94"/>
-      <c r="AI5" s="18"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="20"/>
+      <c r="T5" s="124"/>
+      <c r="U5" s="124"/>
+      <c r="V5" s="124"/>
+      <c r="W5" s="124"/>
+      <c r="X5" s="125"/>
+      <c r="Y5" s="263"/>
+      <c r="Z5" s="121"/>
+      <c r="AA5" s="121"/>
+      <c r="AB5" s="121"/>
+      <c r="AC5" s="121"/>
+      <c r="AD5" s="121"/>
+      <c r="AE5" s="121"/>
+      <c r="AF5" s="121"/>
+      <c r="AG5" s="121"/>
+      <c r="AH5" s="122"/>
+      <c r="AI5" s="228"/>
+      <c r="AJ5" s="229"/>
+      <c r="AK5" s="229"/>
+      <c r="AL5" s="230"/>
     </row>
     <row r="6" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="182" t="s">
+      <c r="A6" s="234" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="183"/>
-      <c r="C6" s="184"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
-      <c r="M6" s="146"/>
-      <c r="N6" s="146"/>
-      <c r="O6" s="146"/>
-      <c r="P6" s="147"/>
+      <c r="B6" s="235"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="237"/>
+      <c r="E6" s="199"/>
+      <c r="F6" s="199"/>
+      <c r="G6" s="199"/>
+      <c r="H6" s="199"/>
+      <c r="I6" s="199"/>
+      <c r="J6" s="199"/>
+      <c r="K6" s="199"/>
+      <c r="L6" s="199"/>
+      <c r="M6" s="199"/>
+      <c r="N6" s="199"/>
+      <c r="O6" s="199"/>
+      <c r="P6" s="200"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="264" t="s">
+      <c r="S6" s="248" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="265"/>
-      <c r="U6" s="265"/>
-      <c r="V6" s="265"/>
-      <c r="W6" s="265"/>
-      <c r="X6" s="266"/>
-      <c r="Y6" s="92"/>
-      <c r="Z6" s="93"/>
-      <c r="AA6" s="93"/>
-      <c r="AB6" s="93"/>
-      <c r="AC6" s="93"/>
-      <c r="AD6" s="93"/>
-      <c r="AE6" s="93"/>
-      <c r="AF6" s="93"/>
-      <c r="AG6" s="93"/>
-      <c r="AH6" s="94"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="22"/>
-      <c r="AL6" s="23"/>
+      <c r="T6" s="249"/>
+      <c r="U6" s="249"/>
+      <c r="V6" s="249"/>
+      <c r="W6" s="249"/>
+      <c r="X6" s="250"/>
+      <c r="Y6" s="120"/>
+      <c r="Z6" s="121"/>
+      <c r="AA6" s="121"/>
+      <c r="AB6" s="121"/>
+      <c r="AC6" s="121"/>
+      <c r="AD6" s="121"/>
+      <c r="AE6" s="121"/>
+      <c r="AF6" s="121"/>
+      <c r="AG6" s="121"/>
+      <c r="AH6" s="122"/>
+      <c r="AI6" s="231"/>
+      <c r="AJ6" s="232"/>
+      <c r="AK6" s="232"/>
+      <c r="AL6" s="233"/>
     </row>
     <row r="7" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="185" t="s">
+      <c r="A7" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="186"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="189" t="s">
+      <c r="B7" s="125"/>
+      <c r="C7" s="251"/>
+      <c r="D7" s="252"/>
+      <c r="E7" s="253"/>
+      <c r="F7" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="190"/>
-      <c r="H7" s="167"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="169"/>
-      <c r="K7" s="193" t="s">
+      <c r="G7" s="130"/>
+      <c r="H7" s="251"/>
+      <c r="I7" s="252"/>
+      <c r="J7" s="253"/>
+      <c r="K7" s="254" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="194"/>
-      <c r="M7" s="195"/>
-      <c r="N7" s="167">
+      <c r="L7" s="255"/>
+      <c r="M7" s="256"/>
+      <c r="N7" s="251">
         <f>H7-C7-N8</f>
         <v>0</v>
       </c>
-      <c r="O7" s="168"/>
-      <c r="P7" s="169"/>
+      <c r="O7" s="252"/>
+      <c r="P7" s="253"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="189" t="s">
+      <c r="S7" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="T7" s="222"/>
-      <c r="U7" s="222"/>
-      <c r="V7" s="222"/>
-      <c r="W7" s="222"/>
-      <c r="X7" s="222"/>
-      <c r="Y7" s="170"/>
-      <c r="Z7" s="171"/>
-      <c r="AA7" s="171"/>
-      <c r="AB7" s="171"/>
-      <c r="AC7" s="171"/>
-      <c r="AD7" s="171"/>
-      <c r="AE7" s="171"/>
-      <c r="AF7" s="171"/>
-      <c r="AG7" s="171"/>
-      <c r="AH7" s="171"/>
-      <c r="AI7" s="171"/>
-      <c r="AJ7" s="171"/>
-      <c r="AK7" s="171"/>
-      <c r="AL7" s="172"/>
+      <c r="T7" s="129"/>
+      <c r="U7" s="129"/>
+      <c r="V7" s="129"/>
+      <c r="W7" s="129"/>
+      <c r="X7" s="129"/>
+      <c r="Y7" s="257"/>
+      <c r="Z7" s="258"/>
+      <c r="AA7" s="258"/>
+      <c r="AB7" s="258"/>
+      <c r="AC7" s="258"/>
+      <c r="AD7" s="258"/>
+      <c r="AE7" s="258"/>
+      <c r="AF7" s="258"/>
+      <c r="AG7" s="258"/>
+      <c r="AH7" s="258"/>
+      <c r="AI7" s="258"/>
+      <c r="AJ7" s="258"/>
+      <c r="AK7" s="258"/>
+      <c r="AL7" s="259"/>
     </row>
     <row r="8" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="187" t="s">
+      <c r="A8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="188"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="142"/>
-      <c r="E8" s="143"/>
-      <c r="F8" s="191" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="239"/>
+      <c r="E8" s="240"/>
+      <c r="F8" s="241" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="192"/>
-      <c r="H8" s="141"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="143"/>
-      <c r="K8" s="196" t="s">
+      <c r="G8" s="242"/>
+      <c r="H8" s="238"/>
+      <c r="I8" s="239"/>
+      <c r="J8" s="240"/>
+      <c r="K8" s="243" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="197"/>
-      <c r="M8" s="198"/>
-      <c r="N8" s="141">
+      <c r="L8" s="244"/>
+      <c r="M8" s="245"/>
+      <c r="N8" s="238">
         <f>H8-C8</f>
         <v>0</v>
       </c>
-      <c r="O8" s="142"/>
-      <c r="P8" s="143"/>
+      <c r="O8" s="239"/>
+      <c r="P8" s="240"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="191" t="s">
+      <c r="S8" s="241" t="s">
         <v>17</v>
       </c>
-      <c r="T8" s="267"/>
-      <c r="U8" s="267"/>
-      <c r="V8" s="267"/>
-      <c r="W8" s="267"/>
-      <c r="X8" s="267"/>
-      <c r="Y8" s="144" t="s">
+      <c r="T8" s="246"/>
+      <c r="U8" s="246"/>
+      <c r="V8" s="246"/>
+      <c r="W8" s="246"/>
+      <c r="X8" s="246"/>
+      <c r="Y8" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="Z8" s="145"/>
-      <c r="AA8" s="145"/>
-      <c r="AB8" s="145"/>
-      <c r="AC8" s="145"/>
-      <c r="AD8" s="145"/>
-      <c r="AE8" s="260" t="s">
+      <c r="Z8" s="208"/>
+      <c r="AA8" s="208"/>
+      <c r="AB8" s="208"/>
+      <c r="AC8" s="208"/>
+      <c r="AD8" s="208"/>
+      <c r="AE8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="AF8" s="145" t="s">
+      <c r="AF8" s="208" t="s">
         <v>18</v>
       </c>
-      <c r="AG8" s="145"/>
-      <c r="AH8" s="145"/>
-      <c r="AI8" s="145"/>
-      <c r="AJ8" s="145"/>
-      <c r="AK8" s="145"/>
-      <c r="AL8" s="153"/>
+      <c r="AG8" s="208"/>
+      <c r="AH8" s="208"/>
+      <c r="AI8" s="208"/>
+      <c r="AJ8" s="208"/>
+      <c r="AK8" s="208"/>
+      <c r="AL8" s="209"/>
     </row>
     <row r="9" spans="1:38" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
@@ -3528,325 +3494,325 @@
       <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="179" t="s">
+      <c r="A10" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="180"/>
-      <c r="C10" s="181"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="154"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="154"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="154"/>
-      <c r="K10" s="154"/>
-      <c r="L10" s="154"/>
-      <c r="M10" s="154"/>
-      <c r="N10" s="154"/>
-      <c r="O10" s="154"/>
-      <c r="P10" s="155"/>
+      <c r="B10" s="211"/>
+      <c r="C10" s="212"/>
+      <c r="D10" s="213"/>
+      <c r="E10" s="213"/>
+      <c r="F10" s="213"/>
+      <c r="G10" s="213"/>
+      <c r="H10" s="213"/>
+      <c r="I10" s="213"/>
+      <c r="J10" s="213"/>
+      <c r="K10" s="213"/>
+      <c r="L10" s="213"/>
+      <c r="M10" s="213"/>
+      <c r="N10" s="213"/>
+      <c r="O10" s="213"/>
+      <c r="P10" s="214"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="235" t="s">
+      <c r="S10" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="T10" s="236"/>
-      <c r="U10" s="236"/>
-      <c r="V10" s="236"/>
-      <c r="W10" s="236"/>
-      <c r="X10" s="236"/>
-      <c r="Y10" s="236"/>
-      <c r="Z10" s="236"/>
-      <c r="AA10" s="236"/>
-      <c r="AB10" s="236"/>
-      <c r="AC10" s="236"/>
-      <c r="AD10" s="236"/>
-      <c r="AE10" s="236"/>
-      <c r="AF10" s="236"/>
-      <c r="AG10" s="236"/>
-      <c r="AH10" s="236"/>
-      <c r="AI10" s="236"/>
-      <c r="AJ10" s="236"/>
-      <c r="AK10" s="236"/>
-      <c r="AL10" s="237"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="55"/>
+      <c r="AB10" s="55"/>
+      <c r="AC10" s="55"/>
+      <c r="AD10" s="55"/>
+      <c r="AE10" s="55"/>
+      <c r="AF10" s="55"/>
+      <c r="AG10" s="55"/>
+      <c r="AH10" s="55"/>
+      <c r="AI10" s="55"/>
+      <c r="AJ10" s="55"/>
+      <c r="AK10" s="55"/>
+      <c r="AL10" s="56"/>
     </row>
     <row r="11" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="199" t="s">
+      <c r="A11" s="158" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="200"/>
-      <c r="C11" s="201"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="113"/>
-      <c r="M11" s="113"/>
-      <c r="N11" s="113"/>
-      <c r="O11" s="113"/>
-      <c r="P11" s="114"/>
+      <c r="B11" s="159"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="162"/>
+      <c r="K11" s="162"/>
+      <c r="L11" s="162"/>
+      <c r="M11" s="162"/>
+      <c r="N11" s="162"/>
+      <c r="O11" s="162"/>
+      <c r="P11" s="163"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="255" t="s">
+      <c r="S11" s="215" t="s">
         <v>23</v>
       </c>
-      <c r="T11" s="204"/>
-      <c r="U11" s="204"/>
-      <c r="V11" s="204"/>
-      <c r="W11" s="204"/>
-      <c r="X11" s="205"/>
-      <c r="Y11" s="156" t="s">
+      <c r="T11" s="153"/>
+      <c r="U11" s="153"/>
+      <c r="V11" s="153"/>
+      <c r="W11" s="153"/>
+      <c r="X11" s="154"/>
+      <c r="Y11" s="216" t="s">
         <v>18</v>
       </c>
-      <c r="Z11" s="157"/>
-      <c r="AA11" s="157"/>
-      <c r="AB11" s="157"/>
-      <c r="AC11" s="157"/>
-      <c r="AD11" s="157"/>
-      <c r="AE11" s="157"/>
-      <c r="AF11" s="157"/>
-      <c r="AG11" s="157"/>
-      <c r="AH11" s="157"/>
-      <c r="AI11" s="157"/>
-      <c r="AJ11" s="157"/>
-      <c r="AK11" s="157"/>
-      <c r="AL11" s="158"/>
+      <c r="Z11" s="217"/>
+      <c r="AA11" s="217"/>
+      <c r="AB11" s="217"/>
+      <c r="AC11" s="217"/>
+      <c r="AD11" s="217"/>
+      <c r="AE11" s="217"/>
+      <c r="AF11" s="217"/>
+      <c r="AG11" s="217"/>
+      <c r="AH11" s="217"/>
+      <c r="AI11" s="217"/>
+      <c r="AJ11" s="217"/>
+      <c r="AK11" s="217"/>
+      <c r="AL11" s="218"/>
     </row>
     <row r="12" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="199" t="s">
+      <c r="A12" s="158" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="200"/>
-      <c r="C12" s="201"/>
-      <c r="D12" s="146"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="146"/>
-      <c r="M12" s="146"/>
-      <c r="N12" s="146"/>
-      <c r="O12" s="146"/>
-      <c r="P12" s="147"/>
+      <c r="B12" s="159"/>
+      <c r="C12" s="160"/>
+      <c r="D12" s="199"/>
+      <c r="E12" s="199"/>
+      <c r="F12" s="199"/>
+      <c r="G12" s="199"/>
+      <c r="H12" s="199"/>
+      <c r="I12" s="199"/>
+      <c r="J12" s="199"/>
+      <c r="K12" s="199"/>
+      <c r="L12" s="199"/>
+      <c r="M12" s="199"/>
+      <c r="N12" s="199"/>
+      <c r="O12" s="199"/>
+      <c r="P12" s="200"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="185" t="s">
+      <c r="S12" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="T12" s="256"/>
-      <c r="U12" s="256"/>
-      <c r="V12" s="256"/>
-      <c r="W12" s="256"/>
-      <c r="X12" s="257"/>
-      <c r="Y12" s="148"/>
-      <c r="Z12" s="149"/>
-      <c r="AA12" s="251" t="s">
+      <c r="T12" s="201"/>
+      <c r="U12" s="201"/>
+      <c r="V12" s="201"/>
+      <c r="W12" s="201"/>
+      <c r="X12" s="202"/>
+      <c r="Y12" s="203"/>
+      <c r="Z12" s="204"/>
+      <c r="AA12" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="AB12" s="252"/>
-      <c r="AC12" s="253"/>
-      <c r="AD12" s="150" t="s">
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="32"/>
+      <c r="AD12" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="AE12" s="151"/>
-      <c r="AF12" s="151"/>
-      <c r="AG12" s="151"/>
-      <c r="AH12" s="151"/>
-      <c r="AI12" s="151"/>
-      <c r="AJ12" s="151"/>
-      <c r="AK12" s="151"/>
-      <c r="AL12" s="152"/>
+      <c r="AE12" s="206"/>
+      <c r="AF12" s="206"/>
+      <c r="AG12" s="206"/>
+      <c r="AH12" s="206"/>
+      <c r="AI12" s="206"/>
+      <c r="AJ12" s="206"/>
+      <c r="AK12" s="206"/>
+      <c r="AL12" s="207"/>
     </row>
     <row r="13" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="199" t="s">
+      <c r="A13" s="158" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="200"/>
-      <c r="C13" s="201"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="113"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="114"/>
+      <c r="B13" s="159"/>
+      <c r="C13" s="160"/>
+      <c r="D13" s="161"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="162"/>
+      <c r="J13" s="162"/>
+      <c r="K13" s="162"/>
+      <c r="L13" s="162"/>
+      <c r="M13" s="162"/>
+      <c r="N13" s="162"/>
+      <c r="O13" s="162"/>
+      <c r="P13" s="163"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="258" t="s">
+      <c r="S13" s="164" t="s">
         <v>27</v>
       </c>
-      <c r="T13" s="259"/>
-      <c r="U13" s="259"/>
-      <c r="V13" s="207"/>
-      <c r="W13" s="207"/>
-      <c r="X13" s="208"/>
-      <c r="Y13" s="115"/>
-      <c r="Z13" s="116"/>
-      <c r="AA13" s="117"/>
-      <c r="AB13" s="117"/>
-      <c r="AC13" s="117"/>
-      <c r="AD13" s="116"/>
-      <c r="AE13" s="116"/>
-      <c r="AF13" s="116"/>
-      <c r="AG13" s="116"/>
-      <c r="AH13" s="118"/>
-      <c r="AI13" s="235" t="s">
+      <c r="T13" s="165"/>
+      <c r="U13" s="165"/>
+      <c r="V13" s="74"/>
+      <c r="W13" s="74"/>
+      <c r="X13" s="75"/>
+      <c r="Y13" s="166"/>
+      <c r="Z13" s="167"/>
+      <c r="AA13" s="168"/>
+      <c r="AB13" s="168"/>
+      <c r="AC13" s="168"/>
+      <c r="AD13" s="167"/>
+      <c r="AE13" s="167"/>
+      <c r="AF13" s="167"/>
+      <c r="AG13" s="167"/>
+      <c r="AH13" s="169"/>
+      <c r="AI13" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="AJ13" s="236"/>
-      <c r="AK13" s="236"/>
-      <c r="AL13" s="237"/>
+      <c r="AJ13" s="55"/>
+      <c r="AK13" s="55"/>
+      <c r="AL13" s="56"/>
     </row>
     <row r="14" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="199" t="s">
+      <c r="A14" s="158" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="200"/>
-      <c r="C14" s="201"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="94"/>
+      <c r="B14" s="159"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="171"/>
+      <c r="F14" s="171"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="121"/>
+      <c r="K14" s="121"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="121"/>
+      <c r="O14" s="121"/>
+      <c r="P14" s="122"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="254" t="s">
+      <c r="S14" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="T14" s="215"/>
-      <c r="U14" s="216"/>
-      <c r="V14" s="15" t="s">
+      <c r="T14" s="106"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="121"/>
-      <c r="Z14" s="122"/>
-      <c r="AA14" s="160" t="s">
+      <c r="W14" s="174"/>
+      <c r="X14" s="174"/>
+      <c r="Y14" s="175"/>
+      <c r="Z14" s="176"/>
+      <c r="AA14" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="AB14" s="161"/>
-      <c r="AC14" s="162"/>
-      <c r="AD14" s="83" t="s">
+      <c r="AB14" s="178"/>
+      <c r="AC14" s="179"/>
+      <c r="AD14" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="AE14" s="84"/>
-      <c r="AF14" s="84"/>
-      <c r="AG14" s="84"/>
-      <c r="AH14" s="84"/>
-      <c r="AI14" s="123">
+      <c r="AE14" s="112"/>
+      <c r="AF14" s="112"/>
+      <c r="AG14" s="112"/>
+      <c r="AH14" s="112"/>
+      <c r="AI14" s="180">
         <v>80</v>
       </c>
-      <c r="AJ14" s="124"/>
-      <c r="AK14" s="124"/>
-      <c r="AL14" s="125"/>
+      <c r="AJ14" s="181"/>
+      <c r="AK14" s="181"/>
+      <c r="AL14" s="182"/>
     </row>
     <row r="15" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="202" t="s">
+      <c r="A15" s="186" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="203"/>
-      <c r="C15" s="203"/>
-      <c r="D15" s="204"/>
-      <c r="E15" s="204"/>
-      <c r="F15" s="205"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="130"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="130"/>
-      <c r="M15" s="130"/>
-      <c r="N15" s="130"/>
-      <c r="O15" s="130"/>
-      <c r="P15" s="131"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="153"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="187"/>
+      <c r="H15" s="188"/>
+      <c r="I15" s="188"/>
+      <c r="J15" s="188"/>
+      <c r="K15" s="188"/>
+      <c r="L15" s="188"/>
+      <c r="M15" s="188"/>
+      <c r="N15" s="188"/>
+      <c r="O15" s="188"/>
+      <c r="P15" s="189"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="202" t="s">
+      <c r="S15" s="186" t="s">
         <v>32</v>
       </c>
-      <c r="T15" s="203"/>
-      <c r="U15" s="203"/>
-      <c r="V15" s="204"/>
-      <c r="W15" s="204"/>
-      <c r="X15" s="205"/>
-      <c r="Y15" s="132" t="s">
+      <c r="T15" s="138"/>
+      <c r="U15" s="138"/>
+      <c r="V15" s="153"/>
+      <c r="W15" s="153"/>
+      <c r="X15" s="154"/>
+      <c r="Y15" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="Z15" s="133"/>
-      <c r="AA15" s="133"/>
-      <c r="AB15" s="133"/>
-      <c r="AC15" s="133"/>
-      <c r="AD15" s="133"/>
-      <c r="AE15" s="133"/>
-      <c r="AF15" s="133"/>
-      <c r="AG15" s="133"/>
-      <c r="AH15" s="134"/>
-      <c r="AI15" s="123"/>
-      <c r="AJ15" s="124"/>
-      <c r="AK15" s="124"/>
-      <c r="AL15" s="125"/>
+      <c r="Z15" s="191"/>
+      <c r="AA15" s="191"/>
+      <c r="AB15" s="191"/>
+      <c r="AC15" s="191"/>
+      <c r="AD15" s="191"/>
+      <c r="AE15" s="191"/>
+      <c r="AF15" s="191"/>
+      <c r="AG15" s="191"/>
+      <c r="AH15" s="192"/>
+      <c r="AI15" s="180"/>
+      <c r="AJ15" s="181"/>
+      <c r="AK15" s="181"/>
+      <c r="AL15" s="182"/>
     </row>
     <row r="16" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="206" t="s">
+      <c r="A16" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="207"/>
-      <c r="C16" s="207"/>
-      <c r="D16" s="207"/>
-      <c r="E16" s="207"/>
-      <c r="F16" s="208"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="136"/>
-      <c r="J16" s="136"/>
-      <c r="K16" s="136"/>
-      <c r="L16" s="136"/>
-      <c r="M16" s="136"/>
-      <c r="N16" s="136"/>
-      <c r="O16" s="136"/>
-      <c r="P16" s="137"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="194"/>
+      <c r="J16" s="194"/>
+      <c r="K16" s="194"/>
+      <c r="L16" s="194"/>
+      <c r="M16" s="194"/>
+      <c r="N16" s="194"/>
+      <c r="O16" s="194"/>
+      <c r="P16" s="195"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="206" t="s">
+      <c r="S16" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="T16" s="207"/>
-      <c r="U16" s="207"/>
-      <c r="V16" s="207"/>
-      <c r="W16" s="207"/>
-      <c r="X16" s="208"/>
-      <c r="Y16" s="138" t="s">
+      <c r="T16" s="74"/>
+      <c r="U16" s="74"/>
+      <c r="V16" s="74"/>
+      <c r="W16" s="74"/>
+      <c r="X16" s="75"/>
+      <c r="Y16" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="Z16" s="139"/>
-      <c r="AA16" s="139"/>
-      <c r="AB16" s="139"/>
-      <c r="AC16" s="139"/>
-      <c r="AD16" s="139"/>
-      <c r="AE16" s="139"/>
-      <c r="AF16" s="139"/>
-      <c r="AG16" s="139"/>
-      <c r="AH16" s="140"/>
-      <c r="AI16" s="126"/>
-      <c r="AJ16" s="127"/>
-      <c r="AK16" s="127"/>
-      <c r="AL16" s="128"/>
+      <c r="Z16" s="197"/>
+      <c r="AA16" s="197"/>
+      <c r="AB16" s="197"/>
+      <c r="AC16" s="197"/>
+      <c r="AD16" s="197"/>
+      <c r="AE16" s="197"/>
+      <c r="AF16" s="197"/>
+      <c r="AG16" s="197"/>
+      <c r="AH16" s="198"/>
+      <c r="AI16" s="183"/>
+      <c r="AJ16" s="184"/>
+      <c r="AK16" s="184"/>
+      <c r="AL16" s="185"/>
     </row>
     <row r="17" spans="1:55" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
@@ -3885,757 +3851,757 @@
       <c r="AH17" s="6"/>
     </row>
     <row r="18" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="209" t="s">
+      <c r="A18" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="210"/>
-      <c r="C18" s="211" t="s">
+      <c r="B18" s="147"/>
+      <c r="C18" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="204"/>
-      <c r="E18" s="204"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110"/>
-      <c r="N18" s="110"/>
-      <c r="O18" s="110"/>
-      <c r="P18" s="111"/>
+      <c r="D18" s="153"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="156"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="156"/>
+      <c r="K18" s="156"/>
+      <c r="L18" s="156"/>
+      <c r="M18" s="156"/>
+      <c r="N18" s="156"/>
+      <c r="O18" s="156"/>
+      <c r="P18" s="157"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="209" t="s">
+      <c r="S18" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="T18" s="210"/>
-      <c r="U18" s="211" t="s">
+      <c r="T18" s="147"/>
+      <c r="U18" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="V18" s="204"/>
-      <c r="W18" s="204"/>
-      <c r="X18" s="205"/>
-      <c r="Y18" s="107" t="s">
+      <c r="V18" s="153"/>
+      <c r="W18" s="153"/>
+      <c r="X18" s="154"/>
+      <c r="Y18" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="Z18" s="107"/>
-      <c r="AA18" s="107"/>
-      <c r="AB18" s="107"/>
-      <c r="AC18" s="107"/>
-      <c r="AD18" s="107"/>
-      <c r="AE18" s="107"/>
-      <c r="AF18" s="107" t="s">
+      <c r="Z18" s="144"/>
+      <c r="AA18" s="144"/>
+      <c r="AB18" s="144"/>
+      <c r="AC18" s="144"/>
+      <c r="AD18" s="144"/>
+      <c r="AE18" s="144"/>
+      <c r="AF18" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="AG18" s="107"/>
-      <c r="AH18" s="107"/>
-      <c r="AI18" s="107"/>
-      <c r="AJ18" s="107"/>
-      <c r="AK18" s="107"/>
-      <c r="AL18" s="107"/>
+      <c r="AG18" s="144"/>
+      <c r="AH18" s="144"/>
+      <c r="AI18" s="144"/>
+      <c r="AJ18" s="144"/>
+      <c r="AK18" s="144"/>
+      <c r="AL18" s="144"/>
     </row>
     <row r="19" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="212"/>
-      <c r="B19" s="213"/>
-      <c r="C19" s="214" t="s">
+      <c r="A19" s="148"/>
+      <c r="B19" s="149"/>
+      <c r="C19" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="215"/>
-      <c r="E19" s="215"/>
-      <c r="F19" s="216"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="88"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="115"/>
+      <c r="M19" s="115"/>
+      <c r="N19" s="115"/>
+      <c r="O19" s="115"/>
+      <c r="P19" s="116"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="212"/>
-      <c r="T19" s="213"/>
-      <c r="U19" s="214" t="s">
+      <c r="S19" s="148"/>
+      <c r="T19" s="149"/>
+      <c r="U19" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="V19" s="215"/>
-      <c r="W19" s="215"/>
-      <c r="X19" s="216"/>
-      <c r="Y19" s="108" t="s">
+      <c r="V19" s="106"/>
+      <c r="W19" s="106"/>
+      <c r="X19" s="107"/>
+      <c r="Y19" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="Z19" s="108"/>
-      <c r="AA19" s="108"/>
-      <c r="AB19" s="108"/>
-      <c r="AC19" s="108"/>
-      <c r="AD19" s="108"/>
-      <c r="AE19" s="108"/>
-      <c r="AF19" s="108"/>
-      <c r="AG19" s="108"/>
-      <c r="AH19" s="108"/>
-      <c r="AI19" s="108"/>
-      <c r="AJ19" s="108"/>
-      <c r="AK19" s="108"/>
-      <c r="AL19" s="108"/>
+      <c r="Z19" s="145"/>
+      <c r="AA19" s="145"/>
+      <c r="AB19" s="145"/>
+      <c r="AC19" s="145"/>
+      <c r="AD19" s="145"/>
+      <c r="AE19" s="145"/>
+      <c r="AF19" s="145"/>
+      <c r="AG19" s="145"/>
+      <c r="AH19" s="145"/>
+      <c r="AI19" s="145"/>
+      <c r="AJ19" s="145"/>
+      <c r="AK19" s="145"/>
+      <c r="AL19" s="145"/>
     </row>
     <row r="20" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="212"/>
-      <c r="B20" s="213"/>
-      <c r="C20" s="214" t="s">
+      <c r="A20" s="148"/>
+      <c r="B20" s="149"/>
+      <c r="C20" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="215"/>
-      <c r="E20" s="215"/>
-      <c r="F20" s="216"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="81"/>
-      <c r="P20" s="82"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="109"/>
+      <c r="M20" s="109"/>
+      <c r="N20" s="109"/>
+      <c r="O20" s="109"/>
+      <c r="P20" s="110"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="212"/>
-      <c r="T20" s="213"/>
-      <c r="U20" s="214" t="s">
+      <c r="S20" s="148"/>
+      <c r="T20" s="149"/>
+      <c r="U20" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="V20" s="215"/>
-      <c r="W20" s="215"/>
-      <c r="X20" s="216"/>
-      <c r="Y20" s="106" t="s">
+      <c r="V20" s="106"/>
+      <c r="W20" s="106"/>
+      <c r="X20" s="107"/>
+      <c r="Y20" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="Z20" s="106"/>
-      <c r="AA20" s="106"/>
-      <c r="AB20" s="106"/>
-      <c r="AC20" s="106"/>
-      <c r="AD20" s="106"/>
-      <c r="AE20" s="106"/>
-      <c r="AF20" s="106" t="s">
+      <c r="Z20" s="143"/>
+      <c r="AA20" s="143"/>
+      <c r="AB20" s="143"/>
+      <c r="AC20" s="143"/>
+      <c r="AD20" s="143"/>
+      <c r="AE20" s="143"/>
+      <c r="AF20" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="AG20" s="106"/>
-      <c r="AH20" s="106"/>
-      <c r="AI20" s="106"/>
-      <c r="AJ20" s="106"/>
-      <c r="AK20" s="106"/>
-      <c r="AL20" s="106"/>
+      <c r="AG20" s="143"/>
+      <c r="AH20" s="143"/>
+      <c r="AI20" s="143"/>
+      <c r="AJ20" s="143"/>
+      <c r="AK20" s="143"/>
+      <c r="AL20" s="143"/>
     </row>
     <row r="21" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="212"/>
-      <c r="B21" s="213"/>
-      <c r="C21" s="214" t="s">
+      <c r="A21" s="148"/>
+      <c r="B21" s="149"/>
+      <c r="C21" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="215"/>
-      <c r="E21" s="215"/>
-      <c r="F21" s="216"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="81"/>
-      <c r="N21" s="81"/>
-      <c r="O21" s="81"/>
-      <c r="P21" s="82"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="109"/>
+      <c r="L21" s="109"/>
+      <c r="M21" s="109"/>
+      <c r="N21" s="109"/>
+      <c r="O21" s="109"/>
+      <c r="P21" s="110"/>
       <c r="R21" s="2"/>
-      <c r="S21" s="212"/>
-      <c r="T21" s="213"/>
-      <c r="U21" s="214" t="s">
+      <c r="S21" s="148"/>
+      <c r="T21" s="149"/>
+      <c r="U21" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="V21" s="215"/>
-      <c r="W21" s="215"/>
-      <c r="X21" s="216"/>
-      <c r="Y21" s="106" t="s">
+      <c r="V21" s="106"/>
+      <c r="W21" s="106"/>
+      <c r="X21" s="107"/>
+      <c r="Y21" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="Z21" s="106"/>
-      <c r="AA21" s="106"/>
-      <c r="AB21" s="106"/>
-      <c r="AC21" s="106"/>
-      <c r="AD21" s="106"/>
-      <c r="AE21" s="106"/>
-      <c r="AF21" s="106" t="s">
+      <c r="Z21" s="143"/>
+      <c r="AA21" s="143"/>
+      <c r="AB21" s="143"/>
+      <c r="AC21" s="143"/>
+      <c r="AD21" s="143"/>
+      <c r="AE21" s="143"/>
+      <c r="AF21" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="AG21" s="106"/>
-      <c r="AH21" s="106"/>
-      <c r="AI21" s="106"/>
-      <c r="AJ21" s="106"/>
-      <c r="AK21" s="106"/>
-      <c r="AL21" s="106"/>
+      <c r="AG21" s="143"/>
+      <c r="AH21" s="143"/>
+      <c r="AI21" s="143"/>
+      <c r="AJ21" s="143"/>
+      <c r="AK21" s="143"/>
+      <c r="AL21" s="143"/>
     </row>
     <row r="22" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="212"/>
-      <c r="B22" s="213"/>
-      <c r="C22" s="214" t="s">
+      <c r="A22" s="148"/>
+      <c r="B22" s="149"/>
+      <c r="C22" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="215"/>
-      <c r="E22" s="215"/>
-      <c r="F22" s="216"/>
-      <c r="G22" s="86" t="s">
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="88"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="115"/>
+      <c r="O22" s="115"/>
+      <c r="P22" s="116"/>
       <c r="R22" s="2"/>
-      <c r="S22" s="212"/>
-      <c r="T22" s="213"/>
-      <c r="U22" s="214" t="s">
+      <c r="S22" s="148"/>
+      <c r="T22" s="149"/>
+      <c r="U22" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="V22" s="215"/>
-      <c r="W22" s="215"/>
-      <c r="X22" s="216"/>
-      <c r="Y22" s="95" t="s">
+      <c r="V22" s="106"/>
+      <c r="W22" s="106"/>
+      <c r="X22" s="107"/>
+      <c r="Y22" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="Z22" s="95"/>
-      <c r="AA22" s="95"/>
-      <c r="AB22" s="95"/>
-      <c r="AC22" s="95"/>
-      <c r="AD22" s="95"/>
-      <c r="AE22" s="95"/>
-      <c r="AF22" s="95" t="s">
+      <c r="Z22" s="126"/>
+      <c r="AA22" s="126"/>
+      <c r="AB22" s="126"/>
+      <c r="AC22" s="126"/>
+      <c r="AD22" s="126"/>
+      <c r="AE22" s="126"/>
+      <c r="AF22" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="AG22" s="95"/>
-      <c r="AH22" s="95"/>
-      <c r="AI22" s="95"/>
-      <c r="AJ22" s="95"/>
-      <c r="AK22" s="95"/>
-      <c r="AL22" s="95"/>
+      <c r="AG22" s="126"/>
+      <c r="AH22" s="126"/>
+      <c r="AI22" s="126"/>
+      <c r="AJ22" s="126"/>
+      <c r="AK22" s="126"/>
+      <c r="AL22" s="126"/>
     </row>
     <row r="23" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="217"/>
-      <c r="B23" s="218"/>
-      <c r="C23" s="219" t="s">
+      <c r="A23" s="150"/>
+      <c r="B23" s="151"/>
+      <c r="C23" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="207"/>
-      <c r="E23" s="207"/>
-      <c r="F23" s="208"/>
-      <c r="G23" s="55" t="s">
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="57"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="78"/>
       <c r="R23" s="2"/>
-      <c r="S23" s="217"/>
-      <c r="T23" s="218"/>
-      <c r="U23" s="219" t="s">
+      <c r="S23" s="150"/>
+      <c r="T23" s="151"/>
+      <c r="U23" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="V23" s="207"/>
-      <c r="W23" s="207"/>
-      <c r="X23" s="208"/>
-      <c r="Y23" s="95" t="s">
+      <c r="V23" s="74"/>
+      <c r="W23" s="74"/>
+      <c r="X23" s="75"/>
+      <c r="Y23" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="Z23" s="95"/>
-      <c r="AA23" s="95"/>
-      <c r="AB23" s="95"/>
-      <c r="AC23" s="95"/>
-      <c r="AD23" s="95"/>
-      <c r="AE23" s="95"/>
-      <c r="AF23" s="96" t="s">
+      <c r="Z23" s="126"/>
+      <c r="AA23" s="126"/>
+      <c r="AB23" s="126"/>
+      <c r="AC23" s="126"/>
+      <c r="AD23" s="126"/>
+      <c r="AE23" s="126"/>
+      <c r="AF23" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="AG23" s="96"/>
-      <c r="AH23" s="96"/>
-      <c r="AI23" s="96"/>
-      <c r="AJ23" s="96"/>
-      <c r="AK23" s="96"/>
-      <c r="AL23" s="96"/>
+      <c r="AG23" s="127"/>
+      <c r="AH23" s="127"/>
+      <c r="AI23" s="127"/>
+      <c r="AJ23" s="127"/>
+      <c r="AK23" s="127"/>
+      <c r="AL23" s="127"/>
     </row>
     <row r="24" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="220" t="s">
+      <c r="A24" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="221"/>
-      <c r="C24" s="189" t="s">
+      <c r="B24" s="38"/>
+      <c r="C24" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="222"/>
-      <c r="E24" s="222"/>
-      <c r="F24" s="190"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="98"/>
-      <c r="P24" s="99"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="129"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="132"/>
+      <c r="K24" s="132"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="132"/>
+      <c r="O24" s="132"/>
+      <c r="P24" s="133"/>
       <c r="R24" s="2"/>
-      <c r="S24" s="220" t="s">
+      <c r="S24" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="T24" s="221"/>
-      <c r="U24" s="189" t="s">
+      <c r="T24" s="38"/>
+      <c r="U24" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="V24" s="222"/>
-      <c r="W24" s="222"/>
-      <c r="X24" s="190"/>
-      <c r="Y24" s="100"/>
-      <c r="Z24" s="101"/>
-      <c r="AA24" s="101"/>
-      <c r="AB24" s="101"/>
-      <c r="AC24" s="101"/>
-      <c r="AD24" s="101"/>
-      <c r="AE24" s="102"/>
-      <c r="AF24" s="100"/>
-      <c r="AG24" s="101"/>
-      <c r="AH24" s="101"/>
-      <c r="AI24" s="101"/>
-      <c r="AJ24" s="101"/>
-      <c r="AK24" s="101"/>
-      <c r="AL24" s="102"/>
+      <c r="V24" s="129"/>
+      <c r="W24" s="129"/>
+      <c r="X24" s="130"/>
+      <c r="Y24" s="134"/>
+      <c r="Z24" s="135"/>
+      <c r="AA24" s="135"/>
+      <c r="AB24" s="135"/>
+      <c r="AC24" s="135"/>
+      <c r="AD24" s="135"/>
+      <c r="AE24" s="136"/>
+      <c r="AF24" s="134"/>
+      <c r="AG24" s="135"/>
+      <c r="AH24" s="135"/>
+      <c r="AI24" s="135"/>
+      <c r="AJ24" s="135"/>
+      <c r="AK24" s="135"/>
+      <c r="AL24" s="136"/>
     </row>
     <row r="25" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="223"/>
-      <c r="B25" s="224"/>
-      <c r="C25" s="185" t="s">
+      <c r="A25" s="39"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="225"/>
-      <c r="E25" s="225"/>
-      <c r="F25" s="186"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="93"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="94"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="124"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="121"/>
+      <c r="I25" s="121"/>
+      <c r="J25" s="121"/>
+      <c r="K25" s="121"/>
+      <c r="L25" s="121"/>
+      <c r="M25" s="121"/>
+      <c r="N25" s="121"/>
+      <c r="O25" s="121"/>
+      <c r="P25" s="122"/>
       <c r="R25" s="2"/>
-      <c r="S25" s="223"/>
-      <c r="T25" s="224"/>
-      <c r="U25" s="185" t="s">
+      <c r="S25" s="39"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="V25" s="225"/>
-      <c r="W25" s="225"/>
-      <c r="X25" s="186"/>
-      <c r="Y25" s="83"/>
-      <c r="Z25" s="84"/>
-      <c r="AA25" s="84"/>
-      <c r="AB25" s="84"/>
-      <c r="AC25" s="84"/>
-      <c r="AD25" s="84"/>
-      <c r="AE25" s="85"/>
-      <c r="AF25" s="83"/>
-      <c r="AG25" s="84"/>
-      <c r="AH25" s="84"/>
-      <c r="AI25" s="84"/>
-      <c r="AJ25" s="84"/>
-      <c r="AK25" s="84"/>
-      <c r="AL25" s="85"/>
+      <c r="V25" s="124"/>
+      <c r="W25" s="124"/>
+      <c r="X25" s="125"/>
+      <c r="Y25" s="111"/>
+      <c r="Z25" s="112"/>
+      <c r="AA25" s="112"/>
+      <c r="AB25" s="112"/>
+      <c r="AC25" s="112"/>
+      <c r="AD25" s="112"/>
+      <c r="AE25" s="113"/>
+      <c r="AF25" s="111"/>
+      <c r="AG25" s="112"/>
+      <c r="AH25" s="112"/>
+      <c r="AI25" s="112"/>
+      <c r="AJ25" s="112"/>
+      <c r="AK25" s="112"/>
+      <c r="AL25" s="113"/>
     </row>
     <row r="26" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="223"/>
-      <c r="B26" s="224"/>
-      <c r="C26" s="226" t="s">
+      <c r="A26" s="39"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="203"/>
-      <c r="E26" s="203"/>
-      <c r="F26" s="227"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="104"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="104"/>
-      <c r="N26" s="104"/>
-      <c r="O26" s="104"/>
-      <c r="P26" s="105"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="140"/>
+      <c r="H26" s="141"/>
+      <c r="I26" s="141"/>
+      <c r="J26" s="141"/>
+      <c r="K26" s="141"/>
+      <c r="L26" s="141"/>
+      <c r="M26" s="141"/>
+      <c r="N26" s="141"/>
+      <c r="O26" s="141"/>
+      <c r="P26" s="142"/>
       <c r="R26" s="2"/>
-      <c r="S26" s="223"/>
-      <c r="T26" s="224"/>
-      <c r="U26" s="226" t="s">
+      <c r="S26" s="39"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="V26" s="203"/>
-      <c r="W26" s="203"/>
-      <c r="X26" s="227"/>
-      <c r="Y26" s="83"/>
-      <c r="Z26" s="84"/>
-      <c r="AA26" s="84"/>
-      <c r="AB26" s="84"/>
-      <c r="AC26" s="84"/>
-      <c r="AD26" s="84"/>
-      <c r="AE26" s="85"/>
-      <c r="AF26" s="83"/>
-      <c r="AG26" s="84"/>
-      <c r="AH26" s="84"/>
-      <c r="AI26" s="84"/>
-      <c r="AJ26" s="84"/>
-      <c r="AK26" s="84"/>
-      <c r="AL26" s="85"/>
+      <c r="V26" s="138"/>
+      <c r="W26" s="138"/>
+      <c r="X26" s="139"/>
+      <c r="Y26" s="111"/>
+      <c r="Z26" s="112"/>
+      <c r="AA26" s="112"/>
+      <c r="AB26" s="112"/>
+      <c r="AC26" s="112"/>
+      <c r="AD26" s="112"/>
+      <c r="AE26" s="113"/>
+      <c r="AF26" s="111"/>
+      <c r="AG26" s="112"/>
+      <c r="AH26" s="112"/>
+      <c r="AI26" s="112"/>
+      <c r="AJ26" s="112"/>
+      <c r="AK26" s="112"/>
+      <c r="AL26" s="113"/>
     </row>
     <row r="27" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="223"/>
-      <c r="B27" s="224"/>
-      <c r="C27" s="214" t="s">
+      <c r="A27" s="39"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="215"/>
-      <c r="E27" s="215"/>
-      <c r="F27" s="216"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="87"/>
-      <c r="O27" s="87"/>
-      <c r="P27" s="88"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="115"/>
+      <c r="M27" s="115"/>
+      <c r="N27" s="115"/>
+      <c r="O27" s="115"/>
+      <c r="P27" s="116"/>
       <c r="R27" s="2"/>
-      <c r="S27" s="223"/>
-      <c r="T27" s="224"/>
-      <c r="U27" s="214" t="s">
+      <c r="S27" s="39"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="V27" s="215"/>
-      <c r="W27" s="215"/>
-      <c r="X27" s="216"/>
-      <c r="Y27" s="89"/>
-      <c r="Z27" s="90"/>
-      <c r="AA27" s="90"/>
-      <c r="AB27" s="90"/>
-      <c r="AC27" s="90"/>
-      <c r="AD27" s="90"/>
-      <c r="AE27" s="91"/>
-      <c r="AF27" s="89"/>
-      <c r="AG27" s="90"/>
-      <c r="AH27" s="90"/>
-      <c r="AI27" s="90"/>
-      <c r="AJ27" s="90"/>
-      <c r="AK27" s="90"/>
-      <c r="AL27" s="91"/>
+      <c r="V27" s="106"/>
+      <c r="W27" s="106"/>
+      <c r="X27" s="107"/>
+      <c r="Y27" s="117"/>
+      <c r="Z27" s="118"/>
+      <c r="AA27" s="118"/>
+      <c r="AB27" s="118"/>
+      <c r="AC27" s="118"/>
+      <c r="AD27" s="118"/>
+      <c r="AE27" s="119"/>
+      <c r="AF27" s="117"/>
+      <c r="AG27" s="118"/>
+      <c r="AH27" s="118"/>
+      <c r="AI27" s="118"/>
+      <c r="AJ27" s="118"/>
+      <c r="AK27" s="118"/>
+      <c r="AL27" s="119"/>
     </row>
     <row r="28" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="223"/>
-      <c r="B28" s="224"/>
-      <c r="C28" s="214" t="s">
+      <c r="A28" s="39"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="215"/>
-      <c r="E28" s="215"/>
-      <c r="F28" s="216"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="81"/>
-      <c r="P28" s="82"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="109"/>
+      <c r="J28" s="109"/>
+      <c r="K28" s="109"/>
+      <c r="L28" s="109"/>
+      <c r="M28" s="109"/>
+      <c r="N28" s="109"/>
+      <c r="O28" s="109"/>
+      <c r="P28" s="110"/>
       <c r="R28" s="2"/>
-      <c r="S28" s="223"/>
-      <c r="T28" s="224"/>
-      <c r="U28" s="214" t="s">
+      <c r="S28" s="39"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="V28" s="215"/>
-      <c r="W28" s="215"/>
-      <c r="X28" s="216"/>
-      <c r="Y28" s="83"/>
-      <c r="Z28" s="84"/>
-      <c r="AA28" s="84"/>
-      <c r="AB28" s="84"/>
-      <c r="AC28" s="84"/>
-      <c r="AD28" s="84"/>
-      <c r="AE28" s="85"/>
-      <c r="AF28" s="83"/>
-      <c r="AG28" s="84"/>
-      <c r="AH28" s="84"/>
-      <c r="AI28" s="84"/>
-      <c r="AJ28" s="84"/>
-      <c r="AK28" s="84"/>
-      <c r="AL28" s="85"/>
+      <c r="V28" s="106"/>
+      <c r="W28" s="106"/>
+      <c r="X28" s="107"/>
+      <c r="Y28" s="111"/>
+      <c r="Z28" s="112"/>
+      <c r="AA28" s="112"/>
+      <c r="AB28" s="112"/>
+      <c r="AC28" s="112"/>
+      <c r="AD28" s="112"/>
+      <c r="AE28" s="113"/>
+      <c r="AF28" s="111"/>
+      <c r="AG28" s="112"/>
+      <c r="AH28" s="112"/>
+      <c r="AI28" s="112"/>
+      <c r="AJ28" s="112"/>
+      <c r="AK28" s="112"/>
+      <c r="AL28" s="113"/>
     </row>
     <row r="29" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="223"/>
-      <c r="B29" s="224"/>
-      <c r="C29" s="214" t="s">
+      <c r="A29" s="39"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="215"/>
-      <c r="E29" s="215"/>
-      <c r="F29" s="216"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="81"/>
-      <c r="P29" s="82"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="109"/>
+      <c r="I29" s="109"/>
+      <c r="J29" s="109"/>
+      <c r="K29" s="109"/>
+      <c r="L29" s="109"/>
+      <c r="M29" s="109"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="110"/>
       <c r="R29" s="2"/>
-      <c r="S29" s="223"/>
-      <c r="T29" s="224"/>
-      <c r="U29" s="214" t="s">
+      <c r="S29" s="39"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="V29" s="215"/>
-      <c r="W29" s="215"/>
-      <c r="X29" s="216"/>
-      <c r="Y29" s="83"/>
-      <c r="Z29" s="84"/>
-      <c r="AA29" s="84"/>
-      <c r="AB29" s="84"/>
-      <c r="AC29" s="84"/>
-      <c r="AD29" s="84"/>
-      <c r="AE29" s="85"/>
-      <c r="AF29" s="83"/>
-      <c r="AG29" s="84"/>
-      <c r="AH29" s="84"/>
-      <c r="AI29" s="84"/>
-      <c r="AJ29" s="84"/>
-      <c r="AK29" s="84"/>
-      <c r="AL29" s="85"/>
+      <c r="V29" s="106"/>
+      <c r="W29" s="106"/>
+      <c r="X29" s="107"/>
+      <c r="Y29" s="111"/>
+      <c r="Z29" s="112"/>
+      <c r="AA29" s="112"/>
+      <c r="AB29" s="112"/>
+      <c r="AC29" s="112"/>
+      <c r="AD29" s="112"/>
+      <c r="AE29" s="113"/>
+      <c r="AF29" s="111"/>
+      <c r="AG29" s="112"/>
+      <c r="AH29" s="112"/>
+      <c r="AI29" s="112"/>
+      <c r="AJ29" s="112"/>
+      <c r="AK29" s="112"/>
+      <c r="AL29" s="113"/>
     </row>
     <row r="30" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="223"/>
-      <c r="B30" s="224"/>
-      <c r="C30" s="214" t="s">
+      <c r="A30" s="39"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="215"/>
-      <c r="E30" s="215"/>
-      <c r="F30" s="216"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="87"/>
-      <c r="N30" s="87"/>
-      <c r="O30" s="87"/>
-      <c r="P30" s="88"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="115"/>
+      <c r="L30" s="115"/>
+      <c r="M30" s="115"/>
+      <c r="N30" s="115"/>
+      <c r="O30" s="115"/>
+      <c r="P30" s="116"/>
       <c r="R30" s="2"/>
-      <c r="S30" s="223"/>
-      <c r="T30" s="224"/>
-      <c r="U30" s="214" t="s">
+      <c r="S30" s="39"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="V30" s="215"/>
-      <c r="W30" s="215"/>
-      <c r="X30" s="216"/>
-      <c r="Y30" s="89"/>
-      <c r="Z30" s="90"/>
-      <c r="AA30" s="90"/>
-      <c r="AB30" s="90"/>
-      <c r="AC30" s="90"/>
-      <c r="AD30" s="90"/>
-      <c r="AE30" s="91"/>
-      <c r="AF30" s="89"/>
-      <c r="AG30" s="90"/>
-      <c r="AH30" s="90"/>
-      <c r="AI30" s="90"/>
-      <c r="AJ30" s="90"/>
-      <c r="AK30" s="90"/>
-      <c r="AL30" s="91"/>
+      <c r="V30" s="106"/>
+      <c r="W30" s="106"/>
+      <c r="X30" s="107"/>
+      <c r="Y30" s="117"/>
+      <c r="Z30" s="118"/>
+      <c r="AA30" s="118"/>
+      <c r="AB30" s="118"/>
+      <c r="AC30" s="118"/>
+      <c r="AD30" s="118"/>
+      <c r="AE30" s="119"/>
+      <c r="AF30" s="117"/>
+      <c r="AG30" s="118"/>
+      <c r="AH30" s="118"/>
+      <c r="AI30" s="118"/>
+      <c r="AJ30" s="118"/>
+      <c r="AK30" s="118"/>
+      <c r="AL30" s="119"/>
       <c r="BC30" s="2"/>
     </row>
     <row r="31" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="228"/>
-      <c r="B31" s="229"/>
-      <c r="C31" s="219" t="s">
+      <c r="A31" s="42"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="207"/>
-      <c r="E31" s="207"/>
-      <c r="F31" s="208"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="56"/>
-      <c r="P31" s="57"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="78"/>
       <c r="R31" s="2"/>
-      <c r="S31" s="228"/>
-      <c r="T31" s="229"/>
-      <c r="U31" s="219" t="s">
+      <c r="S31" s="42"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="V31" s="207"/>
-      <c r="W31" s="207"/>
-      <c r="X31" s="208"/>
-      <c r="Y31" s="58"/>
-      <c r="Z31" s="59"/>
-      <c r="AA31" s="59"/>
-      <c r="AB31" s="59"/>
-      <c r="AC31" s="59"/>
-      <c r="AD31" s="59"/>
-      <c r="AE31" s="60"/>
-      <c r="AF31" s="58"/>
-      <c r="AG31" s="59"/>
-      <c r="AH31" s="59"/>
-      <c r="AI31" s="59"/>
-      <c r="AJ31" s="59"/>
-      <c r="AK31" s="59"/>
-      <c r="AL31" s="60"/>
+      <c r="V31" s="74"/>
+      <c r="W31" s="74"/>
+      <c r="X31" s="75"/>
+      <c r="Y31" s="79"/>
+      <c r="Z31" s="80"/>
+      <c r="AA31" s="80"/>
+      <c r="AB31" s="80"/>
+      <c r="AC31" s="80"/>
+      <c r="AD31" s="80"/>
+      <c r="AE31" s="81"/>
+      <c r="AF31" s="79"/>
+      <c r="AG31" s="80"/>
+      <c r="AH31" s="80"/>
+      <c r="AI31" s="80"/>
+      <c r="AJ31" s="80"/>
+      <c r="AK31" s="80"/>
+      <c r="AL31" s="81"/>
       <c r="BC31" s="2"/>
     </row>
     <row r="32" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="230" t="s">
+      <c r="A32" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="231"/>
-      <c r="C32" s="231"/>
-      <c r="D32" s="232"/>
-      <c r="E32" s="230" t="s">
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="231"/>
-      <c r="G32" s="233"/>
-      <c r="H32" s="67" t="s">
+      <c r="F32" s="67"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="I32" s="68"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="230" t="s">
+      <c r="I32" s="92"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="L32" s="231"/>
-      <c r="M32" s="233"/>
-      <c r="N32" s="51" t="s">
+      <c r="L32" s="67"/>
+      <c r="M32" s="90"/>
+      <c r="N32" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="O32" s="52"/>
-      <c r="P32" s="53"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="65"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
-      <c r="S32" s="230" t="s">
+      <c r="S32" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="T32" s="231"/>
-      <c r="U32" s="231"/>
-      <c r="V32" s="232"/>
-      <c r="W32" s="230" t="s">
+      <c r="T32" s="67"/>
+      <c r="U32" s="67"/>
+      <c r="V32" s="68"/>
+      <c r="W32" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="X32" s="231"/>
-      <c r="Y32" s="233"/>
-      <c r="Z32" s="67" t="s">
+      <c r="X32" s="67"/>
+      <c r="Y32" s="90"/>
+      <c r="Z32" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="AA32" s="68"/>
-      <c r="AB32" s="69"/>
-      <c r="AC32" s="230" t="s">
+      <c r="AA32" s="92"/>
+      <c r="AB32" s="93"/>
+      <c r="AC32" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD32" s="231"/>
-      <c r="AE32" s="233"/>
-      <c r="AF32" s="51" t="s">
+      <c r="AD32" s="67"/>
+      <c r="AE32" s="90"/>
+      <c r="AF32" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="AG32" s="52"/>
-      <c r="AH32" s="53"/>
-      <c r="AI32" s="24" t="s">
+      <c r="AG32" s="64"/>
+      <c r="AH32" s="65"/>
+      <c r="AI32" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="AJ32" s="25"/>
-      <c r="AK32" s="25"/>
-      <c r="AL32" s="26"/>
+      <c r="AJ32" s="34"/>
+      <c r="AK32" s="34"/>
+      <c r="AL32" s="35"/>
       <c r="BC32" s="2"/>
     </row>
     <row r="33" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="206" t="s">
+      <c r="A33" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="207"/>
-      <c r="C33" s="207"/>
-      <c r="D33" s="234"/>
-      <c r="E33" s="206" t="s">
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="F33" s="207"/>
-      <c r="G33" s="208"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="206" t="s">
+      <c r="F33" s="74"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="85"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="L33" s="207"/>
-      <c r="M33" s="208"/>
-      <c r="N33" s="64"/>
-      <c r="O33" s="65"/>
-      <c r="P33" s="66"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="89"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
-      <c r="S33" s="206" t="s">
+      <c r="S33" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="T33" s="207"/>
-      <c r="U33" s="207"/>
-      <c r="V33" s="234"/>
-      <c r="W33" s="206" t="s">
+      <c r="T33" s="74"/>
+      <c r="U33" s="74"/>
+      <c r="V33" s="83"/>
+      <c r="W33" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="X33" s="207"/>
-      <c r="Y33" s="208"/>
-      <c r="Z33" s="61"/>
-      <c r="AA33" s="62"/>
-      <c r="AB33" s="63"/>
-      <c r="AC33" s="206" t="s">
+      <c r="X33" s="74"/>
+      <c r="Y33" s="75"/>
+      <c r="Z33" s="84"/>
+      <c r="AA33" s="85"/>
+      <c r="AB33" s="86"/>
+      <c r="AC33" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="AD33" s="207"/>
-      <c r="AE33" s="208"/>
-      <c r="AF33" s="70"/>
-      <c r="AG33" s="71"/>
-      <c r="AH33" s="72"/>
-      <c r="AI33" s="73"/>
-      <c r="AJ33" s="36"/>
-      <c r="AK33" s="36"/>
-      <c r="AL33" s="37"/>
+      <c r="AD33" s="74"/>
+      <c r="AE33" s="75"/>
+      <c r="AF33" s="94"/>
+      <c r="AG33" s="95"/>
+      <c r="AH33" s="96"/>
+      <c r="AI33" s="97"/>
+      <c r="AJ33" s="98"/>
+      <c r="AK33" s="98"/>
+      <c r="AL33" s="99"/>
       <c r="BC33" s="2"/>
     </row>
     <row r="34" spans="1:55" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4657,54 +4623,54 @@
       <c r="P34" s="7"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
-      <c r="AI34" s="74"/>
-      <c r="AJ34" s="75"/>
-      <c r="AK34" s="75"/>
-      <c r="AL34" s="76"/>
+      <c r="AI34" s="100"/>
+      <c r="AJ34" s="14"/>
+      <c r="AK34" s="14"/>
+      <c r="AL34" s="101"/>
     </row>
     <row r="35" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="235" t="s">
+      <c r="A35" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="236"/>
-      <c r="C35" s="236"/>
-      <c r="D35" s="237"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="26"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="35"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
-      <c r="S35" s="235" t="s">
+      <c r="S35" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="T35" s="236"/>
-      <c r="U35" s="236"/>
-      <c r="V35" s="237"/>
-      <c r="W35" s="54"/>
-      <c r="X35" s="54"/>
-      <c r="Y35" s="54"/>
-      <c r="Z35" s="54"/>
-      <c r="AA35" s="54"/>
-      <c r="AB35" s="54"/>
-      <c r="AC35" s="54"/>
-      <c r="AD35" s="54"/>
-      <c r="AE35" s="54"/>
-      <c r="AF35" s="54"/>
-      <c r="AG35" s="54"/>
-      <c r="AH35" s="24"/>
-      <c r="AI35" s="74"/>
-      <c r="AJ35" s="75"/>
-      <c r="AK35" s="75"/>
-      <c r="AL35" s="76"/>
+      <c r="T35" s="55"/>
+      <c r="U35" s="55"/>
+      <c r="V35" s="56"/>
+      <c r="W35" s="69"/>
+      <c r="X35" s="69"/>
+      <c r="Y35" s="69"/>
+      <c r="Z35" s="69"/>
+      <c r="AA35" s="69"/>
+      <c r="AB35" s="69"/>
+      <c r="AC35" s="69"/>
+      <c r="AD35" s="69"/>
+      <c r="AE35" s="69"/>
+      <c r="AF35" s="69"/>
+      <c r="AG35" s="69"/>
+      <c r="AH35" s="33"/>
+      <c r="AI35" s="100"/>
+      <c r="AJ35" s="14"/>
+      <c r="AK35" s="14"/>
+      <c r="AL35" s="101"/>
     </row>
     <row r="36" spans="1:55" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8"/>
@@ -4741,334 +4707,334 @@
       <c r="AF36" s="2"/>
       <c r="AG36" s="2"/>
       <c r="AH36" s="2"/>
-      <c r="AI36" s="74"/>
-      <c r="AJ36" s="75"/>
-      <c r="AK36" s="75"/>
-      <c r="AL36" s="76"/>
+      <c r="AI36" s="100"/>
+      <c r="AJ36" s="14"/>
+      <c r="AK36" s="14"/>
+      <c r="AL36" s="101"/>
     </row>
     <row r="37" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="238" t="s">
+      <c r="A37" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="239"/>
-      <c r="C37" s="239"/>
-      <c r="D37" s="240"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="25"/>
-      <c r="V37" s="25"/>
-      <c r="W37" s="25"/>
-      <c r="X37" s="26"/>
-      <c r="Y37" s="24"/>
-      <c r="Z37" s="25"/>
-      <c r="AA37" s="25"/>
-      <c r="AB37" s="25"/>
-      <c r="AC37" s="25"/>
-      <c r="AD37" s="25"/>
-      <c r="AE37" s="25"/>
-      <c r="AF37" s="25"/>
-      <c r="AG37" s="25"/>
-      <c r="AH37" s="25"/>
-      <c r="AI37" s="77"/>
-      <c r="AJ37" s="78"/>
-      <c r="AK37" s="78"/>
-      <c r="AL37" s="79"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="X37" s="35"/>
+      <c r="Y37" s="33"/>
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="34"/>
+      <c r="AB37" s="34"/>
+      <c r="AC37" s="34"/>
+      <c r="AD37" s="34"/>
+      <c r="AE37" s="34"/>
+      <c r="AF37" s="34"/>
+      <c r="AG37" s="34"/>
+      <c r="AH37" s="34"/>
+      <c r="AI37" s="102"/>
+      <c r="AJ37" s="103"/>
+      <c r="AK37" s="103"/>
+      <c r="AL37" s="104"/>
     </row>
     <row r="38" spans="1:55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="220" t="s">
+      <c r="A38" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="241"/>
-      <c r="C38" s="241"/>
-      <c r="D38" s="221"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="40"/>
-      <c r="T38" s="40"/>
-      <c r="U38" s="40"/>
-      <c r="V38" s="40"/>
-      <c r="W38" s="40"/>
-      <c r="X38" s="40"/>
-      <c r="Y38" s="40"/>
-      <c r="Z38" s="40"/>
-      <c r="AA38" s="40"/>
-      <c r="AB38" s="40"/>
-      <c r="AC38" s="40"/>
-      <c r="AD38" s="40"/>
-      <c r="AE38" s="40"/>
-      <c r="AF38" s="40"/>
-      <c r="AG38" s="40"/>
-      <c r="AH38" s="40"/>
-      <c r="AI38" s="40"/>
-      <c r="AJ38" s="40"/>
-      <c r="AK38" s="40"/>
-      <c r="AL38" s="41"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="46"/>
+      <c r="R38" s="46"/>
+      <c r="S38" s="46"/>
+      <c r="T38" s="46"/>
+      <c r="U38" s="46"/>
+      <c r="V38" s="46"/>
+      <c r="W38" s="46"/>
+      <c r="X38" s="46"/>
+      <c r="Y38" s="46"/>
+      <c r="Z38" s="46"/>
+      <c r="AA38" s="46"/>
+      <c r="AB38" s="46"/>
+      <c r="AC38" s="46"/>
+      <c r="AD38" s="46"/>
+      <c r="AE38" s="46"/>
+      <c r="AF38" s="46"/>
+      <c r="AG38" s="46"/>
+      <c r="AH38" s="46"/>
+      <c r="AI38" s="46"/>
+      <c r="AJ38" s="46"/>
+      <c r="AK38" s="46"/>
+      <c r="AL38" s="47"/>
     </row>
     <row r="39" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="223"/>
-      <c r="B39" s="242"/>
-      <c r="C39" s="242"/>
-      <c r="D39" s="224"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="43"/>
-      <c r="S39" s="43"/>
-      <c r="T39" s="43"/>
-      <c r="U39" s="43"/>
-      <c r="V39" s="43"/>
-      <c r="W39" s="43"/>
-      <c r="X39" s="43"/>
-      <c r="Y39" s="43"/>
-      <c r="Z39" s="43"/>
-      <c r="AA39" s="43"/>
-      <c r="AB39" s="43"/>
-      <c r="AC39" s="43"/>
-      <c r="AD39" s="43"/>
-      <c r="AE39" s="43"/>
-      <c r="AF39" s="43"/>
-      <c r="AG39" s="43"/>
-      <c r="AH39" s="43"/>
-      <c r="AI39" s="43"/>
-      <c r="AJ39" s="43"/>
-      <c r="AK39" s="43"/>
-      <c r="AL39" s="44"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="49"/>
+      <c r="S39" s="49"/>
+      <c r="T39" s="49"/>
+      <c r="U39" s="49"/>
+      <c r="V39" s="49"/>
+      <c r="W39" s="49"/>
+      <c r="X39" s="49"/>
+      <c r="Y39" s="49"/>
+      <c r="Z39" s="49"/>
+      <c r="AA39" s="49"/>
+      <c r="AB39" s="49"/>
+      <c r="AC39" s="49"/>
+      <c r="AD39" s="49"/>
+      <c r="AE39" s="49"/>
+      <c r="AF39" s="49"/>
+      <c r="AG39" s="49"/>
+      <c r="AH39" s="49"/>
+      <c r="AI39" s="49"/>
+      <c r="AJ39" s="49"/>
+      <c r="AK39" s="49"/>
+      <c r="AL39" s="50"/>
     </row>
     <row r="40" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="223"/>
-      <c r="B40" s="242"/>
-      <c r="C40" s="242"/>
-      <c r="D40" s="224"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="43"/>
-      <c r="Q40" s="43"/>
-      <c r="R40" s="43"/>
-      <c r="S40" s="43"/>
-      <c r="T40" s="43"/>
-      <c r="U40" s="43"/>
-      <c r="V40" s="43"/>
-      <c r="W40" s="43"/>
-      <c r="X40" s="43"/>
-      <c r="Y40" s="43"/>
-      <c r="Z40" s="43"/>
-      <c r="AA40" s="43"/>
-      <c r="AB40" s="43"/>
-      <c r="AC40" s="43"/>
-      <c r="AD40" s="43"/>
-      <c r="AE40" s="43"/>
-      <c r="AF40" s="43"/>
-      <c r="AG40" s="43"/>
-      <c r="AH40" s="43"/>
-      <c r="AI40" s="43"/>
-      <c r="AJ40" s="43"/>
-      <c r="AK40" s="43"/>
-      <c r="AL40" s="44"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="49"/>
+      <c r="R40" s="49"/>
+      <c r="S40" s="49"/>
+      <c r="T40" s="49"/>
+      <c r="U40" s="49"/>
+      <c r="V40" s="49"/>
+      <c r="W40" s="49"/>
+      <c r="X40" s="49"/>
+      <c r="Y40" s="49"/>
+      <c r="Z40" s="49"/>
+      <c r="AA40" s="49"/>
+      <c r="AB40" s="49"/>
+      <c r="AC40" s="49"/>
+      <c r="AD40" s="49"/>
+      <c r="AE40" s="49"/>
+      <c r="AF40" s="49"/>
+      <c r="AG40" s="49"/>
+      <c r="AH40" s="49"/>
+      <c r="AI40" s="49"/>
+      <c r="AJ40" s="49"/>
+      <c r="AK40" s="49"/>
+      <c r="AL40" s="50"/>
     </row>
     <row r="41" spans="1:55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="223"/>
-      <c r="B41" s="242"/>
-      <c r="C41" s="242"/>
-      <c r="D41" s="224"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="43"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="43"/>
-      <c r="P41" s="43"/>
-      <c r="Q41" s="43"/>
-      <c r="R41" s="43"/>
-      <c r="S41" s="43"/>
-      <c r="T41" s="43"/>
-      <c r="U41" s="43"/>
-      <c r="V41" s="43"/>
-      <c r="W41" s="43"/>
-      <c r="X41" s="43"/>
-      <c r="Y41" s="43"/>
-      <c r="Z41" s="43"/>
-      <c r="AA41" s="43"/>
-      <c r="AB41" s="43"/>
-      <c r="AC41" s="43"/>
-      <c r="AD41" s="43"/>
-      <c r="AE41" s="43"/>
-      <c r="AF41" s="43"/>
-      <c r="AG41" s="43"/>
-      <c r="AH41" s="43"/>
-      <c r="AI41" s="43"/>
-      <c r="AJ41" s="43"/>
-      <c r="AK41" s="43"/>
-      <c r="AL41" s="44"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="49"/>
+      <c r="P41" s="49"/>
+      <c r="Q41" s="49"/>
+      <c r="R41" s="49"/>
+      <c r="S41" s="49"/>
+      <c r="T41" s="49"/>
+      <c r="U41" s="49"/>
+      <c r="V41" s="49"/>
+      <c r="W41" s="49"/>
+      <c r="X41" s="49"/>
+      <c r="Y41" s="49"/>
+      <c r="Z41" s="49"/>
+      <c r="AA41" s="49"/>
+      <c r="AB41" s="49"/>
+      <c r="AC41" s="49"/>
+      <c r="AD41" s="49"/>
+      <c r="AE41" s="49"/>
+      <c r="AF41" s="49"/>
+      <c r="AG41" s="49"/>
+      <c r="AH41" s="49"/>
+      <c r="AI41" s="49"/>
+      <c r="AJ41" s="49"/>
+      <c r="AK41" s="49"/>
+      <c r="AL41" s="50"/>
     </row>
     <row r="42" spans="1:55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="223"/>
-      <c r="B42" s="242"/>
-      <c r="C42" s="242"/>
-      <c r="D42" s="224"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="43"/>
-      <c r="P42" s="43"/>
-      <c r="Q42" s="43"/>
-      <c r="R42" s="43"/>
-      <c r="S42" s="43"/>
-      <c r="T42" s="43"/>
-      <c r="U42" s="43"/>
-      <c r="V42" s="43"/>
-      <c r="W42" s="43"/>
-      <c r="X42" s="43"/>
-      <c r="Y42" s="43"/>
-      <c r="Z42" s="43"/>
-      <c r="AA42" s="43"/>
-      <c r="AB42" s="43"/>
-      <c r="AC42" s="43"/>
-      <c r="AD42" s="43"/>
-      <c r="AE42" s="43"/>
-      <c r="AF42" s="43"/>
-      <c r="AG42" s="43"/>
-      <c r="AH42" s="43"/>
-      <c r="AI42" s="43"/>
-      <c r="AJ42" s="43"/>
-      <c r="AK42" s="43"/>
-      <c r="AL42" s="44"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="49"/>
+      <c r="R42" s="49"/>
+      <c r="S42" s="49"/>
+      <c r="T42" s="49"/>
+      <c r="U42" s="49"/>
+      <c r="V42" s="49"/>
+      <c r="W42" s="49"/>
+      <c r="X42" s="49"/>
+      <c r="Y42" s="49"/>
+      <c r="Z42" s="49"/>
+      <c r="AA42" s="49"/>
+      <c r="AB42" s="49"/>
+      <c r="AC42" s="49"/>
+      <c r="AD42" s="49"/>
+      <c r="AE42" s="49"/>
+      <c r="AF42" s="49"/>
+      <c r="AG42" s="49"/>
+      <c r="AH42" s="49"/>
+      <c r="AI42" s="49"/>
+      <c r="AJ42" s="49"/>
+      <c r="AK42" s="49"/>
+      <c r="AL42" s="50"/>
     </row>
     <row r="43" spans="1:55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="223"/>
-      <c r="B43" s="242"/>
-      <c r="C43" s="242"/>
-      <c r="D43" s="224"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="43"/>
-      <c r="O43" s="43"/>
-      <c r="P43" s="43"/>
-      <c r="Q43" s="43"/>
-      <c r="R43" s="43"/>
-      <c r="S43" s="43"/>
-      <c r="T43" s="43"/>
-      <c r="U43" s="43"/>
-      <c r="V43" s="43"/>
-      <c r="W43" s="43"/>
-      <c r="X43" s="43"/>
-      <c r="Y43" s="43"/>
-      <c r="Z43" s="43"/>
-      <c r="AA43" s="43"/>
-      <c r="AB43" s="43"/>
-      <c r="AC43" s="43"/>
-      <c r="AD43" s="43"/>
-      <c r="AE43" s="43"/>
-      <c r="AF43" s="43"/>
-      <c r="AG43" s="43"/>
-      <c r="AH43" s="43"/>
-      <c r="AI43" s="43"/>
-      <c r="AJ43" s="43"/>
-      <c r="AK43" s="43"/>
-      <c r="AL43" s="44"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="49"/>
+      <c r="O43" s="49"/>
+      <c r="P43" s="49"/>
+      <c r="Q43" s="49"/>
+      <c r="R43" s="49"/>
+      <c r="S43" s="49"/>
+      <c r="T43" s="49"/>
+      <c r="U43" s="49"/>
+      <c r="V43" s="49"/>
+      <c r="W43" s="49"/>
+      <c r="X43" s="49"/>
+      <c r="Y43" s="49"/>
+      <c r="Z43" s="49"/>
+      <c r="AA43" s="49"/>
+      <c r="AB43" s="49"/>
+      <c r="AC43" s="49"/>
+      <c r="AD43" s="49"/>
+      <c r="AE43" s="49"/>
+      <c r="AF43" s="49"/>
+      <c r="AG43" s="49"/>
+      <c r="AH43" s="49"/>
+      <c r="AI43" s="49"/>
+      <c r="AJ43" s="49"/>
+      <c r="AK43" s="49"/>
+      <c r="AL43" s="50"/>
     </row>
     <row r="44" spans="1:55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="228"/>
-      <c r="B44" s="243"/>
-      <c r="C44" s="243"/>
-      <c r="D44" s="229"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="46"/>
-      <c r="O44" s="46"/>
-      <c r="P44" s="46"/>
-      <c r="Q44" s="46"/>
-      <c r="R44" s="46"/>
-      <c r="S44" s="46"/>
-      <c r="T44" s="46"/>
-      <c r="U44" s="46"/>
-      <c r="V44" s="46"/>
-      <c r="W44" s="46"/>
-      <c r="X44" s="46"/>
-      <c r="Y44" s="46"/>
-      <c r="Z44" s="46"/>
-      <c r="AA44" s="46"/>
-      <c r="AB44" s="46"/>
-      <c r="AC44" s="46"/>
-      <c r="AD44" s="46"/>
-      <c r="AE44" s="46"/>
-      <c r="AF44" s="46"/>
-      <c r="AG44" s="46"/>
-      <c r="AH44" s="46"/>
-      <c r="AI44" s="46"/>
-      <c r="AJ44" s="46"/>
-      <c r="AK44" s="46"/>
-      <c r="AL44" s="47"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="52"/>
+      <c r="P44" s="52"/>
+      <c r="Q44" s="52"/>
+      <c r="R44" s="52"/>
+      <c r="S44" s="52"/>
+      <c r="T44" s="52"/>
+      <c r="U44" s="52"/>
+      <c r="V44" s="52"/>
+      <c r="W44" s="52"/>
+      <c r="X44" s="52"/>
+      <c r="Y44" s="52"/>
+      <c r="Z44" s="52"/>
+      <c r="AA44" s="52"/>
+      <c r="AB44" s="52"/>
+      <c r="AC44" s="52"/>
+      <c r="AD44" s="52"/>
+      <c r="AE44" s="52"/>
+      <c r="AF44" s="52"/>
+      <c r="AG44" s="52"/>
+      <c r="AH44" s="52"/>
+      <c r="AI44" s="52"/>
+      <c r="AJ44" s="52"/>
+      <c r="AK44" s="52"/>
+      <c r="AL44" s="53"/>
     </row>
     <row r="45" spans="1:55" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="2"/>
@@ -5104,48 +5070,48 @@
       <c r="AH45" s="2"/>
     </row>
     <row r="46" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="235" t="s">
+      <c r="A46" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="236"/>
-      <c r="C46" s="236"/>
-      <c r="D46" s="237"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="50"/>
-      <c r="J46" s="244" t="s">
+      <c r="B46" s="55"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="59"/>
+      <c r="J46" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="K46" s="245"/>
-      <c r="L46" s="245"/>
-      <c r="M46" s="246"/>
-      <c r="N46" s="48"/>
-      <c r="O46" s="49"/>
-      <c r="P46" s="49"/>
-      <c r="Q46" s="50"/>
-      <c r="S46" s="244" t="s">
+      <c r="K46" s="61"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="62"/>
+      <c r="N46" s="57"/>
+      <c r="O46" s="58"/>
+      <c r="P46" s="58"/>
+      <c r="Q46" s="59"/>
+      <c r="S46" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="T46" s="245"/>
-      <c r="U46" s="245"/>
-      <c r="V46" s="246"/>
-      <c r="W46" s="48"/>
-      <c r="X46" s="49"/>
-      <c r="Y46" s="49"/>
-      <c r="Z46" s="50"/>
-      <c r="AA46" s="48"/>
-      <c r="AB46" s="49"/>
-      <c r="AC46" s="49"/>
-      <c r="AD46" s="50"/>
-      <c r="AE46" s="48"/>
-      <c r="AF46" s="49"/>
-      <c r="AG46" s="49"/>
-      <c r="AH46" s="50"/>
-      <c r="AI46" s="24"/>
-      <c r="AJ46" s="25"/>
-      <c r="AK46" s="25"/>
-      <c r="AL46" s="26"/>
+      <c r="T46" s="61"/>
+      <c r="U46" s="61"/>
+      <c r="V46" s="62"/>
+      <c r="W46" s="57"/>
+      <c r="X46" s="58"/>
+      <c r="Y46" s="58"/>
+      <c r="Z46" s="59"/>
+      <c r="AA46" s="57"/>
+      <c r="AB46" s="58"/>
+      <c r="AC46" s="58"/>
+      <c r="AD46" s="59"/>
+      <c r="AE46" s="57"/>
+      <c r="AF46" s="58"/>
+      <c r="AG46" s="58"/>
+      <c r="AH46" s="59"/>
+      <c r="AI46" s="33"/>
+      <c r="AJ46" s="34"/>
+      <c r="AK46" s="34"/>
+      <c r="AL46" s="35"/>
     </row>
     <row r="47" spans="1:55" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="2"/>
@@ -5181,476 +5147,468 @@
       <c r="AH47" s="10"/>
     </row>
     <row r="48" spans="1:55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="247" t="s">
+      <c r="Q48" s="13"/>
+      <c r="S48" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B48" s="248"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="29"/>
-      <c r="S48" s="251" t="s">
+      <c r="T48" s="31"/>
+      <c r="U48" s="31"/>
+      <c r="V48" s="32"/>
+      <c r="W48" s="33"/>
+      <c r="X48" s="34"/>
+      <c r="Y48" s="34"/>
+      <c r="Z48" s="35"/>
+      <c r="AA48" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="T48" s="252"/>
-      <c r="U48" s="252"/>
-      <c r="V48" s="253"/>
-      <c r="W48" s="24"/>
-      <c r="X48" s="25"/>
-      <c r="Y48" s="25"/>
-      <c r="Z48" s="26"/>
-      <c r="AA48" s="251" t="s">
+      <c r="AB48" s="31"/>
+      <c r="AC48" s="31"/>
+      <c r="AD48" s="32"/>
+      <c r="AE48" s="33"/>
+      <c r="AF48" s="34"/>
+      <c r="AG48" s="34"/>
+      <c r="AH48" s="35"/>
+    </row>
+    <row r="49" spans="1:38" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="14"/>
+      <c r="W49" s="14"/>
+      <c r="X49" s="14"/>
+      <c r="Y49" s="14"/>
+      <c r="Z49" s="14"/>
+      <c r="AA49" s="14"/>
+      <c r="AB49" s="14"/>
+      <c r="AC49" s="14"/>
+      <c r="AD49" s="14"/>
+      <c r="AE49" s="14"/>
+      <c r="AF49" s="14"/>
+      <c r="AG49" s="14"/>
+      <c r="AH49" s="14"/>
+      <c r="AI49" s="14"/>
+      <c r="AJ49" s="14"/>
+      <c r="AK49" s="14"/>
+      <c r="AL49" s="14"/>
+    </row>
+    <row r="50" spans="1:38" ht="12" x14ac:dyDescent="0.15">
+      <c r="A50" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="AB48" s="252"/>
-      <c r="AC48" s="252"/>
-      <c r="AD48" s="253"/>
-      <c r="AE48" s="24"/>
-      <c r="AF48" s="25"/>
-      <c r="AG48" s="25"/>
-      <c r="AH48" s="26"/>
-    </row>
-    <row r="49" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="249"/>
-      <c r="B49" s="250"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="31"/>
-      <c r="O49" s="31"/>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="32"/>
-      <c r="S49" s="24" t="s">
+      <c r="B50" s="16"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="23"/>
+      <c r="S50" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="T49" s="25"/>
-      <c r="U49" s="25"/>
-      <c r="V49" s="26"/>
-      <c r="W49" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="X49" s="25"/>
-      <c r="Y49" s="25"/>
-      <c r="Z49" s="26"/>
-      <c r="AA49" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB49" s="25"/>
-      <c r="AC49" s="25"/>
-      <c r="AD49" s="26"/>
-      <c r="AE49" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF49" s="25"/>
-      <c r="AG49" s="25"/>
-      <c r="AH49" s="26"/>
-      <c r="AI49" s="24"/>
-      <c r="AJ49" s="25"/>
-      <c r="AK49" s="25"/>
-      <c r="AL49" s="26"/>
-    </row>
-    <row r="50" spans="1:38" ht="12" x14ac:dyDescent="0.15">
-      <c r="A50" s="249"/>
-      <c r="B50" s="250"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="31"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="31"/>
-      <c r="Q50" s="32"/>
-      <c r="S50" s="15"/>
       <c r="T50" s="16"/>
-      <c r="U50" s="16"/>
-      <c r="V50" s="17"/>
-      <c r="W50" s="15"/>
-      <c r="X50" s="16"/>
-      <c r="Y50" s="16"/>
-      <c r="Z50" s="17"/>
-      <c r="AA50" s="15"/>
-      <c r="AB50" s="16"/>
-      <c r="AC50" s="16"/>
-      <c r="AD50" s="17"/>
-      <c r="AE50" s="15"/>
-      <c r="AF50" s="16"/>
-      <c r="AG50" s="16"/>
-      <c r="AH50" s="17"/>
-      <c r="AI50" s="15"/>
-      <c r="AJ50" s="16"/>
-      <c r="AK50" s="16"/>
-      <c r="AL50" s="17"/>
+      <c r="U50" s="21"/>
+      <c r="V50" s="22"/>
+      <c r="W50" s="22"/>
+      <c r="X50" s="22"/>
+      <c r="Y50" s="22"/>
+      <c r="Z50" s="22"/>
+      <c r="AA50" s="22"/>
+      <c r="AB50" s="22"/>
+      <c r="AC50" s="22"/>
+      <c r="AD50" s="22"/>
+      <c r="AE50" s="22"/>
+      <c r="AF50" s="22"/>
+      <c r="AG50" s="22"/>
+      <c r="AH50" s="22"/>
+      <c r="AI50" s="23"/>
     </row>
     <row r="51" spans="1:38" ht="12" x14ac:dyDescent="0.15">
-      <c r="A51" s="249"/>
-      <c r="B51" s="250"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="32"/>
-      <c r="S51" s="18"/>
-      <c r="T51" s="19"/>
-      <c r="U51" s="19"/>
-      <c r="V51" s="20"/>
-      <c r="W51" s="18"/>
-      <c r="X51" s="19"/>
-      <c r="Y51" s="19"/>
-      <c r="Z51" s="20"/>
-      <c r="AA51" s="18"/>
-      <c r="AB51" s="19"/>
-      <c r="AC51" s="19"/>
-      <c r="AD51" s="20"/>
-      <c r="AE51" s="18"/>
-      <c r="AF51" s="19"/>
-      <c r="AG51" s="19"/>
-      <c r="AH51" s="20"/>
-      <c r="AI51" s="18"/>
-      <c r="AJ51" s="19"/>
-      <c r="AK51" s="19"/>
-      <c r="AL51" s="20"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="26"/>
+      <c r="S51" s="17"/>
+      <c r="T51" s="18"/>
+      <c r="U51" s="24"/>
+      <c r="V51" s="25"/>
+      <c r="W51" s="25"/>
+      <c r="X51" s="25"/>
+      <c r="Y51" s="25"/>
+      <c r="Z51" s="25"/>
+      <c r="AA51" s="25"/>
+      <c r="AB51" s="25"/>
+      <c r="AC51" s="25"/>
+      <c r="AD51" s="25"/>
+      <c r="AE51" s="25"/>
+      <c r="AF51" s="25"/>
+      <c r="AG51" s="25"/>
+      <c r="AH51" s="25"/>
+      <c r="AI51" s="26"/>
+      <c r="AL51" s="11"/>
     </row>
     <row r="52" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="249"/>
-      <c r="B52" s="250"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="31"/>
-      <c r="K52" s="31"/>
-      <c r="L52" s="31"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="31"/>
-      <c r="Q52" s="32"/>
-      <c r="S52" s="18"/>
-      <c r="T52" s="19"/>
-      <c r="U52" s="19"/>
-      <c r="V52" s="20"/>
-      <c r="W52" s="18"/>
-      <c r="X52" s="19"/>
-      <c r="Y52" s="19"/>
-      <c r="Z52" s="20"/>
-      <c r="AA52" s="18"/>
-      <c r="AB52" s="19"/>
-      <c r="AC52" s="19"/>
-      <c r="AD52" s="20"/>
-      <c r="AE52" s="18"/>
-      <c r="AF52" s="19"/>
-      <c r="AG52" s="19"/>
-      <c r="AH52" s="20"/>
-      <c r="AI52" s="18"/>
-      <c r="AJ52" s="19"/>
-      <c r="AK52" s="19"/>
-      <c r="AL52" s="20"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="25"/>
+      <c r="Q52" s="26"/>
+      <c r="S52" s="17"/>
+      <c r="T52" s="18"/>
+      <c r="U52" s="24"/>
+      <c r="V52" s="25"/>
+      <c r="W52" s="25"/>
+      <c r="X52" s="25"/>
+      <c r="Y52" s="25"/>
+      <c r="Z52" s="25"/>
+      <c r="AA52" s="25"/>
+      <c r="AB52" s="25"/>
+      <c r="AC52" s="25"/>
+      <c r="AD52" s="25"/>
+      <c r="AE52" s="25"/>
+      <c r="AF52" s="25"/>
+      <c r="AG52" s="25"/>
+      <c r="AH52" s="25"/>
+      <c r="AI52" s="26"/>
     </row>
     <row r="53" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="249"/>
-      <c r="B53" s="250"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="31"/>
-      <c r="Q53" s="32"/>
-      <c r="S53" s="21"/>
-      <c r="T53" s="22"/>
-      <c r="U53" s="22"/>
-      <c r="V53" s="23"/>
-      <c r="W53" s="21"/>
-      <c r="X53" s="22"/>
-      <c r="Y53" s="22"/>
-      <c r="Z53" s="23"/>
-      <c r="AA53" s="21"/>
-      <c r="AB53" s="22"/>
-      <c r="AC53" s="22"/>
-      <c r="AD53" s="23"/>
-      <c r="AE53" s="21"/>
-      <c r="AF53" s="22"/>
-      <c r="AG53" s="22"/>
-      <c r="AH53" s="23"/>
-      <c r="AI53" s="21"/>
-      <c r="AJ53" s="22"/>
-      <c r="AK53" s="22"/>
-      <c r="AL53" s="23"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="25"/>
+      <c r="Q53" s="26"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="18"/>
+      <c r="U53" s="24"/>
+      <c r="V53" s="25"/>
+      <c r="W53" s="25"/>
+      <c r="X53" s="25"/>
+      <c r="Y53" s="25"/>
+      <c r="Z53" s="25"/>
+      <c r="AA53" s="25"/>
+      <c r="AB53" s="25"/>
+      <c r="AC53" s="25"/>
+      <c r="AD53" s="25"/>
+      <c r="AE53" s="25"/>
+      <c r="AF53" s="25"/>
+      <c r="AG53" s="25"/>
+      <c r="AH53" s="25"/>
+      <c r="AI53" s="26"/>
     </row>
     <row r="54" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="249"/>
-      <c r="B54" s="250"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
-      <c r="L54" s="31"/>
-      <c r="M54" s="31"/>
-      <c r="N54" s="31"/>
-      <c r="O54" s="31"/>
-      <c r="P54" s="31"/>
-      <c r="Q54" s="32"/>
-      <c r="S54" s="36"/>
-      <c r="T54" s="36"/>
-      <c r="U54" s="36"/>
-      <c r="V54" s="36"/>
-      <c r="W54" s="36"/>
-      <c r="X54" s="36"/>
-      <c r="Y54" s="36"/>
-      <c r="Z54" s="37"/>
-      <c r="AA54" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB54" s="13"/>
-      <c r="AC54" s="13"/>
-      <c r="AD54" s="14"/>
-      <c r="AE54" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF54" s="13"/>
-      <c r="AG54" s="13"/>
-      <c r="AH54" s="14"/>
-      <c r="AI54" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ54" s="13"/>
-      <c r="AK54" s="13"/>
-      <c r="AL54" s="14"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="25"/>
+      <c r="Q54" s="26"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="18"/>
+      <c r="U54" s="24"/>
+      <c r="V54" s="25"/>
+      <c r="W54" s="25"/>
+      <c r="X54" s="25"/>
+      <c r="Y54" s="25"/>
+      <c r="Z54" s="25"/>
+      <c r="AA54" s="25"/>
+      <c r="AB54" s="25"/>
+      <c r="AC54" s="25"/>
+      <c r="AD54" s="25"/>
+      <c r="AE54" s="25"/>
+      <c r="AF54" s="25"/>
+      <c r="AG54" s="25"/>
+      <c r="AH54" s="25"/>
+      <c r="AI54" s="26"/>
     </row>
     <row r="55" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="249"/>
-      <c r="B55" s="250"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
-      <c r="J55" s="31"/>
-      <c r="K55" s="31"/>
-      <c r="L55" s="31"/>
-      <c r="M55" s="31"/>
-      <c r="N55" s="31"/>
-      <c r="O55" s="31"/>
-      <c r="P55" s="31"/>
-      <c r="Q55" s="32"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
-      <c r="V55" s="2"/>
-      <c r="W55" s="2"/>
-      <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
-      <c r="Z55" s="11"/>
-      <c r="AA55" s="15"/>
-      <c r="AB55" s="16"/>
-      <c r="AC55" s="16"/>
-      <c r="AD55" s="17"/>
-      <c r="AE55" s="15"/>
-      <c r="AF55" s="16"/>
-      <c r="AG55" s="16"/>
-      <c r="AH55" s="17"/>
-      <c r="AI55" s="15"/>
-      <c r="AJ55" s="16"/>
-      <c r="AK55" s="16"/>
-      <c r="AL55" s="17"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="25"/>
+      <c r="P55" s="25"/>
+      <c r="Q55" s="26"/>
+      <c r="S55" s="17"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="24"/>
+      <c r="V55" s="25"/>
+      <c r="W55" s="25"/>
+      <c r="X55" s="25"/>
+      <c r="Y55" s="25"/>
+      <c r="Z55" s="25"/>
+      <c r="AA55" s="25"/>
+      <c r="AB55" s="25"/>
+      <c r="AC55" s="25"/>
+      <c r="AD55" s="25"/>
+      <c r="AE55" s="25"/>
+      <c r="AF55" s="25"/>
+      <c r="AG55" s="25"/>
+      <c r="AH55" s="25"/>
+      <c r="AI55" s="26"/>
     </row>
     <row r="56" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="249"/>
-      <c r="B56" s="250"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="31"/>
-      <c r="M56" s="31"/>
-      <c r="N56" s="31"/>
-      <c r="O56" s="31"/>
-      <c r="P56" s="31"/>
-      <c r="Q56" s="32"/>
-      <c r="S56" s="2"/>
-      <c r="T56" s="2"/>
-      <c r="U56" s="2"/>
-      <c r="V56" s="2"/>
-      <c r="W56" s="2"/>
-      <c r="X56" s="2"/>
-      <c r="Y56" s="2"/>
-      <c r="Z56" s="11"/>
-      <c r="AA56" s="18"/>
-      <c r="AB56" s="19"/>
-      <c r="AC56" s="19"/>
-      <c r="AD56" s="20"/>
-      <c r="AE56" s="18"/>
-      <c r="AF56" s="19"/>
-      <c r="AG56" s="19"/>
-      <c r="AH56" s="20"/>
-      <c r="AI56" s="18"/>
-      <c r="AJ56" s="19"/>
-      <c r="AK56" s="19"/>
-      <c r="AL56" s="20"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="25"/>
+      <c r="P56" s="25"/>
+      <c r="Q56" s="26"/>
+      <c r="S56" s="17"/>
+      <c r="T56" s="18"/>
+      <c r="U56" s="24"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="25"/>
+      <c r="X56" s="25"/>
+      <c r="Y56" s="25"/>
+      <c r="Z56" s="25"/>
+      <c r="AA56" s="25"/>
+      <c r="AB56" s="25"/>
+      <c r="AC56" s="25"/>
+      <c r="AD56" s="25"/>
+      <c r="AE56" s="25"/>
+      <c r="AF56" s="25"/>
+      <c r="AG56" s="25"/>
+      <c r="AH56" s="25"/>
+      <c r="AI56" s="26"/>
     </row>
     <row r="57" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="249"/>
-      <c r="B57" s="250"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="31"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="32"/>
-      <c r="S57" s="2"/>
-      <c r="T57" s="2"/>
-      <c r="U57" s="2"/>
-      <c r="V57" s="2"/>
-      <c r="W57" s="2"/>
-      <c r="X57" s="2"/>
-      <c r="Y57" s="2"/>
-      <c r="Z57" s="11"/>
-      <c r="AA57" s="18"/>
-      <c r="AB57" s="19"/>
-      <c r="AC57" s="19"/>
-      <c r="AD57" s="20"/>
-      <c r="AE57" s="18"/>
-      <c r="AF57" s="19"/>
-      <c r="AG57" s="19"/>
-      <c r="AH57" s="20"/>
-      <c r="AI57" s="18"/>
-      <c r="AJ57" s="19"/>
-      <c r="AK57" s="19"/>
-      <c r="AL57" s="20"/>
+      <c r="A57" s="17"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="25"/>
+      <c r="P57" s="25"/>
+      <c r="Q57" s="26"/>
+      <c r="S57" s="17"/>
+      <c r="T57" s="18"/>
+      <c r="U57" s="24"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="25"/>
+      <c r="X57" s="25"/>
+      <c r="Y57" s="25"/>
+      <c r="Z57" s="25"/>
+      <c r="AA57" s="25"/>
+      <c r="AB57" s="25"/>
+      <c r="AC57" s="25"/>
+      <c r="AD57" s="25"/>
+      <c r="AE57" s="25"/>
+      <c r="AF57" s="25"/>
+      <c r="AG57" s="25"/>
+      <c r="AH57" s="25"/>
+      <c r="AI57" s="26"/>
     </row>
     <row r="58" spans="1:38" ht="12" x14ac:dyDescent="0.15">
-      <c r="A58" s="187"/>
-      <c r="B58" s="188"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="34"/>
-      <c r="M58" s="34"/>
-      <c r="N58" s="34"/>
-      <c r="O58" s="34"/>
-      <c r="P58" s="34"/>
-      <c r="Q58" s="35"/>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-      <c r="U58" s="2"/>
-      <c r="V58" s="2"/>
-      <c r="W58" s="2"/>
-      <c r="X58" s="2"/>
-      <c r="Y58" s="2"/>
-      <c r="Z58" s="11"/>
-      <c r="AA58" s="21"/>
-      <c r="AB58" s="22"/>
-      <c r="AC58" s="22"/>
-      <c r="AD58" s="23"/>
-      <c r="AE58" s="21"/>
-      <c r="AF58" s="22"/>
-      <c r="AG58" s="22"/>
-      <c r="AH58" s="23"/>
-      <c r="AI58" s="21"/>
-      <c r="AJ58" s="22"/>
-      <c r="AK58" s="22"/>
-      <c r="AL58" s="23"/>
-    </row>
-    <row r="59" spans="1:38" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="26"/>
+      <c r="S58" s="17"/>
+      <c r="T58" s="18"/>
+      <c r="U58" s="24"/>
+      <c r="V58" s="25"/>
+      <c r="W58" s="25"/>
+      <c r="X58" s="25"/>
+      <c r="Y58" s="25"/>
+      <c r="Z58" s="25"/>
+      <c r="AA58" s="25"/>
+      <c r="AB58" s="25"/>
+      <c r="AC58" s="25"/>
+      <c r="AD58" s="25"/>
+      <c r="AE58" s="25"/>
+      <c r="AF58" s="25"/>
+      <c r="AG58" s="25"/>
+      <c r="AH58" s="25"/>
+      <c r="AI58" s="26"/>
+      <c r="AJ58" s="11"/>
+    </row>
+    <row r="59" spans="1:38" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="17"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="25"/>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="26"/>
+      <c r="S59" s="17"/>
+      <c r="T59" s="18"/>
+      <c r="U59" s="24"/>
+      <c r="V59" s="25"/>
+      <c r="W59" s="25"/>
+      <c r="X59" s="25"/>
+      <c r="Y59" s="25"/>
+      <c r="Z59" s="25"/>
+      <c r="AA59" s="25"/>
+      <c r="AB59" s="25"/>
+      <c r="AC59" s="25"/>
+      <c r="AD59" s="25"/>
+      <c r="AE59" s="25"/>
+      <c r="AF59" s="25"/>
+      <c r="AG59" s="25"/>
+      <c r="AH59" s="25"/>
+      <c r="AI59" s="26"/>
+    </row>
+    <row r="60" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="19"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="28"/>
+      <c r="P60" s="28"/>
+      <c r="Q60" s="29"/>
+      <c r="S60" s="19"/>
+      <c r="T60" s="20"/>
+      <c r="U60" s="27"/>
+      <c r="V60" s="28"/>
+      <c r="W60" s="28"/>
+      <c r="X60" s="28"/>
+      <c r="Y60" s="28"/>
+      <c r="Z60" s="28"/>
+      <c r="AA60" s="28"/>
+      <c r="AB60" s="28"/>
+      <c r="AC60" s="28"/>
+      <c r="AD60" s="28"/>
+      <c r="AE60" s="28"/>
+      <c r="AF60" s="28"/>
+      <c r="AG60" s="28"/>
+      <c r="AH60" s="28"/>
+      <c r="AI60" s="29"/>
+    </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="201">
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="S2:X2"/>
+    <mergeCell ref="Y2:AH2"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="S7:X7"/>
+    <mergeCell ref="Y7:AL7"/>
     <mergeCell ref="S4:X4"/>
     <mergeCell ref="Y4:AH4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:P5"/>
     <mergeCell ref="S5:X5"/>
     <mergeCell ref="Y5:AH5"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="S2:X2"/>
-    <mergeCell ref="Y2:AH2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:P6"/>
-    <mergeCell ref="S6:X6"/>
-    <mergeCell ref="Y6:AH6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="S7:X7"/>
-    <mergeCell ref="Y7:AL7"/>
     <mergeCell ref="AI2:AL2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:P3"/>
@@ -5667,6 +5625,14 @@
     <mergeCell ref="N8:P8"/>
     <mergeCell ref="S8:X8"/>
     <mergeCell ref="Y8:AD8"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:P6"/>
+    <mergeCell ref="S6:X6"/>
+    <mergeCell ref="Y6:AH6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:J7"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="D12:P12"/>
     <mergeCell ref="S12:X12"/>
@@ -5806,6 +5772,8 @@
     <mergeCell ref="E37:N37"/>
     <mergeCell ref="O37:X37"/>
     <mergeCell ref="Y37:AH37"/>
+    <mergeCell ref="A50:B60"/>
+    <mergeCell ref="C50:Q60"/>
     <mergeCell ref="A38:D44"/>
     <mergeCell ref="E38:AL44"/>
     <mergeCell ref="A46:D46"/>
@@ -5817,8 +5785,10 @@
     <mergeCell ref="AA46:AD46"/>
     <mergeCell ref="AE46:AH46"/>
     <mergeCell ref="AI46:AL46"/>
-    <mergeCell ref="A48:B58"/>
-    <mergeCell ref="C48:Q58"/>
+    <mergeCell ref="AE49:AH49"/>
+    <mergeCell ref="AI49:AL49"/>
+    <mergeCell ref="S50:T60"/>
+    <mergeCell ref="U50:AI60"/>
     <mergeCell ref="S48:V48"/>
     <mergeCell ref="W48:Z48"/>
     <mergeCell ref="AA48:AD48"/>
@@ -5826,21 +5796,6 @@
     <mergeCell ref="S49:V49"/>
     <mergeCell ref="W49:Z49"/>
     <mergeCell ref="AA49:AD49"/>
-    <mergeCell ref="S54:V54"/>
-    <mergeCell ref="W54:Z54"/>
-    <mergeCell ref="AA54:AD54"/>
-    <mergeCell ref="AE54:AH54"/>
-    <mergeCell ref="AI54:AL54"/>
-    <mergeCell ref="AA55:AD58"/>
-    <mergeCell ref="AE55:AH58"/>
-    <mergeCell ref="AI55:AL58"/>
-    <mergeCell ref="AE49:AH49"/>
-    <mergeCell ref="AI49:AL49"/>
-    <mergeCell ref="S50:V53"/>
-    <mergeCell ref="W50:Z53"/>
-    <mergeCell ref="AA50:AD53"/>
-    <mergeCell ref="AE50:AH53"/>
-    <mergeCell ref="AI50:AL53"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="17">
@@ -5852,7 +5807,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G29:P29">
       <formula1>上限時間</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="G31:P31 S17:X23 S3:AL16 Y17:AL30 S50:AL53 AA55:AL58"/>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="G31:P31 S17:X23 S3:AL16 Y17:AL30 AL51 AJ58"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="W48">
       <formula1>他社決定時の案件内容確認</formula1>
     </dataValidation>

--- a/excel/contrcat_10105.xlsx
+++ b/excel/contrcat_10105.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr updateLinks="never" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11535"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="契約終了レポート" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">契約終了レポート!$A$1:$AL$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">契約終了レポート!$A$1:$AL$61</definedName>
     <definedName name="ありなし">[1]ダウンリスト!$L$1:$L$3</definedName>
     <definedName name="スキル">[1]ダウンリスト!$R$1:$R$4</definedName>
     <definedName name="下限時間">[1]ダウンリスト!$F$1:$F$7</definedName>
@@ -48,7 +48,7 @@
     <definedName name="他社決定時の案件内容確認">[1]ダウンリスト!$W$1:$W$3</definedName>
     <definedName name="締め">[1]ダウンリスト!$I$1:$I$3</definedName>
   </definedNames>
-  <calcPr calcId="171027" iterateDelta="1E-4"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
   <si>
     <r>
       <rPr>
@@ -574,16 +574,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>交代要員</t>
-    <rPh sb="0" eb="2">
-      <t>コウタイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヨウイン</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>保険証</t>
     <rPh sb="0" eb="3">
       <t>ホケンショウ</t>
@@ -701,11 +691,25 @@
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>退職</t>
+    <rPh sb="0" eb="2">
+      <t>タイショク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>休職</t>
+    <rPh sb="0" eb="2">
+      <t>キュウショク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
@@ -1565,7 +1569,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="6" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="268">
+  <cellXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1604,6 +1608,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1616,13 +1770,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1643,15 +1791,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1669,24 +1808,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1697,15 +1818,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1726,105 +1838,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1861,6 +1874,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1870,15 +1886,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1895,6 +1902,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2221,15 +2264,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2248,16 +2282,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2271,9 +2299,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3116,14 +3141,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BC60"/>
+  <dimension ref="A1:BC63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="AI33" sqref="AI33:AL37"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3132,363 +3157,363 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
     </row>
     <row r="2" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="17"/>
-      <c r="S2" s="18" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="67"/>
+      <c r="S2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="49" t="s">
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="71"/>
+      <c r="AI2" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="51"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="87"/>
     </row>
     <row r="3" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="56"/>
-      <c r="S3" s="45" t="s">
+      <c r="B3" s="89"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="15"/>
+      <c r="S3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="58"/>
-      <c r="AG3" s="58"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="61"/>
-      <c r="AK3" s="61"/>
-      <c r="AL3" s="62"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="24"/>
     </row>
     <row r="4" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="71"/>
-      <c r="S4" s="33" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="36"/>
+      <c r="S4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="37"/>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="37"/>
-      <c r="AD4" s="37"/>
-      <c r="AE4" s="37"/>
-      <c r="AF4" s="37"/>
-      <c r="AG4" s="37"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="63"/>
-      <c r="AJ4" s="64"/>
-      <c r="AK4" s="64"/>
-      <c r="AL4" s="65"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="57"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="57"/>
+      <c r="AH4" s="58"/>
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="27"/>
     </row>
     <row r="5" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="44"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="83"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="45" t="s">
+      <c r="S5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="37"/>
-      <c r="AA5" s="37"/>
-      <c r="AB5" s="37"/>
-      <c r="AC5" s="37"/>
-      <c r="AD5" s="37"/>
-      <c r="AE5" s="37"/>
-      <c r="AF5" s="37"/>
-      <c r="AG5" s="37"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="63"/>
-      <c r="AJ5" s="64"/>
-      <c r="AK5" s="64"/>
-      <c r="AL5" s="65"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="84"/>
+      <c r="Z5" s="57"/>
+      <c r="AA5" s="57"/>
+      <c r="AB5" s="57"/>
+      <c r="AC5" s="57"/>
+      <c r="AD5" s="57"/>
+      <c r="AE5" s="57"/>
+      <c r="AF5" s="57"/>
+      <c r="AG5" s="57"/>
+      <c r="AH5" s="58"/>
+      <c r="AI5" s="25"/>
+      <c r="AJ5" s="26"/>
+      <c r="AK5" s="26"/>
+      <c r="AL5" s="27"/>
     </row>
     <row r="6" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="71"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="36"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="85" t="s">
+      <c r="S6" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="86"/>
-      <c r="U6" s="86"/>
-      <c r="V6" s="86"/>
-      <c r="W6" s="86"/>
-      <c r="X6" s="87"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="37"/>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="37"/>
-      <c r="AF6" s="37"/>
-      <c r="AG6" s="37"/>
-      <c r="AH6" s="38"/>
-      <c r="AI6" s="66"/>
-      <c r="AJ6" s="67"/>
-      <c r="AK6" s="67"/>
-      <c r="AL6" s="68"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="57"/>
+      <c r="AA6" s="57"/>
+      <c r="AB6" s="57"/>
+      <c r="AC6" s="57"/>
+      <c r="AD6" s="57"/>
+      <c r="AE6" s="57"/>
+      <c r="AF6" s="57"/>
+      <c r="AG6" s="57"/>
+      <c r="AH6" s="58"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="29"/>
+      <c r="AK6" s="29"/>
+      <c r="AL6" s="30"/>
     </row>
     <row r="7" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="18" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="24" t="s">
+      <c r="G7" s="63"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="25"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="27">
+      <c r="L7" s="73"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="59">
         <f>H7-C7-N8</f>
         <v>0</v>
       </c>
-      <c r="O7" s="28"/>
-      <c r="P7" s="29"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="61"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="18" t="s">
+      <c r="S7" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="31"/>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="31"/>
-      <c r="AF7" s="31"/>
-      <c r="AG7" s="31"/>
-      <c r="AH7" s="31"/>
-      <c r="AI7" s="31"/>
-      <c r="AJ7" s="31"/>
-      <c r="AK7" s="31"/>
-      <c r="AL7" s="32"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="75"/>
+      <c r="Z7" s="76"/>
+      <c r="AA7" s="76"/>
+      <c r="AB7" s="76"/>
+      <c r="AC7" s="76"/>
+      <c r="AD7" s="76"/>
+      <c r="AE7" s="76"/>
+      <c r="AF7" s="76"/>
+      <c r="AG7" s="76"/>
+      <c r="AH7" s="76"/>
+      <c r="AI7" s="76"/>
+      <c r="AJ7" s="76"/>
+      <c r="AK7" s="76"/>
+      <c r="AL7" s="77"/>
     </row>
     <row r="8" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="77" t="s">
+      <c r="B8" s="115"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="78"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="79" t="s">
+      <c r="G8" s="120"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="80"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="74">
+      <c r="L8" s="122"/>
+      <c r="M8" s="123"/>
+      <c r="N8" s="116">
         <f>H8-C8</f>
         <v>0</v>
       </c>
-      <c r="O8" s="75"/>
-      <c r="P8" s="76"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="118"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="77" t="s">
+      <c r="S8" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="T8" s="82"/>
-      <c r="U8" s="82"/>
-      <c r="V8" s="82"/>
-      <c r="W8" s="82"/>
-      <c r="X8" s="82"/>
-      <c r="Y8" s="83" t="s">
+      <c r="T8" s="124"/>
+      <c r="U8" s="124"/>
+      <c r="V8" s="124"/>
+      <c r="W8" s="124"/>
+      <c r="X8" s="124"/>
+      <c r="Y8" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="Z8" s="84"/>
-      <c r="AA8" s="84"/>
-      <c r="AB8" s="84"/>
-      <c r="AC8" s="84"/>
-      <c r="AD8" s="84"/>
+      <c r="Z8" s="104"/>
+      <c r="AA8" s="104"/>
+      <c r="AB8" s="104"/>
+      <c r="AC8" s="104"/>
+      <c r="AD8" s="104"/>
       <c r="AE8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="AF8" s="84" t="s">
+      <c r="AF8" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="AG8" s="84"/>
-      <c r="AH8" s="84"/>
-      <c r="AI8" s="84"/>
-      <c r="AJ8" s="84"/>
-      <c r="AK8" s="84"/>
-      <c r="AL8" s="101"/>
+      <c r="AG8" s="104"/>
+      <c r="AH8" s="104"/>
+      <c r="AI8" s="104"/>
+      <c r="AJ8" s="104"/>
+      <c r="AK8" s="104"/>
+      <c r="AL8" s="105"/>
     </row>
     <row r="9" spans="1:38" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
@@ -3497,325 +3522,325 @@
       <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="103"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="106"/>
+      <c r="M10" s="106"/>
+      <c r="N10" s="106"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="107"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="104" t="s">
+      <c r="S10" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T10" s="105"/>
-      <c r="U10" s="105"/>
-      <c r="V10" s="105"/>
-      <c r="W10" s="105"/>
-      <c r="X10" s="105"/>
-      <c r="Y10" s="105"/>
-      <c r="Z10" s="105"/>
-      <c r="AA10" s="105"/>
-      <c r="AB10" s="105"/>
-      <c r="AC10" s="105"/>
-      <c r="AD10" s="105"/>
-      <c r="AE10" s="105"/>
-      <c r="AF10" s="105"/>
-      <c r="AG10" s="105"/>
-      <c r="AH10" s="105"/>
-      <c r="AI10" s="105"/>
-      <c r="AJ10" s="105"/>
-      <c r="AK10" s="105"/>
-      <c r="AL10" s="106"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="40"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="40"/>
+      <c r="AG10" s="40"/>
+      <c r="AH10" s="40"/>
+      <c r="AI10" s="40"/>
+      <c r="AJ10" s="40"/>
+      <c r="AK10" s="40"/>
+      <c r="AL10" s="41"/>
     </row>
     <row r="11" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="44"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="83"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="107" t="s">
+      <c r="S11" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="T11" s="108"/>
-      <c r="U11" s="108"/>
-      <c r="V11" s="108"/>
-      <c r="W11" s="108"/>
-      <c r="X11" s="109"/>
-      <c r="Y11" s="110" t="s">
+      <c r="T11" s="109"/>
+      <c r="U11" s="109"/>
+      <c r="V11" s="109"/>
+      <c r="W11" s="109"/>
+      <c r="X11" s="110"/>
+      <c r="Y11" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="Z11" s="111"/>
-      <c r="AA11" s="111"/>
-      <c r="AB11" s="111"/>
-      <c r="AC11" s="111"/>
-      <c r="AD11" s="111"/>
-      <c r="AE11" s="111"/>
-      <c r="AF11" s="111"/>
-      <c r="AG11" s="111"/>
-      <c r="AH11" s="111"/>
-      <c r="AI11" s="111"/>
-      <c r="AJ11" s="111"/>
-      <c r="AK11" s="111"/>
-      <c r="AL11" s="112"/>
+      <c r="Z11" s="112"/>
+      <c r="AA11" s="112"/>
+      <c r="AB11" s="112"/>
+      <c r="AC11" s="112"/>
+      <c r="AD11" s="112"/>
+      <c r="AE11" s="112"/>
+      <c r="AF11" s="112"/>
+      <c r="AG11" s="112"/>
+      <c r="AH11" s="112"/>
+      <c r="AI11" s="112"/>
+      <c r="AJ11" s="112"/>
+      <c r="AK11" s="112"/>
+      <c r="AL11" s="113"/>
     </row>
     <row r="12" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="71"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="36"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="45" t="s">
+      <c r="S12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="T12" s="91"/>
-      <c r="U12" s="91"/>
-      <c r="V12" s="91"/>
-      <c r="W12" s="91"/>
-      <c r="X12" s="92"/>
-      <c r="Y12" s="93"/>
-      <c r="Z12" s="94"/>
-      <c r="AA12" s="95" t="s">
+      <c r="T12" s="94"/>
+      <c r="U12" s="94"/>
+      <c r="V12" s="94"/>
+      <c r="W12" s="94"/>
+      <c r="X12" s="95"/>
+      <c r="Y12" s="96"/>
+      <c r="Z12" s="97"/>
+      <c r="AA12" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="AB12" s="96"/>
-      <c r="AC12" s="97"/>
-      <c r="AD12" s="98" t="s">
+      <c r="AB12" s="99"/>
+      <c r="AC12" s="100"/>
+      <c r="AD12" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="AE12" s="99"/>
-      <c r="AF12" s="99"/>
-      <c r="AG12" s="99"/>
-      <c r="AH12" s="99"/>
-      <c r="AI12" s="99"/>
-      <c r="AJ12" s="99"/>
-      <c r="AK12" s="99"/>
-      <c r="AL12" s="100"/>
+      <c r="AE12" s="102"/>
+      <c r="AF12" s="102"/>
+      <c r="AG12" s="102"/>
+      <c r="AH12" s="102"/>
+      <c r="AI12" s="102"/>
+      <c r="AJ12" s="102"/>
+      <c r="AK12" s="102"/>
+      <c r="AL12" s="103"/>
     </row>
     <row r="13" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="44"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="83"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="113" t="s">
+      <c r="S13" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="T13" s="114"/>
-      <c r="U13" s="114"/>
-      <c r="V13" s="115"/>
-      <c r="W13" s="115"/>
-      <c r="X13" s="116"/>
-      <c r="Y13" s="117"/>
-      <c r="Z13" s="118"/>
-      <c r="AA13" s="119"/>
-      <c r="AB13" s="119"/>
-      <c r="AC13" s="119"/>
-      <c r="AD13" s="118"/>
-      <c r="AE13" s="118"/>
-      <c r="AF13" s="118"/>
-      <c r="AG13" s="118"/>
-      <c r="AH13" s="120"/>
-      <c r="AI13" s="104" t="s">
+      <c r="T13" s="127"/>
+      <c r="U13" s="127"/>
+      <c r="V13" s="128"/>
+      <c r="W13" s="128"/>
+      <c r="X13" s="129"/>
+      <c r="Y13" s="130"/>
+      <c r="Z13" s="131"/>
+      <c r="AA13" s="132"/>
+      <c r="AB13" s="132"/>
+      <c r="AC13" s="132"/>
+      <c r="AD13" s="131"/>
+      <c r="AE13" s="131"/>
+      <c r="AF13" s="131"/>
+      <c r="AG13" s="131"/>
+      <c r="AH13" s="133"/>
+      <c r="AI13" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="AJ13" s="105"/>
-      <c r="AK13" s="105"/>
-      <c r="AL13" s="106"/>
+      <c r="AJ13" s="40"/>
+      <c r="AK13" s="40"/>
+      <c r="AL13" s="41"/>
     </row>
     <row r="14" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="38"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="58"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="123" t="s">
+      <c r="S14" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="T14" s="124"/>
-      <c r="U14" s="125"/>
-      <c r="V14" s="60" t="s">
+      <c r="T14" s="137"/>
+      <c r="U14" s="138"/>
+      <c r="V14" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="W14" s="61"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="126"/>
-      <c r="Z14" s="127"/>
-      <c r="AA14" s="15" t="s">
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="139"/>
+      <c r="Z14" s="140"/>
+      <c r="AA14" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="128" t="s">
+      <c r="AB14" s="66"/>
+      <c r="AC14" s="67"/>
+      <c r="AD14" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="AE14" s="129"/>
-      <c r="AF14" s="129"/>
-      <c r="AG14" s="129"/>
-      <c r="AH14" s="129"/>
-      <c r="AI14" s="130">
+      <c r="AE14" s="142"/>
+      <c r="AF14" s="142"/>
+      <c r="AG14" s="142"/>
+      <c r="AH14" s="142"/>
+      <c r="AI14" s="143">
         <v>80</v>
       </c>
-      <c r="AJ14" s="131"/>
-      <c r="AK14" s="131"/>
-      <c r="AL14" s="132"/>
+      <c r="AJ14" s="144"/>
+      <c r="AK14" s="144"/>
+      <c r="AL14" s="145"/>
     </row>
     <row r="15" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="136" t="s">
+      <c r="A15" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="137"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="139"/>
-      <c r="K15" s="139"/>
-      <c r="L15" s="139"/>
-      <c r="M15" s="139"/>
-      <c r="N15" s="139"/>
-      <c r="O15" s="139"/>
-      <c r="P15" s="140"/>
+      <c r="B15" s="150"/>
+      <c r="C15" s="150"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="152"/>
+      <c r="K15" s="152"/>
+      <c r="L15" s="152"/>
+      <c r="M15" s="152"/>
+      <c r="N15" s="152"/>
+      <c r="O15" s="152"/>
+      <c r="P15" s="153"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="136" t="s">
+      <c r="S15" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="T15" s="137"/>
-      <c r="U15" s="137"/>
-      <c r="V15" s="108"/>
-      <c r="W15" s="108"/>
-      <c r="X15" s="109"/>
-      <c r="Y15" s="141" t="s">
+      <c r="T15" s="150"/>
+      <c r="U15" s="150"/>
+      <c r="V15" s="109"/>
+      <c r="W15" s="109"/>
+      <c r="X15" s="110"/>
+      <c r="Y15" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="Z15" s="142"/>
-      <c r="AA15" s="142"/>
-      <c r="AB15" s="142"/>
-      <c r="AC15" s="142"/>
-      <c r="AD15" s="142"/>
-      <c r="AE15" s="142"/>
-      <c r="AF15" s="142"/>
-      <c r="AG15" s="142"/>
-      <c r="AH15" s="143"/>
-      <c r="AI15" s="130"/>
-      <c r="AJ15" s="131"/>
-      <c r="AK15" s="131"/>
-      <c r="AL15" s="132"/>
+      <c r="Z15" s="155"/>
+      <c r="AA15" s="155"/>
+      <c r="AB15" s="155"/>
+      <c r="AC15" s="155"/>
+      <c r="AD15" s="155"/>
+      <c r="AE15" s="155"/>
+      <c r="AF15" s="155"/>
+      <c r="AG15" s="155"/>
+      <c r="AH15" s="156"/>
+      <c r="AI15" s="143"/>
+      <c r="AJ15" s="144"/>
+      <c r="AK15" s="144"/>
+      <c r="AL15" s="145"/>
     </row>
     <row r="16" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="144" t="s">
+      <c r="A16" s="157" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="146"/>
-      <c r="K16" s="146"/>
-      <c r="L16" s="146"/>
-      <c r="M16" s="146"/>
-      <c r="N16" s="146"/>
-      <c r="O16" s="146"/>
-      <c r="P16" s="147"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="159"/>
+      <c r="M16" s="159"/>
+      <c r="N16" s="159"/>
+      <c r="O16" s="159"/>
+      <c r="P16" s="160"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="144" t="s">
+      <c r="S16" s="157" t="s">
         <v>33</v>
       </c>
-      <c r="T16" s="115"/>
-      <c r="U16" s="115"/>
-      <c r="V16" s="115"/>
-      <c r="W16" s="115"/>
-      <c r="X16" s="116"/>
-      <c r="Y16" s="148" t="s">
+      <c r="T16" s="128"/>
+      <c r="U16" s="128"/>
+      <c r="V16" s="128"/>
+      <c r="W16" s="128"/>
+      <c r="X16" s="129"/>
+      <c r="Y16" s="161" t="s">
         <v>18</v>
       </c>
-      <c r="Z16" s="149"/>
-      <c r="AA16" s="149"/>
-      <c r="AB16" s="149"/>
-      <c r="AC16" s="149"/>
-      <c r="AD16" s="149"/>
-      <c r="AE16" s="149"/>
-      <c r="AF16" s="149"/>
-      <c r="AG16" s="149"/>
-      <c r="AH16" s="150"/>
-      <c r="AI16" s="133"/>
-      <c r="AJ16" s="134"/>
-      <c r="AK16" s="134"/>
-      <c r="AL16" s="135"/>
+      <c r="Z16" s="162"/>
+      <c r="AA16" s="162"/>
+      <c r="AB16" s="162"/>
+      <c r="AC16" s="162"/>
+      <c r="AD16" s="162"/>
+      <c r="AE16" s="162"/>
+      <c r="AF16" s="162"/>
+      <c r="AG16" s="162"/>
+      <c r="AH16" s="163"/>
+      <c r="AI16" s="146"/>
+      <c r="AJ16" s="147"/>
+      <c r="AK16" s="147"/>
+      <c r="AL16" s="148"/>
     </row>
     <row r="17" spans="1:55" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
@@ -3854,757 +3879,757 @@
       <c r="AH17" s="6"/>
     </row>
     <row r="18" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="151" t="s">
+      <c r="A18" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="152"/>
-      <c r="C18" s="157" t="s">
+      <c r="B18" s="165"/>
+      <c r="C18" s="170" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="159"/>
-      <c r="I18" s="159"/>
-      <c r="J18" s="159"/>
-      <c r="K18" s="159"/>
-      <c r="L18" s="159"/>
-      <c r="M18" s="159"/>
-      <c r="N18" s="159"/>
-      <c r="O18" s="159"/>
-      <c r="P18" s="160"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="172"/>
+      <c r="L18" s="172"/>
+      <c r="M18" s="172"/>
+      <c r="N18" s="172"/>
+      <c r="O18" s="172"/>
+      <c r="P18" s="173"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="151" t="s">
+      <c r="S18" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="T18" s="152"/>
-      <c r="U18" s="157" t="s">
+      <c r="T18" s="165"/>
+      <c r="U18" s="170" t="s">
         <v>35</v>
       </c>
-      <c r="V18" s="108"/>
-      <c r="W18" s="108"/>
-      <c r="X18" s="109"/>
-      <c r="Y18" s="161" t="s">
+      <c r="V18" s="109"/>
+      <c r="W18" s="109"/>
+      <c r="X18" s="110"/>
+      <c r="Y18" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="Z18" s="161"/>
-      <c r="AA18" s="161"/>
-      <c r="AB18" s="161"/>
-      <c r="AC18" s="161"/>
-      <c r="AD18" s="161"/>
-      <c r="AE18" s="161"/>
-      <c r="AF18" s="161" t="s">
+      <c r="Z18" s="174"/>
+      <c r="AA18" s="174"/>
+      <c r="AB18" s="174"/>
+      <c r="AC18" s="174"/>
+      <c r="AD18" s="174"/>
+      <c r="AE18" s="174"/>
+      <c r="AF18" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="AG18" s="161"/>
-      <c r="AH18" s="161"/>
-      <c r="AI18" s="161"/>
-      <c r="AJ18" s="161"/>
-      <c r="AK18" s="161"/>
-      <c r="AL18" s="161"/>
+      <c r="AG18" s="174"/>
+      <c r="AH18" s="174"/>
+      <c r="AI18" s="174"/>
+      <c r="AJ18" s="174"/>
+      <c r="AK18" s="174"/>
+      <c r="AL18" s="174"/>
     </row>
     <row r="19" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="153"/>
-      <c r="B19" s="154"/>
-      <c r="C19" s="162" t="s">
+      <c r="A19" s="166"/>
+      <c r="B19" s="167"/>
+      <c r="C19" s="175" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="124"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="167"/>
-      <c r="H19" s="168"/>
-      <c r="I19" s="168"/>
-      <c r="J19" s="168"/>
-      <c r="K19" s="168"/>
-      <c r="L19" s="168"/>
-      <c r="M19" s="168"/>
-      <c r="N19" s="168"/>
-      <c r="O19" s="168"/>
-      <c r="P19" s="169"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="180"/>
+      <c r="H19" s="181"/>
+      <c r="I19" s="181"/>
+      <c r="J19" s="181"/>
+      <c r="K19" s="181"/>
+      <c r="L19" s="181"/>
+      <c r="M19" s="181"/>
+      <c r="N19" s="181"/>
+      <c r="O19" s="181"/>
+      <c r="P19" s="182"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="153"/>
-      <c r="T19" s="154"/>
-      <c r="U19" s="162" t="s">
+      <c r="S19" s="166"/>
+      <c r="T19" s="167"/>
+      <c r="U19" s="175" t="s">
         <v>36</v>
       </c>
-      <c r="V19" s="124"/>
-      <c r="W19" s="124"/>
-      <c r="X19" s="125"/>
-      <c r="Y19" s="171" t="s">
+      <c r="V19" s="137"/>
+      <c r="W19" s="137"/>
+      <c r="X19" s="138"/>
+      <c r="Y19" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="Z19" s="171"/>
-      <c r="AA19" s="171"/>
-      <c r="AB19" s="171"/>
-      <c r="AC19" s="171"/>
-      <c r="AD19" s="171"/>
-      <c r="AE19" s="171"/>
-      <c r="AF19" s="171"/>
-      <c r="AG19" s="171"/>
-      <c r="AH19" s="171"/>
-      <c r="AI19" s="171"/>
-      <c r="AJ19" s="171"/>
-      <c r="AK19" s="171"/>
-      <c r="AL19" s="171"/>
+      <c r="Z19" s="184"/>
+      <c r="AA19" s="184"/>
+      <c r="AB19" s="184"/>
+      <c r="AC19" s="184"/>
+      <c r="AD19" s="184"/>
+      <c r="AE19" s="184"/>
+      <c r="AF19" s="184"/>
+      <c r="AG19" s="184"/>
+      <c r="AH19" s="184"/>
+      <c r="AI19" s="184"/>
+      <c r="AJ19" s="184"/>
+      <c r="AK19" s="184"/>
+      <c r="AL19" s="184"/>
     </row>
     <row r="20" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="153"/>
-      <c r="B20" s="154"/>
-      <c r="C20" s="162" t="s">
+      <c r="A20" s="166"/>
+      <c r="B20" s="167"/>
+      <c r="C20" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="124"/>
-      <c r="E20" s="124"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="163"/>
-      <c r="H20" s="164"/>
-      <c r="I20" s="164"/>
-      <c r="J20" s="164"/>
-      <c r="K20" s="164"/>
-      <c r="L20" s="164"/>
-      <c r="M20" s="164"/>
-      <c r="N20" s="164"/>
-      <c r="O20" s="164"/>
-      <c r="P20" s="165"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="176"/>
+      <c r="H20" s="177"/>
+      <c r="I20" s="177"/>
+      <c r="J20" s="177"/>
+      <c r="K20" s="177"/>
+      <c r="L20" s="177"/>
+      <c r="M20" s="177"/>
+      <c r="N20" s="177"/>
+      <c r="O20" s="177"/>
+      <c r="P20" s="178"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="153"/>
-      <c r="T20" s="154"/>
-      <c r="U20" s="162" t="s">
+      <c r="S20" s="166"/>
+      <c r="T20" s="167"/>
+      <c r="U20" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="V20" s="124"/>
-      <c r="W20" s="124"/>
-      <c r="X20" s="125"/>
-      <c r="Y20" s="166" t="s">
+      <c r="V20" s="137"/>
+      <c r="W20" s="137"/>
+      <c r="X20" s="138"/>
+      <c r="Y20" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="Z20" s="166"/>
-      <c r="AA20" s="166"/>
-      <c r="AB20" s="166"/>
-      <c r="AC20" s="166"/>
-      <c r="AD20" s="166"/>
-      <c r="AE20" s="166"/>
-      <c r="AF20" s="166" t="s">
+      <c r="Z20" s="179"/>
+      <c r="AA20" s="179"/>
+      <c r="AB20" s="179"/>
+      <c r="AC20" s="179"/>
+      <c r="AD20" s="179"/>
+      <c r="AE20" s="179"/>
+      <c r="AF20" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="AG20" s="166"/>
-      <c r="AH20" s="166"/>
-      <c r="AI20" s="166"/>
-      <c r="AJ20" s="166"/>
-      <c r="AK20" s="166"/>
-      <c r="AL20" s="166"/>
+      <c r="AG20" s="179"/>
+      <c r="AH20" s="179"/>
+      <c r="AI20" s="179"/>
+      <c r="AJ20" s="179"/>
+      <c r="AK20" s="179"/>
+      <c r="AL20" s="179"/>
     </row>
     <row r="21" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="153"/>
-      <c r="B21" s="154"/>
-      <c r="C21" s="162" t="s">
+      <c r="A21" s="166"/>
+      <c r="B21" s="167"/>
+      <c r="C21" s="175" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="163"/>
-      <c r="H21" s="164"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="164"/>
-      <c r="K21" s="164"/>
-      <c r="L21" s="164"/>
-      <c r="M21" s="164"/>
-      <c r="N21" s="164"/>
-      <c r="O21" s="164"/>
-      <c r="P21" s="165"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="176"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="177"/>
+      <c r="J21" s="177"/>
+      <c r="K21" s="177"/>
+      <c r="L21" s="177"/>
+      <c r="M21" s="177"/>
+      <c r="N21" s="177"/>
+      <c r="O21" s="177"/>
+      <c r="P21" s="178"/>
       <c r="R21" s="2"/>
-      <c r="S21" s="153"/>
-      <c r="T21" s="154"/>
-      <c r="U21" s="162" t="s">
+      <c r="S21" s="166"/>
+      <c r="T21" s="167"/>
+      <c r="U21" s="175" t="s">
         <v>38</v>
       </c>
-      <c r="V21" s="124"/>
-      <c r="W21" s="124"/>
-      <c r="X21" s="125"/>
-      <c r="Y21" s="166" t="s">
+      <c r="V21" s="137"/>
+      <c r="W21" s="137"/>
+      <c r="X21" s="138"/>
+      <c r="Y21" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="Z21" s="166"/>
-      <c r="AA21" s="166"/>
-      <c r="AB21" s="166"/>
-      <c r="AC21" s="166"/>
-      <c r="AD21" s="166"/>
-      <c r="AE21" s="166"/>
-      <c r="AF21" s="166" t="s">
+      <c r="Z21" s="179"/>
+      <c r="AA21" s="179"/>
+      <c r="AB21" s="179"/>
+      <c r="AC21" s="179"/>
+      <c r="AD21" s="179"/>
+      <c r="AE21" s="179"/>
+      <c r="AF21" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="AG21" s="166"/>
-      <c r="AH21" s="166"/>
-      <c r="AI21" s="166"/>
-      <c r="AJ21" s="166"/>
-      <c r="AK21" s="166"/>
-      <c r="AL21" s="166"/>
+      <c r="AG21" s="179"/>
+      <c r="AH21" s="179"/>
+      <c r="AI21" s="179"/>
+      <c r="AJ21" s="179"/>
+      <c r="AK21" s="179"/>
+      <c r="AL21" s="179"/>
     </row>
     <row r="22" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="153"/>
-      <c r="B22" s="154"/>
-      <c r="C22" s="162" t="s">
+      <c r="A22" s="166"/>
+      <c r="B22" s="167"/>
+      <c r="C22" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="167" t="s">
+      <c r="D22" s="137"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="180" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="168"/>
-      <c r="I22" s="168"/>
-      <c r="J22" s="168"/>
-      <c r="K22" s="168"/>
-      <c r="L22" s="168"/>
-      <c r="M22" s="168"/>
-      <c r="N22" s="168"/>
-      <c r="O22" s="168"/>
-      <c r="P22" s="169"/>
+      <c r="H22" s="181"/>
+      <c r="I22" s="181"/>
+      <c r="J22" s="181"/>
+      <c r="K22" s="181"/>
+      <c r="L22" s="181"/>
+      <c r="M22" s="181"/>
+      <c r="N22" s="181"/>
+      <c r="O22" s="181"/>
+      <c r="P22" s="182"/>
       <c r="R22" s="2"/>
-      <c r="S22" s="153"/>
-      <c r="T22" s="154"/>
-      <c r="U22" s="162" t="s">
+      <c r="S22" s="166"/>
+      <c r="T22" s="167"/>
+      <c r="U22" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="V22" s="124"/>
-      <c r="W22" s="124"/>
-      <c r="X22" s="125"/>
-      <c r="Y22" s="170" t="s">
+      <c r="V22" s="137"/>
+      <c r="W22" s="137"/>
+      <c r="X22" s="138"/>
+      <c r="Y22" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="Z22" s="170"/>
-      <c r="AA22" s="170"/>
-      <c r="AB22" s="170"/>
-      <c r="AC22" s="170"/>
-      <c r="AD22" s="170"/>
-      <c r="AE22" s="170"/>
-      <c r="AF22" s="170" t="s">
+      <c r="Z22" s="183"/>
+      <c r="AA22" s="183"/>
+      <c r="AB22" s="183"/>
+      <c r="AC22" s="183"/>
+      <c r="AD22" s="183"/>
+      <c r="AE22" s="183"/>
+      <c r="AF22" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="AG22" s="170"/>
-      <c r="AH22" s="170"/>
-      <c r="AI22" s="170"/>
-      <c r="AJ22" s="170"/>
-      <c r="AK22" s="170"/>
-      <c r="AL22" s="170"/>
+      <c r="AG22" s="183"/>
+      <c r="AH22" s="183"/>
+      <c r="AI22" s="183"/>
+      <c r="AJ22" s="183"/>
+      <c r="AK22" s="183"/>
+      <c r="AL22" s="183"/>
     </row>
     <row r="23" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="155"/>
-      <c r="B23" s="156"/>
-      <c r="C23" s="172" t="s">
+      <c r="A23" s="168"/>
+      <c r="B23" s="169"/>
+      <c r="C23" s="185" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="173" t="s">
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="174"/>
-      <c r="I23" s="174"/>
-      <c r="J23" s="174"/>
-      <c r="K23" s="174"/>
-      <c r="L23" s="174"/>
-      <c r="M23" s="174"/>
-      <c r="N23" s="174"/>
-      <c r="O23" s="174"/>
-      <c r="P23" s="175"/>
+      <c r="H23" s="187"/>
+      <c r="I23" s="187"/>
+      <c r="J23" s="187"/>
+      <c r="K23" s="187"/>
+      <c r="L23" s="187"/>
+      <c r="M23" s="187"/>
+      <c r="N23" s="187"/>
+      <c r="O23" s="187"/>
+      <c r="P23" s="188"/>
       <c r="R23" s="2"/>
-      <c r="S23" s="155"/>
-      <c r="T23" s="156"/>
-      <c r="U23" s="172" t="s">
+      <c r="S23" s="168"/>
+      <c r="T23" s="169"/>
+      <c r="U23" s="185" t="s">
         <v>40</v>
       </c>
-      <c r="V23" s="115"/>
-      <c r="W23" s="115"/>
-      <c r="X23" s="116"/>
-      <c r="Y23" s="170" t="s">
+      <c r="V23" s="128"/>
+      <c r="W23" s="128"/>
+      <c r="X23" s="129"/>
+      <c r="Y23" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="Z23" s="170"/>
-      <c r="AA23" s="170"/>
-      <c r="AB23" s="170"/>
-      <c r="AC23" s="170"/>
-      <c r="AD23" s="170"/>
-      <c r="AE23" s="170"/>
-      <c r="AF23" s="176" t="s">
+      <c r="Z23" s="183"/>
+      <c r="AA23" s="183"/>
+      <c r="AB23" s="183"/>
+      <c r="AC23" s="183"/>
+      <c r="AD23" s="183"/>
+      <c r="AE23" s="183"/>
+      <c r="AF23" s="189" t="s">
         <v>18</v>
       </c>
-      <c r="AG23" s="176"/>
-      <c r="AH23" s="176"/>
-      <c r="AI23" s="176"/>
-      <c r="AJ23" s="176"/>
-      <c r="AK23" s="176"/>
-      <c r="AL23" s="176"/>
+      <c r="AG23" s="189"/>
+      <c r="AH23" s="189"/>
+      <c r="AI23" s="189"/>
+      <c r="AJ23" s="189"/>
+      <c r="AK23" s="189"/>
+      <c r="AL23" s="189"/>
     </row>
     <row r="24" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="177" t="s">
+      <c r="A24" s="190" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="178"/>
-      <c r="C24" s="18" t="s">
+      <c r="B24" s="191"/>
+      <c r="C24" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="183"/>
-      <c r="H24" s="184"/>
-      <c r="I24" s="184"/>
-      <c r="J24" s="184"/>
-      <c r="K24" s="184"/>
-      <c r="L24" s="184"/>
-      <c r="M24" s="184"/>
-      <c r="N24" s="184"/>
-      <c r="O24" s="184"/>
-      <c r="P24" s="185"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="196"/>
+      <c r="H24" s="197"/>
+      <c r="I24" s="197"/>
+      <c r="J24" s="197"/>
+      <c r="K24" s="197"/>
+      <c r="L24" s="197"/>
+      <c r="M24" s="197"/>
+      <c r="N24" s="197"/>
+      <c r="O24" s="197"/>
+      <c r="P24" s="198"/>
       <c r="R24" s="2"/>
-      <c r="S24" s="177" t="s">
+      <c r="S24" s="190" t="s">
         <v>41</v>
       </c>
-      <c r="T24" s="178"/>
-      <c r="U24" s="18" t="s">
+      <c r="T24" s="191"/>
+      <c r="U24" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="186"/>
-      <c r="Z24" s="187"/>
-      <c r="AA24" s="187"/>
-      <c r="AB24" s="187"/>
-      <c r="AC24" s="187"/>
-      <c r="AD24" s="187"/>
-      <c r="AE24" s="188"/>
-      <c r="AF24" s="186"/>
-      <c r="AG24" s="187"/>
-      <c r="AH24" s="187"/>
-      <c r="AI24" s="187"/>
-      <c r="AJ24" s="187"/>
-      <c r="AK24" s="187"/>
-      <c r="AL24" s="188"/>
+      <c r="V24" s="68"/>
+      <c r="W24" s="68"/>
+      <c r="X24" s="63"/>
+      <c r="Y24" s="199"/>
+      <c r="Z24" s="200"/>
+      <c r="AA24" s="200"/>
+      <c r="AB24" s="200"/>
+      <c r="AC24" s="200"/>
+      <c r="AD24" s="200"/>
+      <c r="AE24" s="201"/>
+      <c r="AF24" s="199"/>
+      <c r="AG24" s="200"/>
+      <c r="AH24" s="200"/>
+      <c r="AI24" s="200"/>
+      <c r="AJ24" s="200"/>
+      <c r="AK24" s="200"/>
+      <c r="AL24" s="201"/>
     </row>
     <row r="25" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="179"/>
-      <c r="B25" s="180"/>
-      <c r="C25" s="45" t="s">
+      <c r="A25" s="192"/>
+      <c r="B25" s="193"/>
+      <c r="C25" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="38"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="58"/>
       <c r="R25" s="2"/>
-      <c r="S25" s="179"/>
-      <c r="T25" s="180"/>
-      <c r="U25" s="45" t="s">
+      <c r="S25" s="192"/>
+      <c r="T25" s="193"/>
+      <c r="U25" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="V25" s="46"/>
-      <c r="W25" s="46"/>
-      <c r="X25" s="47"/>
-      <c r="Y25" s="128"/>
-      <c r="Z25" s="129"/>
-      <c r="AA25" s="129"/>
-      <c r="AB25" s="129"/>
-      <c r="AC25" s="129"/>
-      <c r="AD25" s="129"/>
-      <c r="AE25" s="194"/>
-      <c r="AF25" s="128"/>
-      <c r="AG25" s="129"/>
-      <c r="AH25" s="129"/>
-      <c r="AI25" s="129"/>
-      <c r="AJ25" s="129"/>
-      <c r="AK25" s="129"/>
-      <c r="AL25" s="194"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="141"/>
+      <c r="Z25" s="142"/>
+      <c r="AA25" s="142"/>
+      <c r="AB25" s="142"/>
+      <c r="AC25" s="142"/>
+      <c r="AD25" s="142"/>
+      <c r="AE25" s="207"/>
+      <c r="AF25" s="141"/>
+      <c r="AG25" s="142"/>
+      <c r="AH25" s="142"/>
+      <c r="AI25" s="142"/>
+      <c r="AJ25" s="142"/>
+      <c r="AK25" s="142"/>
+      <c r="AL25" s="207"/>
     </row>
     <row r="26" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="179"/>
-      <c r="B26" s="180"/>
-      <c r="C26" s="189" t="s">
+      <c r="A26" s="192"/>
+      <c r="B26" s="193"/>
+      <c r="C26" s="202" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="137"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="190"/>
-      <c r="G26" s="191"/>
-      <c r="H26" s="192"/>
-      <c r="I26" s="192"/>
-      <c r="J26" s="192"/>
-      <c r="K26" s="192"/>
-      <c r="L26" s="192"/>
-      <c r="M26" s="192"/>
-      <c r="N26" s="192"/>
-      <c r="O26" s="192"/>
-      <c r="P26" s="193"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="203"/>
+      <c r="G26" s="204"/>
+      <c r="H26" s="205"/>
+      <c r="I26" s="205"/>
+      <c r="J26" s="205"/>
+      <c r="K26" s="205"/>
+      <c r="L26" s="205"/>
+      <c r="M26" s="205"/>
+      <c r="N26" s="205"/>
+      <c r="O26" s="205"/>
+      <c r="P26" s="206"/>
       <c r="R26" s="2"/>
-      <c r="S26" s="179"/>
-      <c r="T26" s="180"/>
-      <c r="U26" s="189" t="s">
+      <c r="S26" s="192"/>
+      <c r="T26" s="193"/>
+      <c r="U26" s="202" t="s">
         <v>35</v>
       </c>
-      <c r="V26" s="137"/>
-      <c r="W26" s="137"/>
-      <c r="X26" s="190"/>
-      <c r="Y26" s="128"/>
-      <c r="Z26" s="129"/>
-      <c r="AA26" s="129"/>
-      <c r="AB26" s="129"/>
-      <c r="AC26" s="129"/>
-      <c r="AD26" s="129"/>
-      <c r="AE26" s="194"/>
-      <c r="AF26" s="128"/>
-      <c r="AG26" s="129"/>
-      <c r="AH26" s="129"/>
-      <c r="AI26" s="129"/>
-      <c r="AJ26" s="129"/>
-      <c r="AK26" s="129"/>
-      <c r="AL26" s="194"/>
+      <c r="V26" s="150"/>
+      <c r="W26" s="150"/>
+      <c r="X26" s="203"/>
+      <c r="Y26" s="141"/>
+      <c r="Z26" s="142"/>
+      <c r="AA26" s="142"/>
+      <c r="AB26" s="142"/>
+      <c r="AC26" s="142"/>
+      <c r="AD26" s="142"/>
+      <c r="AE26" s="207"/>
+      <c r="AF26" s="141"/>
+      <c r="AG26" s="142"/>
+      <c r="AH26" s="142"/>
+      <c r="AI26" s="142"/>
+      <c r="AJ26" s="142"/>
+      <c r="AK26" s="142"/>
+      <c r="AL26" s="207"/>
     </row>
     <row r="27" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="179"/>
-      <c r="B27" s="180"/>
-      <c r="C27" s="162" t="s">
+      <c r="A27" s="192"/>
+      <c r="B27" s="193"/>
+      <c r="C27" s="175" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="124"/>
-      <c r="E27" s="124"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="167"/>
-      <c r="H27" s="168"/>
-      <c r="I27" s="168"/>
-      <c r="J27" s="168"/>
-      <c r="K27" s="168"/>
-      <c r="L27" s="168"/>
-      <c r="M27" s="168"/>
-      <c r="N27" s="168"/>
-      <c r="O27" s="168"/>
-      <c r="P27" s="169"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="180"/>
+      <c r="H27" s="181"/>
+      <c r="I27" s="181"/>
+      <c r="J27" s="181"/>
+      <c r="K27" s="181"/>
+      <c r="L27" s="181"/>
+      <c r="M27" s="181"/>
+      <c r="N27" s="181"/>
+      <c r="O27" s="181"/>
+      <c r="P27" s="182"/>
       <c r="R27" s="2"/>
-      <c r="S27" s="179"/>
-      <c r="T27" s="180"/>
-      <c r="U27" s="162" t="s">
+      <c r="S27" s="192"/>
+      <c r="T27" s="193"/>
+      <c r="U27" s="175" t="s">
         <v>36</v>
       </c>
-      <c r="V27" s="124"/>
-      <c r="W27" s="124"/>
-      <c r="X27" s="125"/>
-      <c r="Y27" s="195"/>
-      <c r="Z27" s="196"/>
-      <c r="AA27" s="196"/>
-      <c r="AB27" s="196"/>
-      <c r="AC27" s="196"/>
-      <c r="AD27" s="196"/>
-      <c r="AE27" s="197"/>
-      <c r="AF27" s="195"/>
-      <c r="AG27" s="196"/>
-      <c r="AH27" s="196"/>
-      <c r="AI27" s="196"/>
-      <c r="AJ27" s="196"/>
-      <c r="AK27" s="196"/>
-      <c r="AL27" s="197"/>
+      <c r="V27" s="137"/>
+      <c r="W27" s="137"/>
+      <c r="X27" s="138"/>
+      <c r="Y27" s="208"/>
+      <c r="Z27" s="209"/>
+      <c r="AA27" s="209"/>
+      <c r="AB27" s="209"/>
+      <c r="AC27" s="209"/>
+      <c r="AD27" s="209"/>
+      <c r="AE27" s="210"/>
+      <c r="AF27" s="208"/>
+      <c r="AG27" s="209"/>
+      <c r="AH27" s="209"/>
+      <c r="AI27" s="209"/>
+      <c r="AJ27" s="209"/>
+      <c r="AK27" s="209"/>
+      <c r="AL27" s="210"/>
     </row>
     <row r="28" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="179"/>
-      <c r="B28" s="180"/>
-      <c r="C28" s="162" t="s">
+      <c r="A28" s="192"/>
+      <c r="B28" s="193"/>
+      <c r="C28" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="124"/>
-      <c r="E28" s="124"/>
-      <c r="F28" s="125"/>
-      <c r="G28" s="163"/>
-      <c r="H28" s="164"/>
-      <c r="I28" s="164"/>
-      <c r="J28" s="164"/>
-      <c r="K28" s="164"/>
-      <c r="L28" s="164"/>
-      <c r="M28" s="164"/>
-      <c r="N28" s="164"/>
-      <c r="O28" s="164"/>
-      <c r="P28" s="165"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="176"/>
+      <c r="H28" s="177"/>
+      <c r="I28" s="177"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="177"/>
+      <c r="L28" s="177"/>
+      <c r="M28" s="177"/>
+      <c r="N28" s="177"/>
+      <c r="O28" s="177"/>
+      <c r="P28" s="178"/>
       <c r="R28" s="2"/>
-      <c r="S28" s="179"/>
-      <c r="T28" s="180"/>
-      <c r="U28" s="162" t="s">
+      <c r="S28" s="192"/>
+      <c r="T28" s="193"/>
+      <c r="U28" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="V28" s="124"/>
-      <c r="W28" s="124"/>
-      <c r="X28" s="125"/>
-      <c r="Y28" s="128"/>
-      <c r="Z28" s="129"/>
-      <c r="AA28" s="129"/>
-      <c r="AB28" s="129"/>
-      <c r="AC28" s="129"/>
-      <c r="AD28" s="129"/>
-      <c r="AE28" s="194"/>
-      <c r="AF28" s="128"/>
-      <c r="AG28" s="129"/>
-      <c r="AH28" s="129"/>
-      <c r="AI28" s="129"/>
-      <c r="AJ28" s="129"/>
-      <c r="AK28" s="129"/>
-      <c r="AL28" s="194"/>
+      <c r="V28" s="137"/>
+      <c r="W28" s="137"/>
+      <c r="X28" s="138"/>
+      <c r="Y28" s="141"/>
+      <c r="Z28" s="142"/>
+      <c r="AA28" s="142"/>
+      <c r="AB28" s="142"/>
+      <c r="AC28" s="142"/>
+      <c r="AD28" s="142"/>
+      <c r="AE28" s="207"/>
+      <c r="AF28" s="141"/>
+      <c r="AG28" s="142"/>
+      <c r="AH28" s="142"/>
+      <c r="AI28" s="142"/>
+      <c r="AJ28" s="142"/>
+      <c r="AK28" s="142"/>
+      <c r="AL28" s="207"/>
     </row>
     <row r="29" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="179"/>
-      <c r="B29" s="180"/>
-      <c r="C29" s="162" t="s">
+      <c r="A29" s="192"/>
+      <c r="B29" s="193"/>
+      <c r="C29" s="175" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="124"/>
-      <c r="E29" s="124"/>
-      <c r="F29" s="125"/>
-      <c r="G29" s="163"/>
-      <c r="H29" s="164"/>
-      <c r="I29" s="164"/>
-      <c r="J29" s="164"/>
-      <c r="K29" s="164"/>
-      <c r="L29" s="164"/>
-      <c r="M29" s="164"/>
-      <c r="N29" s="164"/>
-      <c r="O29" s="164"/>
-      <c r="P29" s="165"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="176"/>
+      <c r="H29" s="177"/>
+      <c r="I29" s="177"/>
+      <c r="J29" s="177"/>
+      <c r="K29" s="177"/>
+      <c r="L29" s="177"/>
+      <c r="M29" s="177"/>
+      <c r="N29" s="177"/>
+      <c r="O29" s="177"/>
+      <c r="P29" s="178"/>
       <c r="R29" s="2"/>
-      <c r="S29" s="179"/>
-      <c r="T29" s="180"/>
-      <c r="U29" s="162" t="s">
+      <c r="S29" s="192"/>
+      <c r="T29" s="193"/>
+      <c r="U29" s="175" t="s">
         <v>38</v>
       </c>
-      <c r="V29" s="124"/>
-      <c r="W29" s="124"/>
-      <c r="X29" s="125"/>
-      <c r="Y29" s="128"/>
-      <c r="Z29" s="129"/>
-      <c r="AA29" s="129"/>
-      <c r="AB29" s="129"/>
-      <c r="AC29" s="129"/>
-      <c r="AD29" s="129"/>
-      <c r="AE29" s="194"/>
-      <c r="AF29" s="128"/>
-      <c r="AG29" s="129"/>
-      <c r="AH29" s="129"/>
-      <c r="AI29" s="129"/>
-      <c r="AJ29" s="129"/>
-      <c r="AK29" s="129"/>
-      <c r="AL29" s="194"/>
+      <c r="V29" s="137"/>
+      <c r="W29" s="137"/>
+      <c r="X29" s="138"/>
+      <c r="Y29" s="141"/>
+      <c r="Z29" s="142"/>
+      <c r="AA29" s="142"/>
+      <c r="AB29" s="142"/>
+      <c r="AC29" s="142"/>
+      <c r="AD29" s="142"/>
+      <c r="AE29" s="207"/>
+      <c r="AF29" s="141"/>
+      <c r="AG29" s="142"/>
+      <c r="AH29" s="142"/>
+      <c r="AI29" s="142"/>
+      <c r="AJ29" s="142"/>
+      <c r="AK29" s="142"/>
+      <c r="AL29" s="207"/>
     </row>
     <row r="30" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="179"/>
-      <c r="B30" s="180"/>
-      <c r="C30" s="162" t="s">
+      <c r="A30" s="192"/>
+      <c r="B30" s="193"/>
+      <c r="C30" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="124"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="167"/>
-      <c r="H30" s="168"/>
-      <c r="I30" s="168"/>
-      <c r="J30" s="168"/>
-      <c r="K30" s="168"/>
-      <c r="L30" s="168"/>
-      <c r="M30" s="168"/>
-      <c r="N30" s="168"/>
-      <c r="O30" s="168"/>
-      <c r="P30" s="169"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="180"/>
+      <c r="H30" s="181"/>
+      <c r="I30" s="181"/>
+      <c r="J30" s="181"/>
+      <c r="K30" s="181"/>
+      <c r="L30" s="181"/>
+      <c r="M30" s="181"/>
+      <c r="N30" s="181"/>
+      <c r="O30" s="181"/>
+      <c r="P30" s="182"/>
       <c r="R30" s="2"/>
-      <c r="S30" s="179"/>
-      <c r="T30" s="180"/>
-      <c r="U30" s="162" t="s">
+      <c r="S30" s="192"/>
+      <c r="T30" s="193"/>
+      <c r="U30" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="V30" s="124"/>
-      <c r="W30" s="124"/>
-      <c r="X30" s="125"/>
-      <c r="Y30" s="195"/>
-      <c r="Z30" s="196"/>
-      <c r="AA30" s="196"/>
-      <c r="AB30" s="196"/>
-      <c r="AC30" s="196"/>
-      <c r="AD30" s="196"/>
-      <c r="AE30" s="197"/>
-      <c r="AF30" s="195"/>
-      <c r="AG30" s="196"/>
-      <c r="AH30" s="196"/>
-      <c r="AI30" s="196"/>
-      <c r="AJ30" s="196"/>
-      <c r="AK30" s="196"/>
-      <c r="AL30" s="197"/>
+      <c r="V30" s="137"/>
+      <c r="W30" s="137"/>
+      <c r="X30" s="138"/>
+      <c r="Y30" s="208"/>
+      <c r="Z30" s="209"/>
+      <c r="AA30" s="209"/>
+      <c r="AB30" s="209"/>
+      <c r="AC30" s="209"/>
+      <c r="AD30" s="209"/>
+      <c r="AE30" s="210"/>
+      <c r="AF30" s="208"/>
+      <c r="AG30" s="209"/>
+      <c r="AH30" s="209"/>
+      <c r="AI30" s="209"/>
+      <c r="AJ30" s="209"/>
+      <c r="AK30" s="209"/>
+      <c r="AL30" s="210"/>
       <c r="BC30" s="2"/>
     </row>
     <row r="31" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="181"/>
-      <c r="B31" s="182"/>
-      <c r="C31" s="172" t="s">
+      <c r="A31" s="194"/>
+      <c r="B31" s="195"/>
+      <c r="C31" s="185" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="115"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="173"/>
-      <c r="H31" s="174"/>
-      <c r="I31" s="174"/>
-      <c r="J31" s="174"/>
-      <c r="K31" s="174"/>
-      <c r="L31" s="174"/>
-      <c r="M31" s="174"/>
-      <c r="N31" s="174"/>
-      <c r="O31" s="174"/>
-      <c r="P31" s="175"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="186"/>
+      <c r="H31" s="187"/>
+      <c r="I31" s="187"/>
+      <c r="J31" s="187"/>
+      <c r="K31" s="187"/>
+      <c r="L31" s="187"/>
+      <c r="M31" s="187"/>
+      <c r="N31" s="187"/>
+      <c r="O31" s="187"/>
+      <c r="P31" s="188"/>
       <c r="R31" s="2"/>
-      <c r="S31" s="181"/>
-      <c r="T31" s="182"/>
-      <c r="U31" s="172" t="s">
+      <c r="S31" s="194"/>
+      <c r="T31" s="195"/>
+      <c r="U31" s="185" t="s">
         <v>40</v>
       </c>
-      <c r="V31" s="115"/>
-      <c r="W31" s="115"/>
-      <c r="X31" s="116"/>
-      <c r="Y31" s="198"/>
-      <c r="Z31" s="199"/>
-      <c r="AA31" s="199"/>
-      <c r="AB31" s="199"/>
-      <c r="AC31" s="199"/>
-      <c r="AD31" s="199"/>
-      <c r="AE31" s="200"/>
-      <c r="AF31" s="198"/>
-      <c r="AG31" s="199"/>
-      <c r="AH31" s="199"/>
-      <c r="AI31" s="199"/>
-      <c r="AJ31" s="199"/>
-      <c r="AK31" s="199"/>
-      <c r="AL31" s="200"/>
+      <c r="V31" s="128"/>
+      <c r="W31" s="128"/>
+      <c r="X31" s="129"/>
+      <c r="Y31" s="211"/>
+      <c r="Z31" s="212"/>
+      <c r="AA31" s="212"/>
+      <c r="AB31" s="212"/>
+      <c r="AC31" s="212"/>
+      <c r="AD31" s="212"/>
+      <c r="AE31" s="213"/>
+      <c r="AF31" s="211"/>
+      <c r="AG31" s="212"/>
+      <c r="AH31" s="212"/>
+      <c r="AI31" s="212"/>
+      <c r="AJ31" s="212"/>
+      <c r="AK31" s="212"/>
+      <c r="AL31" s="213"/>
       <c r="BC31" s="2"/>
     </row>
     <row r="32" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="208" t="s">
+      <c r="A32" s="221" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="209"/>
-      <c r="C32" s="209"/>
-      <c r="D32" s="210"/>
-      <c r="E32" s="208" t="s">
+      <c r="B32" s="222"/>
+      <c r="C32" s="222"/>
+      <c r="D32" s="223"/>
+      <c r="E32" s="221" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="209"/>
-      <c r="G32" s="211"/>
-      <c r="H32" s="212" t="s">
+      <c r="F32" s="222"/>
+      <c r="G32" s="224"/>
+      <c r="H32" s="225" t="s">
         <v>46</v>
       </c>
-      <c r="I32" s="213"/>
-      <c r="J32" s="214"/>
-      <c r="K32" s="208" t="s">
+      <c r="I32" s="226"/>
+      <c r="J32" s="227"/>
+      <c r="K32" s="221" t="s">
         <v>47</v>
       </c>
-      <c r="L32" s="209"/>
-      <c r="M32" s="211"/>
-      <c r="N32" s="215" t="s">
+      <c r="L32" s="222"/>
+      <c r="M32" s="224"/>
+      <c r="N32" s="228" t="s">
         <v>48</v>
       </c>
-      <c r="O32" s="216"/>
-      <c r="P32" s="217"/>
+      <c r="O32" s="229"/>
+      <c r="P32" s="230"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
-      <c r="S32" s="208" t="s">
+      <c r="S32" s="221" t="s">
         <v>44</v>
       </c>
-      <c r="T32" s="209"/>
-      <c r="U32" s="209"/>
-      <c r="V32" s="210"/>
-      <c r="W32" s="208" t="s">
+      <c r="T32" s="222"/>
+      <c r="U32" s="222"/>
+      <c r="V32" s="223"/>
+      <c r="W32" s="221" t="s">
         <v>45</v>
       </c>
-      <c r="X32" s="209"/>
-      <c r="Y32" s="211"/>
-      <c r="Z32" s="212" t="s">
+      <c r="X32" s="222"/>
+      <c r="Y32" s="224"/>
+      <c r="Z32" s="225" t="s">
         <v>49</v>
       </c>
-      <c r="AA32" s="213"/>
-      <c r="AB32" s="214"/>
-      <c r="AC32" s="208" t="s">
+      <c r="AA32" s="226"/>
+      <c r="AB32" s="227"/>
+      <c r="AC32" s="221" t="s">
         <v>47</v>
       </c>
-      <c r="AD32" s="209"/>
-      <c r="AE32" s="211"/>
-      <c r="AF32" s="215" t="s">
+      <c r="AD32" s="222"/>
+      <c r="AE32" s="224"/>
+      <c r="AF32" s="228" t="s">
         <v>48</v>
       </c>
-      <c r="AG32" s="216"/>
-      <c r="AH32" s="217"/>
-      <c r="AI32" s="230" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ32" s="231"/>
-      <c r="AK32" s="231"/>
-      <c r="AL32" s="232"/>
+      <c r="AG32" s="229"/>
+      <c r="AH32" s="230"/>
+      <c r="AI32" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ32" s="240"/>
+      <c r="AK32" s="240"/>
+      <c r="AL32" s="241"/>
       <c r="BC32" s="2"/>
     </row>
     <row r="33" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="144" t="s">
+      <c r="A33" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="115"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="201"/>
-      <c r="E33" s="144" t="s">
+      <c r="B33" s="128"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="214"/>
+      <c r="E33" s="157" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="115"/>
-      <c r="G33" s="116"/>
-      <c r="H33" s="202"/>
-      <c r="I33" s="203"/>
-      <c r="J33" s="204"/>
-      <c r="K33" s="144" t="s">
+      <c r="F33" s="128"/>
+      <c r="G33" s="129"/>
+      <c r="H33" s="215"/>
+      <c r="I33" s="216"/>
+      <c r="J33" s="217"/>
+      <c r="K33" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="L33" s="115"/>
-      <c r="M33" s="116"/>
-      <c r="N33" s="205"/>
-      <c r="O33" s="206"/>
-      <c r="P33" s="207"/>
+      <c r="L33" s="128"/>
+      <c r="M33" s="129"/>
+      <c r="N33" s="218"/>
+      <c r="O33" s="219"/>
+      <c r="P33" s="220"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
-      <c r="S33" s="144" t="s">
+      <c r="S33" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="T33" s="115"/>
-      <c r="U33" s="115"/>
-      <c r="V33" s="201"/>
-      <c r="W33" s="144" t="s">
+      <c r="T33" s="128"/>
+      <c r="U33" s="128"/>
+      <c r="V33" s="214"/>
+      <c r="W33" s="157" t="s">
         <v>51</v>
       </c>
-      <c r="X33" s="115"/>
-      <c r="Y33" s="116"/>
-      <c r="Z33" s="202"/>
-      <c r="AA33" s="203"/>
-      <c r="AB33" s="204"/>
-      <c r="AC33" s="144" t="s">
+      <c r="X33" s="128"/>
+      <c r="Y33" s="129"/>
+      <c r="Z33" s="215"/>
+      <c r="AA33" s="216"/>
+      <c r="AB33" s="217"/>
+      <c r="AC33" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="AD33" s="115"/>
-      <c r="AE33" s="116"/>
-      <c r="AF33" s="218"/>
-      <c r="AG33" s="219"/>
-      <c r="AH33" s="220"/>
-      <c r="AI33" s="221"/>
-      <c r="AJ33" s="222"/>
-      <c r="AK33" s="222"/>
-      <c r="AL33" s="223"/>
+      <c r="AD33" s="128"/>
+      <c r="AE33" s="129"/>
+      <c r="AF33" s="231"/>
+      <c r="AG33" s="232"/>
+      <c r="AH33" s="233"/>
+      <c r="AI33" s="50"/>
+      <c r="AJ33" s="51"/>
+      <c r="AK33" s="51"/>
+      <c r="AL33" s="52"/>
       <c r="BC33" s="2"/>
     </row>
     <row r="34" spans="1:55" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4626,1002 +4651,1124 @@
       <c r="P34" s="7"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
-      <c r="AI34" s="224"/>
-      <c r="AJ34" s="225"/>
-      <c r="AK34" s="225"/>
-      <c r="AL34" s="226"/>
+      <c r="AI34" s="234"/>
+      <c r="AJ34" s="235"/>
+      <c r="AK34" s="235"/>
+      <c r="AL34" s="236"/>
     </row>
     <row r="35" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="104" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="105"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="230"/>
-      <c r="F35" s="231"/>
-      <c r="G35" s="231"/>
-      <c r="H35" s="231"/>
-      <c r="I35" s="231"/>
-      <c r="J35" s="231"/>
-      <c r="K35" s="231"/>
-      <c r="L35" s="231"/>
-      <c r="M35" s="231"/>
-      <c r="N35" s="231"/>
-      <c r="O35" s="231"/>
-      <c r="P35" s="232"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
-      <c r="S35" s="104" t="s">
-        <v>54</v>
-      </c>
-      <c r="T35" s="105"/>
-      <c r="U35" s="105"/>
-      <c r="V35" s="106"/>
-      <c r="W35" s="233"/>
-      <c r="X35" s="233"/>
-      <c r="Y35" s="233"/>
-      <c r="Z35" s="233"/>
-      <c r="AA35" s="233"/>
-      <c r="AB35" s="233"/>
-      <c r="AC35" s="233"/>
-      <c r="AD35" s="233"/>
-      <c r="AE35" s="233"/>
-      <c r="AF35" s="233"/>
-      <c r="AG35" s="233"/>
-      <c r="AH35" s="230"/>
-      <c r="AI35" s="224"/>
-      <c r="AJ35" s="225"/>
-      <c r="AK35" s="225"/>
-      <c r="AL35" s="226"/>
-    </row>
-    <row r="36" spans="1:55" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
+      <c r="S35" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="T35" s="40"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="41"/>
+      <c r="W35" s="42"/>
+      <c r="X35" s="42"/>
+      <c r="Y35" s="42"/>
+      <c r="Z35" s="42"/>
+      <c r="AA35" s="42"/>
+      <c r="AB35" s="42"/>
+      <c r="AC35" s="42"/>
+      <c r="AD35" s="42"/>
+      <c r="AE35" s="42"/>
+      <c r="AF35" s="42"/>
+      <c r="AG35" s="42"/>
+      <c r="AH35" s="43"/>
+      <c r="AI35" s="234"/>
+      <c r="AJ35" s="235"/>
+      <c r="AK35" s="235"/>
+      <c r="AL35" s="236"/>
+    </row>
+    <row r="36" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
-      <c r="AA36" s="2"/>
-      <c r="AB36" s="2"/>
-      <c r="AC36" s="2"/>
-      <c r="AD36" s="2"/>
-      <c r="AE36" s="2"/>
-      <c r="AF36" s="2"/>
-      <c r="AG36" s="2"/>
-      <c r="AH36" s="2"/>
-      <c r="AI36" s="224"/>
-      <c r="AJ36" s="225"/>
-      <c r="AK36" s="225"/>
-      <c r="AL36" s="226"/>
+      <c r="S36" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="T36" s="40"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="41"/>
+      <c r="W36" s="38"/>
+      <c r="X36" s="38"/>
+      <c r="Y36" s="38"/>
+      <c r="Z36" s="38"/>
+      <c r="AA36" s="38"/>
+      <c r="AB36" s="38"/>
+      <c r="AC36" s="42"/>
+      <c r="AD36" s="42"/>
+      <c r="AE36" s="42"/>
+      <c r="AF36" s="42"/>
+      <c r="AG36" s="42"/>
+      <c r="AH36" s="43"/>
+      <c r="AI36" s="234"/>
+      <c r="AJ36" s="235"/>
+      <c r="AK36" s="235"/>
+      <c r="AL36" s="236"/>
     </row>
     <row r="37" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="234" t="s">
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="T37" s="45"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="46"/>
+      <c r="W37" s="38"/>
+      <c r="X37" s="38"/>
+      <c r="Y37" s="38"/>
+      <c r="Z37" s="38"/>
+      <c r="AA37" s="38"/>
+      <c r="AB37" s="38"/>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="51"/>
+      <c r="AE37" s="51"/>
+      <c r="AF37" s="51"/>
+      <c r="AG37" s="51"/>
+      <c r="AH37" s="52"/>
+      <c r="AI37" s="234"/>
+      <c r="AJ37" s="235"/>
+      <c r="AK37" s="235"/>
+      <c r="AL37" s="236"/>
+    </row>
+    <row r="38" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="47"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="49"/>
+      <c r="W38" s="38"/>
+      <c r="X38" s="38"/>
+      <c r="Y38" s="38"/>
+      <c r="Z38" s="38"/>
+      <c r="AA38" s="38"/>
+      <c r="AB38" s="38"/>
+      <c r="AC38" s="47"/>
+      <c r="AD38" s="48"/>
+      <c r="AE38" s="48"/>
+      <c r="AF38" s="48"/>
+      <c r="AG38" s="48"/>
+      <c r="AH38" s="49"/>
+      <c r="AI38" s="234"/>
+      <c r="AJ38" s="235"/>
+      <c r="AK38" s="235"/>
+      <c r="AL38" s="236"/>
+    </row>
+    <row r="39" spans="1:55" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="2"/>
+      <c r="AG39" s="2"/>
+      <c r="AH39" s="2"/>
+      <c r="AI39" s="234"/>
+      <c r="AJ39" s="235"/>
+      <c r="AK39" s="235"/>
+      <c r="AL39" s="236"/>
+    </row>
+    <row r="40" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="242" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="243"/>
+      <c r="C40" s="243"/>
+      <c r="D40" s="244"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="240"/>
+      <c r="G40" s="240"/>
+      <c r="H40" s="240"/>
+      <c r="I40" s="240"/>
+      <c r="J40" s="240"/>
+      <c r="K40" s="240"/>
+      <c r="L40" s="240"/>
+      <c r="M40" s="240"/>
+      <c r="N40" s="241"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="240"/>
+      <c r="Q40" s="240"/>
+      <c r="R40" s="240"/>
+      <c r="S40" s="240"/>
+      <c r="T40" s="240"/>
+      <c r="U40" s="240"/>
+      <c r="V40" s="240"/>
+      <c r="W40" s="240"/>
+      <c r="X40" s="241"/>
+      <c r="Y40" s="43"/>
+      <c r="Z40" s="240"/>
+      <c r="AA40" s="240"/>
+      <c r="AB40" s="240"/>
+      <c r="AC40" s="240"/>
+      <c r="AD40" s="240"/>
+      <c r="AE40" s="240"/>
+      <c r="AF40" s="240"/>
+      <c r="AG40" s="240"/>
+      <c r="AH40" s="240"/>
+      <c r="AI40" s="237"/>
+      <c r="AJ40" s="238"/>
+      <c r="AK40" s="238"/>
+      <c r="AL40" s="239"/>
+    </row>
+    <row r="41" spans="1:55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="190" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="235"/>
-      <c r="C37" s="235"/>
-      <c r="D37" s="236"/>
-      <c r="E37" s="230"/>
-      <c r="F37" s="231"/>
-      <c r="G37" s="231"/>
-      <c r="H37" s="231"/>
-      <c r="I37" s="231"/>
-      <c r="J37" s="231"/>
-      <c r="K37" s="231"/>
-      <c r="L37" s="231"/>
-      <c r="M37" s="231"/>
-      <c r="N37" s="232"/>
-      <c r="O37" s="230"/>
-      <c r="P37" s="231"/>
-      <c r="Q37" s="231"/>
-      <c r="R37" s="231"/>
-      <c r="S37" s="231"/>
-      <c r="T37" s="231"/>
-      <c r="U37" s="231"/>
-      <c r="V37" s="231"/>
-      <c r="W37" s="231"/>
-      <c r="X37" s="232"/>
-      <c r="Y37" s="230"/>
-      <c r="Z37" s="231"/>
-      <c r="AA37" s="231"/>
-      <c r="AB37" s="231"/>
-      <c r="AC37" s="231"/>
-      <c r="AD37" s="231"/>
-      <c r="AE37" s="231"/>
-      <c r="AF37" s="231"/>
-      <c r="AG37" s="231"/>
-      <c r="AH37" s="231"/>
-      <c r="AI37" s="227"/>
-      <c r="AJ37" s="228"/>
-      <c r="AK37" s="228"/>
-      <c r="AL37" s="229"/>
-    </row>
-    <row r="38" spans="1:55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="177" t="s">
+      <c r="B41" s="257"/>
+      <c r="C41" s="257"/>
+      <c r="D41" s="191"/>
+      <c r="E41" s="260"/>
+      <c r="F41" s="261"/>
+      <c r="G41" s="261"/>
+      <c r="H41" s="261"/>
+      <c r="I41" s="261"/>
+      <c r="J41" s="261"/>
+      <c r="K41" s="261"/>
+      <c r="L41" s="261"/>
+      <c r="M41" s="261"/>
+      <c r="N41" s="261"/>
+      <c r="O41" s="261"/>
+      <c r="P41" s="261"/>
+      <c r="Q41" s="261"/>
+      <c r="R41" s="261"/>
+      <c r="S41" s="261"/>
+      <c r="T41" s="261"/>
+      <c r="U41" s="261"/>
+      <c r="V41" s="261"/>
+      <c r="W41" s="261"/>
+      <c r="X41" s="261"/>
+      <c r="Y41" s="261"/>
+      <c r="Z41" s="261"/>
+      <c r="AA41" s="261"/>
+      <c r="AB41" s="261"/>
+      <c r="AC41" s="261"/>
+      <c r="AD41" s="261"/>
+      <c r="AE41" s="261"/>
+      <c r="AF41" s="261"/>
+      <c r="AG41" s="261"/>
+      <c r="AH41" s="261"/>
+      <c r="AI41" s="261"/>
+      <c r="AJ41" s="261"/>
+      <c r="AK41" s="261"/>
+      <c r="AL41" s="262"/>
+    </row>
+    <row r="42" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="192"/>
+      <c r="B42" s="258"/>
+      <c r="C42" s="258"/>
+      <c r="D42" s="193"/>
+      <c r="E42" s="263"/>
+      <c r="F42" s="264"/>
+      <c r="G42" s="264"/>
+      <c r="H42" s="264"/>
+      <c r="I42" s="264"/>
+      <c r="J42" s="264"/>
+      <c r="K42" s="264"/>
+      <c r="L42" s="264"/>
+      <c r="M42" s="264"/>
+      <c r="N42" s="264"/>
+      <c r="O42" s="264"/>
+      <c r="P42" s="264"/>
+      <c r="Q42" s="264"/>
+      <c r="R42" s="264"/>
+      <c r="S42" s="264"/>
+      <c r="T42" s="264"/>
+      <c r="U42" s="264"/>
+      <c r="V42" s="264"/>
+      <c r="W42" s="264"/>
+      <c r="X42" s="264"/>
+      <c r="Y42" s="264"/>
+      <c r="Z42" s="264"/>
+      <c r="AA42" s="264"/>
+      <c r="AB42" s="264"/>
+      <c r="AC42" s="264"/>
+      <c r="AD42" s="264"/>
+      <c r="AE42" s="264"/>
+      <c r="AF42" s="264"/>
+      <c r="AG42" s="264"/>
+      <c r="AH42" s="264"/>
+      <c r="AI42" s="264"/>
+      <c r="AJ42" s="264"/>
+      <c r="AK42" s="264"/>
+      <c r="AL42" s="265"/>
+    </row>
+    <row r="43" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="192"/>
+      <c r="B43" s="258"/>
+      <c r="C43" s="258"/>
+      <c r="D43" s="193"/>
+      <c r="E43" s="263"/>
+      <c r="F43" s="264"/>
+      <c r="G43" s="264"/>
+      <c r="H43" s="264"/>
+      <c r="I43" s="264"/>
+      <c r="J43" s="264"/>
+      <c r="K43" s="264"/>
+      <c r="L43" s="264"/>
+      <c r="M43" s="264"/>
+      <c r="N43" s="264"/>
+      <c r="O43" s="264"/>
+      <c r="P43" s="264"/>
+      <c r="Q43" s="264"/>
+      <c r="R43" s="264"/>
+      <c r="S43" s="264"/>
+      <c r="T43" s="264"/>
+      <c r="U43" s="264"/>
+      <c r="V43" s="264"/>
+      <c r="W43" s="264"/>
+      <c r="X43" s="264"/>
+      <c r="Y43" s="264"/>
+      <c r="Z43" s="264"/>
+      <c r="AA43" s="264"/>
+      <c r="AB43" s="264"/>
+      <c r="AC43" s="264"/>
+      <c r="AD43" s="264"/>
+      <c r="AE43" s="264"/>
+      <c r="AF43" s="264"/>
+      <c r="AG43" s="264"/>
+      <c r="AH43" s="264"/>
+      <c r="AI43" s="264"/>
+      <c r="AJ43" s="264"/>
+      <c r="AK43" s="264"/>
+      <c r="AL43" s="265"/>
+    </row>
+    <row r="44" spans="1:55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="192"/>
+      <c r="B44" s="258"/>
+      <c r="C44" s="258"/>
+      <c r="D44" s="193"/>
+      <c r="E44" s="263"/>
+      <c r="F44" s="264"/>
+      <c r="G44" s="264"/>
+      <c r="H44" s="264"/>
+      <c r="I44" s="264"/>
+      <c r="J44" s="264"/>
+      <c r="K44" s="264"/>
+      <c r="L44" s="264"/>
+      <c r="M44" s="264"/>
+      <c r="N44" s="264"/>
+      <c r="O44" s="264"/>
+      <c r="P44" s="264"/>
+      <c r="Q44" s="264"/>
+      <c r="R44" s="264"/>
+      <c r="S44" s="264"/>
+      <c r="T44" s="264"/>
+      <c r="U44" s="264"/>
+      <c r="V44" s="264"/>
+      <c r="W44" s="264"/>
+      <c r="X44" s="264"/>
+      <c r="Y44" s="264"/>
+      <c r="Z44" s="264"/>
+      <c r="AA44" s="264"/>
+      <c r="AB44" s="264"/>
+      <c r="AC44" s="264"/>
+      <c r="AD44" s="264"/>
+      <c r="AE44" s="264"/>
+      <c r="AF44" s="264"/>
+      <c r="AG44" s="264"/>
+      <c r="AH44" s="264"/>
+      <c r="AI44" s="264"/>
+      <c r="AJ44" s="264"/>
+      <c r="AK44" s="264"/>
+      <c r="AL44" s="265"/>
+    </row>
+    <row r="45" spans="1:55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="192"/>
+      <c r="B45" s="258"/>
+      <c r="C45" s="258"/>
+      <c r="D45" s="193"/>
+      <c r="E45" s="263"/>
+      <c r="F45" s="264"/>
+      <c r="G45" s="264"/>
+      <c r="H45" s="264"/>
+      <c r="I45" s="264"/>
+      <c r="J45" s="264"/>
+      <c r="K45" s="264"/>
+      <c r="L45" s="264"/>
+      <c r="M45" s="264"/>
+      <c r="N45" s="264"/>
+      <c r="O45" s="264"/>
+      <c r="P45" s="264"/>
+      <c r="Q45" s="264"/>
+      <c r="R45" s="264"/>
+      <c r="S45" s="264"/>
+      <c r="T45" s="264"/>
+      <c r="U45" s="264"/>
+      <c r="V45" s="264"/>
+      <c r="W45" s="264"/>
+      <c r="X45" s="264"/>
+      <c r="Y45" s="264"/>
+      <c r="Z45" s="264"/>
+      <c r="AA45" s="264"/>
+      <c r="AB45" s="264"/>
+      <c r="AC45" s="264"/>
+      <c r="AD45" s="264"/>
+      <c r="AE45" s="264"/>
+      <c r="AF45" s="264"/>
+      <c r="AG45" s="264"/>
+      <c r="AH45" s="264"/>
+      <c r="AI45" s="264"/>
+      <c r="AJ45" s="264"/>
+      <c r="AK45" s="264"/>
+      <c r="AL45" s="265"/>
+    </row>
+    <row r="46" spans="1:55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="192"/>
+      <c r="B46" s="258"/>
+      <c r="C46" s="258"/>
+      <c r="D46" s="193"/>
+      <c r="E46" s="263"/>
+      <c r="F46" s="264"/>
+      <c r="G46" s="264"/>
+      <c r="H46" s="264"/>
+      <c r="I46" s="264"/>
+      <c r="J46" s="264"/>
+      <c r="K46" s="264"/>
+      <c r="L46" s="264"/>
+      <c r="M46" s="264"/>
+      <c r="N46" s="264"/>
+      <c r="O46" s="264"/>
+      <c r="P46" s="264"/>
+      <c r="Q46" s="264"/>
+      <c r="R46" s="264"/>
+      <c r="S46" s="264"/>
+      <c r="T46" s="264"/>
+      <c r="U46" s="264"/>
+      <c r="V46" s="264"/>
+      <c r="W46" s="264"/>
+      <c r="X46" s="264"/>
+      <c r="Y46" s="264"/>
+      <c r="Z46" s="264"/>
+      <c r="AA46" s="264"/>
+      <c r="AB46" s="264"/>
+      <c r="AC46" s="264"/>
+      <c r="AD46" s="264"/>
+      <c r="AE46" s="264"/>
+      <c r="AF46" s="264"/>
+      <c r="AG46" s="264"/>
+      <c r="AH46" s="264"/>
+      <c r="AI46" s="264"/>
+      <c r="AJ46" s="264"/>
+      <c r="AK46" s="264"/>
+      <c r="AL46" s="265"/>
+    </row>
+    <row r="47" spans="1:55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="194"/>
+      <c r="B47" s="259"/>
+      <c r="C47" s="259"/>
+      <c r="D47" s="195"/>
+      <c r="E47" s="266"/>
+      <c r="F47" s="267"/>
+      <c r="G47" s="267"/>
+      <c r="H47" s="267"/>
+      <c r="I47" s="267"/>
+      <c r="J47" s="267"/>
+      <c r="K47" s="267"/>
+      <c r="L47" s="267"/>
+      <c r="M47" s="267"/>
+      <c r="N47" s="267"/>
+      <c r="O47" s="267"/>
+      <c r="P47" s="267"/>
+      <c r="Q47" s="267"/>
+      <c r="R47" s="267"/>
+      <c r="S47" s="267"/>
+      <c r="T47" s="267"/>
+      <c r="U47" s="267"/>
+      <c r="V47" s="267"/>
+      <c r="W47" s="267"/>
+      <c r="X47" s="267"/>
+      <c r="Y47" s="267"/>
+      <c r="Z47" s="267"/>
+      <c r="AA47" s="267"/>
+      <c r="AB47" s="267"/>
+      <c r="AC47" s="267"/>
+      <c r="AD47" s="267"/>
+      <c r="AE47" s="267"/>
+      <c r="AF47" s="267"/>
+      <c r="AG47" s="267"/>
+      <c r="AH47" s="267"/>
+      <c r="AI47" s="267"/>
+      <c r="AJ47" s="267"/>
+      <c r="AK47" s="267"/>
+      <c r="AL47" s="268"/>
+    </row>
+    <row r="48" spans="1:55" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C48" s="2"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="2"/>
+      <c r="AD48" s="2"/>
+      <c r="AE48" s="2"/>
+      <c r="AF48" s="2"/>
+      <c r="AG48" s="2"/>
+      <c r="AH48" s="2"/>
+    </row>
+    <row r="49" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="250"/>
-      <c r="C38" s="250"/>
-      <c r="D38" s="178"/>
-      <c r="E38" s="253"/>
-      <c r="F38" s="254"/>
-      <c r="G38" s="254"/>
-      <c r="H38" s="254"/>
-      <c r="I38" s="254"/>
-      <c r="J38" s="254"/>
-      <c r="K38" s="254"/>
-      <c r="L38" s="254"/>
-      <c r="M38" s="254"/>
-      <c r="N38" s="254"/>
-      <c r="O38" s="254"/>
-      <c r="P38" s="254"/>
-      <c r="Q38" s="254"/>
-      <c r="R38" s="254"/>
-      <c r="S38" s="254"/>
-      <c r="T38" s="254"/>
-      <c r="U38" s="254"/>
-      <c r="V38" s="254"/>
-      <c r="W38" s="254"/>
-      <c r="X38" s="254"/>
-      <c r="Y38" s="254"/>
-      <c r="Z38" s="254"/>
-      <c r="AA38" s="254"/>
-      <c r="AB38" s="254"/>
-      <c r="AC38" s="254"/>
-      <c r="AD38" s="254"/>
-      <c r="AE38" s="254"/>
-      <c r="AF38" s="254"/>
-      <c r="AG38" s="254"/>
-      <c r="AH38" s="254"/>
-      <c r="AI38" s="254"/>
-      <c r="AJ38" s="254"/>
-      <c r="AK38" s="254"/>
-      <c r="AL38" s="255"/>
-    </row>
-    <row r="39" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="179"/>
-      <c r="B39" s="251"/>
-      <c r="C39" s="251"/>
-      <c r="D39" s="180"/>
-      <c r="E39" s="256"/>
-      <c r="F39" s="257"/>
-      <c r="G39" s="257"/>
-      <c r="H39" s="257"/>
-      <c r="I39" s="257"/>
-      <c r="J39" s="257"/>
-      <c r="K39" s="257"/>
-      <c r="L39" s="257"/>
-      <c r="M39" s="257"/>
-      <c r="N39" s="257"/>
-      <c r="O39" s="257"/>
-      <c r="P39" s="257"/>
-      <c r="Q39" s="257"/>
-      <c r="R39" s="257"/>
-      <c r="S39" s="257"/>
-      <c r="T39" s="257"/>
-      <c r="U39" s="257"/>
-      <c r="V39" s="257"/>
-      <c r="W39" s="257"/>
-      <c r="X39" s="257"/>
-      <c r="Y39" s="257"/>
-      <c r="Z39" s="257"/>
-      <c r="AA39" s="257"/>
-      <c r="AB39" s="257"/>
-      <c r="AC39" s="257"/>
-      <c r="AD39" s="257"/>
-      <c r="AE39" s="257"/>
-      <c r="AF39" s="257"/>
-      <c r="AG39" s="257"/>
-      <c r="AH39" s="257"/>
-      <c r="AI39" s="257"/>
-      <c r="AJ39" s="257"/>
-      <c r="AK39" s="257"/>
-      <c r="AL39" s="258"/>
-    </row>
-    <row r="40" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="179"/>
-      <c r="B40" s="251"/>
-      <c r="C40" s="251"/>
-      <c r="D40" s="180"/>
-      <c r="E40" s="256"/>
-      <c r="F40" s="257"/>
-      <c r="G40" s="257"/>
-      <c r="H40" s="257"/>
-      <c r="I40" s="257"/>
-      <c r="J40" s="257"/>
-      <c r="K40" s="257"/>
-      <c r="L40" s="257"/>
-      <c r="M40" s="257"/>
-      <c r="N40" s="257"/>
-      <c r="O40" s="257"/>
-      <c r="P40" s="257"/>
-      <c r="Q40" s="257"/>
-      <c r="R40" s="257"/>
-      <c r="S40" s="257"/>
-      <c r="T40" s="257"/>
-      <c r="U40" s="257"/>
-      <c r="V40" s="257"/>
-      <c r="W40" s="257"/>
-      <c r="X40" s="257"/>
-      <c r="Y40" s="257"/>
-      <c r="Z40" s="257"/>
-      <c r="AA40" s="257"/>
-      <c r="AB40" s="257"/>
-      <c r="AC40" s="257"/>
-      <c r="AD40" s="257"/>
-      <c r="AE40" s="257"/>
-      <c r="AF40" s="257"/>
-      <c r="AG40" s="257"/>
-      <c r="AH40" s="257"/>
-      <c r="AI40" s="257"/>
-      <c r="AJ40" s="257"/>
-      <c r="AK40" s="257"/>
-      <c r="AL40" s="258"/>
-    </row>
-    <row r="41" spans="1:55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="179"/>
-      <c r="B41" s="251"/>
-      <c r="C41" s="251"/>
-      <c r="D41" s="180"/>
-      <c r="E41" s="256"/>
-      <c r="F41" s="257"/>
-      <c r="G41" s="257"/>
-      <c r="H41" s="257"/>
-      <c r="I41" s="257"/>
-      <c r="J41" s="257"/>
-      <c r="K41" s="257"/>
-      <c r="L41" s="257"/>
-      <c r="M41" s="257"/>
-      <c r="N41" s="257"/>
-      <c r="O41" s="257"/>
-      <c r="P41" s="257"/>
-      <c r="Q41" s="257"/>
-      <c r="R41" s="257"/>
-      <c r="S41" s="257"/>
-      <c r="T41" s="257"/>
-      <c r="U41" s="257"/>
-      <c r="V41" s="257"/>
-      <c r="W41" s="257"/>
-      <c r="X41" s="257"/>
-      <c r="Y41" s="257"/>
-      <c r="Z41" s="257"/>
-      <c r="AA41" s="257"/>
-      <c r="AB41" s="257"/>
-      <c r="AC41" s="257"/>
-      <c r="AD41" s="257"/>
-      <c r="AE41" s="257"/>
-      <c r="AF41" s="257"/>
-      <c r="AG41" s="257"/>
-      <c r="AH41" s="257"/>
-      <c r="AI41" s="257"/>
-      <c r="AJ41" s="257"/>
-      <c r="AK41" s="257"/>
-      <c r="AL41" s="258"/>
-    </row>
-    <row r="42" spans="1:55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="179"/>
-      <c r="B42" s="251"/>
-      <c r="C42" s="251"/>
-      <c r="D42" s="180"/>
-      <c r="E42" s="256"/>
-      <c r="F42" s="257"/>
-      <c r="G42" s="257"/>
-      <c r="H42" s="257"/>
-      <c r="I42" s="257"/>
-      <c r="J42" s="257"/>
-      <c r="K42" s="257"/>
-      <c r="L42" s="257"/>
-      <c r="M42" s="257"/>
-      <c r="N42" s="257"/>
-      <c r="O42" s="257"/>
-      <c r="P42" s="257"/>
-      <c r="Q42" s="257"/>
-      <c r="R42" s="257"/>
-      <c r="S42" s="257"/>
-      <c r="T42" s="257"/>
-      <c r="U42" s="257"/>
-      <c r="V42" s="257"/>
-      <c r="W42" s="257"/>
-      <c r="X42" s="257"/>
-      <c r="Y42" s="257"/>
-      <c r="Z42" s="257"/>
-      <c r="AA42" s="257"/>
-      <c r="AB42" s="257"/>
-      <c r="AC42" s="257"/>
-      <c r="AD42" s="257"/>
-      <c r="AE42" s="257"/>
-      <c r="AF42" s="257"/>
-      <c r="AG42" s="257"/>
-      <c r="AH42" s="257"/>
-      <c r="AI42" s="257"/>
-      <c r="AJ42" s="257"/>
-      <c r="AK42" s="257"/>
-      <c r="AL42" s="258"/>
-    </row>
-    <row r="43" spans="1:55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="179"/>
-      <c r="B43" s="251"/>
-      <c r="C43" s="251"/>
-      <c r="D43" s="180"/>
-      <c r="E43" s="256"/>
-      <c r="F43" s="257"/>
-      <c r="G43" s="257"/>
-      <c r="H43" s="257"/>
-      <c r="I43" s="257"/>
-      <c r="J43" s="257"/>
-      <c r="K43" s="257"/>
-      <c r="L43" s="257"/>
-      <c r="M43" s="257"/>
-      <c r="N43" s="257"/>
-      <c r="O43" s="257"/>
-      <c r="P43" s="257"/>
-      <c r="Q43" s="257"/>
-      <c r="R43" s="257"/>
-      <c r="S43" s="257"/>
-      <c r="T43" s="257"/>
-      <c r="U43" s="257"/>
-      <c r="V43" s="257"/>
-      <c r="W43" s="257"/>
-      <c r="X43" s="257"/>
-      <c r="Y43" s="257"/>
-      <c r="Z43" s="257"/>
-      <c r="AA43" s="257"/>
-      <c r="AB43" s="257"/>
-      <c r="AC43" s="257"/>
-      <c r="AD43" s="257"/>
-      <c r="AE43" s="257"/>
-      <c r="AF43" s="257"/>
-      <c r="AG43" s="257"/>
-      <c r="AH43" s="257"/>
-      <c r="AI43" s="257"/>
-      <c r="AJ43" s="257"/>
-      <c r="AK43" s="257"/>
-      <c r="AL43" s="258"/>
-    </row>
-    <row r="44" spans="1:55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="181"/>
-      <c r="B44" s="252"/>
-      <c r="C44" s="252"/>
-      <c r="D44" s="182"/>
-      <c r="E44" s="259"/>
-      <c r="F44" s="260"/>
-      <c r="G44" s="260"/>
-      <c r="H44" s="260"/>
-      <c r="I44" s="260"/>
-      <c r="J44" s="260"/>
-      <c r="K44" s="260"/>
-      <c r="L44" s="260"/>
-      <c r="M44" s="260"/>
-      <c r="N44" s="260"/>
-      <c r="O44" s="260"/>
-      <c r="P44" s="260"/>
-      <c r="Q44" s="260"/>
-      <c r="R44" s="260"/>
-      <c r="S44" s="260"/>
-      <c r="T44" s="260"/>
-      <c r="U44" s="260"/>
-      <c r="V44" s="260"/>
-      <c r="W44" s="260"/>
-      <c r="X44" s="260"/>
-      <c r="Y44" s="260"/>
-      <c r="Z44" s="260"/>
-      <c r="AA44" s="260"/>
-      <c r="AB44" s="260"/>
-      <c r="AC44" s="260"/>
-      <c r="AD44" s="260"/>
-      <c r="AE44" s="260"/>
-      <c r="AF44" s="260"/>
-      <c r="AG44" s="260"/>
-      <c r="AH44" s="260"/>
-      <c r="AI44" s="260"/>
-      <c r="AJ44" s="260"/>
-      <c r="AK44" s="260"/>
-      <c r="AL44" s="261"/>
-    </row>
-    <row r="45" spans="1:55" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C45" s="2"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
-      <c r="Y45" s="2"/>
-      <c r="Z45" s="2"/>
-      <c r="AA45" s="2"/>
-      <c r="AB45" s="2"/>
-      <c r="AC45" s="2"/>
-      <c r="AD45" s="2"/>
-      <c r="AE45" s="2"/>
-      <c r="AF45" s="2"/>
-      <c r="AG45" s="2"/>
-      <c r="AH45" s="2"/>
-    </row>
-    <row r="46" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="104" t="s">
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="269"/>
+      <c r="F49" s="270"/>
+      <c r="G49" s="270"/>
+      <c r="H49" s="271"/>
+      <c r="J49" s="272" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="105"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="106"/>
-      <c r="E46" s="262"/>
-      <c r="F46" s="263"/>
-      <c r="G46" s="263"/>
-      <c r="H46" s="264"/>
-      <c r="J46" s="265" t="s">
+      <c r="K49" s="273"/>
+      <c r="L49" s="273"/>
+      <c r="M49" s="274"/>
+      <c r="N49" s="269"/>
+      <c r="O49" s="270"/>
+      <c r="P49" s="270"/>
+      <c r="Q49" s="271"/>
+      <c r="S49" s="272" t="s">
         <v>58</v>
       </c>
-      <c r="K46" s="266"/>
-      <c r="L46" s="266"/>
-      <c r="M46" s="267"/>
-      <c r="N46" s="262"/>
-      <c r="O46" s="263"/>
-      <c r="P46" s="263"/>
-      <c r="Q46" s="264"/>
-      <c r="S46" s="265" t="s">
+      <c r="T49" s="273"/>
+      <c r="U49" s="273"/>
+      <c r="V49" s="274"/>
+      <c r="W49" s="269"/>
+      <c r="X49" s="270"/>
+      <c r="Y49" s="270"/>
+      <c r="Z49" s="271"/>
+      <c r="AA49" s="269"/>
+      <c r="AB49" s="270"/>
+      <c r="AC49" s="270"/>
+      <c r="AD49" s="271"/>
+      <c r="AE49" s="269"/>
+      <c r="AF49" s="270"/>
+      <c r="AG49" s="270"/>
+      <c r="AH49" s="271"/>
+      <c r="AI49" s="43"/>
+      <c r="AJ49" s="240"/>
+      <c r="AK49" s="240"/>
+      <c r="AL49" s="241"/>
+    </row>
+    <row r="50" spans="1:38" ht="5.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C50" s="2"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="2"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="10"/>
+      <c r="AA50" s="10"/>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="10"/>
+      <c r="AD50" s="10"/>
+      <c r="AE50" s="10"/>
+      <c r="AF50" s="10"/>
+      <c r="AG50" s="10"/>
+      <c r="AH50" s="10"/>
+    </row>
+    <row r="51" spans="1:38" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q51" s="13"/>
+      <c r="S51" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="T46" s="266"/>
-      <c r="U46" s="266"/>
-      <c r="V46" s="267"/>
-      <c r="W46" s="262"/>
-      <c r="X46" s="263"/>
-      <c r="Y46" s="263"/>
-      <c r="Z46" s="264"/>
-      <c r="AA46" s="262"/>
-      <c r="AB46" s="263"/>
-      <c r="AC46" s="263"/>
-      <c r="AD46" s="264"/>
-      <c r="AE46" s="262"/>
-      <c r="AF46" s="263"/>
-      <c r="AG46" s="263"/>
-      <c r="AH46" s="264"/>
-      <c r="AI46" s="230"/>
-      <c r="AJ46" s="231"/>
-      <c r="AK46" s="231"/>
-      <c r="AL46" s="232"/>
-    </row>
-    <row r="47" spans="1:55" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C47" s="2"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="2"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="10"/>
-      <c r="W47" s="10"/>
-      <c r="X47" s="10"/>
-      <c r="Y47" s="10"/>
-      <c r="Z47" s="10"/>
-      <c r="AA47" s="10"/>
-      <c r="AB47" s="10"/>
-      <c r="AC47" s="10"/>
-      <c r="AD47" s="10"/>
-      <c r="AE47" s="10"/>
-      <c r="AF47" s="10"/>
-      <c r="AG47" s="10"/>
-      <c r="AH47" s="10"/>
-    </row>
-    <row r="48" spans="1:55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Q48" s="13"/>
-      <c r="S48" s="95" t="s">
+      <c r="T51" s="99"/>
+      <c r="U51" s="99"/>
+      <c r="V51" s="100"/>
+      <c r="W51" s="43"/>
+      <c r="X51" s="240"/>
+      <c r="Y51" s="240"/>
+      <c r="Z51" s="241"/>
+      <c r="AA51" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="T48" s="96"/>
-      <c r="U48" s="96"/>
-      <c r="V48" s="97"/>
-      <c r="W48" s="230"/>
-      <c r="X48" s="231"/>
-      <c r="Y48" s="231"/>
-      <c r="Z48" s="232"/>
-      <c r="AA48" s="95" t="s">
+      <c r="AB51" s="99"/>
+      <c r="AC51" s="99"/>
+      <c r="AD51" s="100"/>
+      <c r="AE51" s="43"/>
+      <c r="AF51" s="240"/>
+      <c r="AG51" s="240"/>
+      <c r="AH51" s="241"/>
+    </row>
+    <row r="52" spans="1:38" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S52" s="235"/>
+      <c r="T52" s="235"/>
+      <c r="U52" s="235"/>
+      <c r="V52" s="235"/>
+      <c r="W52" s="235"/>
+      <c r="X52" s="235"/>
+      <c r="Y52" s="235"/>
+      <c r="Z52" s="235"/>
+      <c r="AA52" s="235"/>
+      <c r="AB52" s="235"/>
+      <c r="AC52" s="235"/>
+      <c r="AD52" s="235"/>
+      <c r="AE52" s="235"/>
+      <c r="AF52" s="235"/>
+      <c r="AG52" s="235"/>
+      <c r="AH52" s="235"/>
+      <c r="AI52" s="235"/>
+      <c r="AJ52" s="235"/>
+      <c r="AK52" s="235"/>
+      <c r="AL52" s="235"/>
+    </row>
+    <row r="53" spans="1:38" ht="12" x14ac:dyDescent="0.15">
+      <c r="A53" s="245" t="s">
         <v>61</v>
       </c>
-      <c r="AB48" s="96"/>
-      <c r="AC48" s="96"/>
-      <c r="AD48" s="97"/>
-      <c r="AE48" s="230"/>
-      <c r="AF48" s="231"/>
-      <c r="AG48" s="231"/>
-      <c r="AH48" s="232"/>
-    </row>
-    <row r="49" spans="1:38" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S49" s="225"/>
-      <c r="T49" s="225"/>
-      <c r="U49" s="225"/>
-      <c r="V49" s="225"/>
-      <c r="W49" s="225"/>
-      <c r="X49" s="225"/>
-      <c r="Y49" s="225"/>
-      <c r="Z49" s="225"/>
-      <c r="AA49" s="225"/>
-      <c r="AB49" s="225"/>
-      <c r="AC49" s="225"/>
-      <c r="AD49" s="225"/>
-      <c r="AE49" s="225"/>
-      <c r="AF49" s="225"/>
-      <c r="AG49" s="225"/>
-      <c r="AH49" s="225"/>
-      <c r="AI49" s="225"/>
-      <c r="AJ49" s="225"/>
-      <c r="AK49" s="225"/>
-      <c r="AL49" s="225"/>
-    </row>
-    <row r="50" spans="1:38" ht="12" x14ac:dyDescent="0.15">
-      <c r="A50" s="237" t="s">
+      <c r="B53" s="46"/>
+      <c r="C53" s="248"/>
+      <c r="D53" s="249"/>
+      <c r="E53" s="249"/>
+      <c r="F53" s="249"/>
+      <c r="G53" s="249"/>
+      <c r="H53" s="249"/>
+      <c r="I53" s="249"/>
+      <c r="J53" s="249"/>
+      <c r="K53" s="249"/>
+      <c r="L53" s="249"/>
+      <c r="M53" s="249"/>
+      <c r="N53" s="249"/>
+      <c r="O53" s="249"/>
+      <c r="P53" s="249"/>
+      <c r="Q53" s="250"/>
+      <c r="S53" s="245" t="s">
         <v>62</v>
       </c>
-      <c r="B50" s="238"/>
-      <c r="C50" s="241"/>
-      <c r="D50" s="242"/>
-      <c r="E50" s="242"/>
-      <c r="F50" s="242"/>
-      <c r="G50" s="242"/>
-      <c r="H50" s="242"/>
-      <c r="I50" s="242"/>
-      <c r="J50" s="242"/>
-      <c r="K50" s="242"/>
-      <c r="L50" s="242"/>
-      <c r="M50" s="242"/>
-      <c r="N50" s="242"/>
-      <c r="O50" s="242"/>
-      <c r="P50" s="242"/>
-      <c r="Q50" s="243"/>
-      <c r="S50" s="237" t="s">
-        <v>63</v>
-      </c>
-      <c r="T50" s="238"/>
-      <c r="U50" s="241"/>
-      <c r="V50" s="242"/>
-      <c r="W50" s="242"/>
-      <c r="X50" s="242"/>
-      <c r="Y50" s="242"/>
-      <c r="Z50" s="242"/>
-      <c r="AA50" s="242"/>
-      <c r="AB50" s="242"/>
-      <c r="AC50" s="242"/>
-      <c r="AD50" s="242"/>
-      <c r="AE50" s="242"/>
-      <c r="AF50" s="242"/>
-      <c r="AG50" s="242"/>
-      <c r="AH50" s="242"/>
-      <c r="AI50" s="243"/>
-    </row>
-    <row r="51" spans="1:38" ht="12" x14ac:dyDescent="0.15">
-      <c r="A51" s="239"/>
-      <c r="B51" s="240"/>
-      <c r="C51" s="244"/>
-      <c r="D51" s="245"/>
-      <c r="E51" s="245"/>
-      <c r="F51" s="245"/>
-      <c r="G51" s="245"/>
-      <c r="H51" s="245"/>
-      <c r="I51" s="245"/>
-      <c r="J51" s="245"/>
-      <c r="K51" s="245"/>
-      <c r="L51" s="245"/>
-      <c r="M51" s="245"/>
-      <c r="N51" s="245"/>
-      <c r="O51" s="245"/>
-      <c r="P51" s="245"/>
-      <c r="Q51" s="246"/>
-      <c r="S51" s="239"/>
-      <c r="T51" s="240"/>
-      <c r="U51" s="244"/>
-      <c r="V51" s="245"/>
-      <c r="W51" s="245"/>
-      <c r="X51" s="245"/>
-      <c r="Y51" s="245"/>
-      <c r="Z51" s="245"/>
-      <c r="AA51" s="245"/>
-      <c r="AB51" s="245"/>
-      <c r="AC51" s="245"/>
-      <c r="AD51" s="245"/>
-      <c r="AE51" s="245"/>
-      <c r="AF51" s="245"/>
-      <c r="AG51" s="245"/>
-      <c r="AH51" s="245"/>
-      <c r="AI51" s="246"/>
-      <c r="AL51" s="11"/>
-    </row>
-    <row r="52" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="239"/>
-      <c r="B52" s="240"/>
-      <c r="C52" s="244"/>
-      <c r="D52" s="245"/>
-      <c r="E52" s="245"/>
-      <c r="F52" s="245"/>
-      <c r="G52" s="245"/>
-      <c r="H52" s="245"/>
-      <c r="I52" s="245"/>
-      <c r="J52" s="245"/>
-      <c r="K52" s="245"/>
-      <c r="L52" s="245"/>
-      <c r="M52" s="245"/>
-      <c r="N52" s="245"/>
-      <c r="O52" s="245"/>
-      <c r="P52" s="245"/>
-      <c r="Q52" s="246"/>
-      <c r="S52" s="239"/>
-      <c r="T52" s="240"/>
-      <c r="U52" s="244"/>
-      <c r="V52" s="245"/>
-      <c r="W52" s="245"/>
-      <c r="X52" s="245"/>
-      <c r="Y52" s="245"/>
-      <c r="Z52" s="245"/>
-      <c r="AA52" s="245"/>
-      <c r="AB52" s="245"/>
-      <c r="AC52" s="245"/>
-      <c r="AD52" s="245"/>
-      <c r="AE52" s="245"/>
-      <c r="AF52" s="245"/>
-      <c r="AG52" s="245"/>
-      <c r="AH52" s="245"/>
-      <c r="AI52" s="246"/>
-    </row>
-    <row r="53" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="239"/>
-      <c r="B53" s="240"/>
-      <c r="C53" s="244"/>
-      <c r="D53" s="245"/>
-      <c r="E53" s="245"/>
-      <c r="F53" s="245"/>
-      <c r="G53" s="245"/>
-      <c r="H53" s="245"/>
-      <c r="I53" s="245"/>
-      <c r="J53" s="245"/>
-      <c r="K53" s="245"/>
-      <c r="L53" s="245"/>
-      <c r="M53" s="245"/>
-      <c r="N53" s="245"/>
-      <c r="O53" s="245"/>
-      <c r="P53" s="245"/>
-      <c r="Q53" s="246"/>
-      <c r="S53" s="239"/>
-      <c r="T53" s="240"/>
-      <c r="U53" s="244"/>
-      <c r="V53" s="245"/>
-      <c r="W53" s="245"/>
-      <c r="X53" s="245"/>
-      <c r="Y53" s="245"/>
-      <c r="Z53" s="245"/>
-      <c r="AA53" s="245"/>
-      <c r="AB53" s="245"/>
-      <c r="AC53" s="245"/>
-      <c r="AD53" s="245"/>
-      <c r="AE53" s="245"/>
-      <c r="AF53" s="245"/>
-      <c r="AG53" s="245"/>
-      <c r="AH53" s="245"/>
-      <c r="AI53" s="246"/>
-    </row>
-    <row r="54" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="239"/>
-      <c r="B54" s="240"/>
-      <c r="C54" s="244"/>
-      <c r="D54" s="245"/>
-      <c r="E54" s="245"/>
-      <c r="F54" s="245"/>
-      <c r="G54" s="245"/>
-      <c r="H54" s="245"/>
-      <c r="I54" s="245"/>
-      <c r="J54" s="245"/>
-      <c r="K54" s="245"/>
-      <c r="L54" s="245"/>
-      <c r="M54" s="245"/>
-      <c r="N54" s="245"/>
-      <c r="O54" s="245"/>
-      <c r="P54" s="245"/>
-      <c r="Q54" s="246"/>
-      <c r="S54" s="239"/>
-      <c r="T54" s="240"/>
-      <c r="U54" s="244"/>
-      <c r="V54" s="245"/>
-      <c r="W54" s="245"/>
-      <c r="X54" s="245"/>
-      <c r="Y54" s="245"/>
-      <c r="Z54" s="245"/>
-      <c r="AA54" s="245"/>
-      <c r="AB54" s="245"/>
-      <c r="AC54" s="245"/>
-      <c r="AD54" s="245"/>
-      <c r="AE54" s="245"/>
-      <c r="AF54" s="245"/>
-      <c r="AG54" s="245"/>
-      <c r="AH54" s="245"/>
-      <c r="AI54" s="246"/>
+      <c r="T53" s="46"/>
+      <c r="U53" s="248"/>
+      <c r="V53" s="249"/>
+      <c r="W53" s="249"/>
+      <c r="X53" s="249"/>
+      <c r="Y53" s="249"/>
+      <c r="Z53" s="249"/>
+      <c r="AA53" s="249"/>
+      <c r="AB53" s="249"/>
+      <c r="AC53" s="249"/>
+      <c r="AD53" s="249"/>
+      <c r="AE53" s="249"/>
+      <c r="AF53" s="249"/>
+      <c r="AG53" s="249"/>
+      <c r="AH53" s="249"/>
+      <c r="AI53" s="250"/>
+    </row>
+    <row r="54" spans="1:38" ht="12" x14ac:dyDescent="0.15">
+      <c r="A54" s="246"/>
+      <c r="B54" s="247"/>
+      <c r="C54" s="251"/>
+      <c r="D54" s="252"/>
+      <c r="E54" s="252"/>
+      <c r="F54" s="252"/>
+      <c r="G54" s="252"/>
+      <c r="H54" s="252"/>
+      <c r="I54" s="252"/>
+      <c r="J54" s="252"/>
+      <c r="K54" s="252"/>
+      <c r="L54" s="252"/>
+      <c r="M54" s="252"/>
+      <c r="N54" s="252"/>
+      <c r="O54" s="252"/>
+      <c r="P54" s="252"/>
+      <c r="Q54" s="253"/>
+      <c r="S54" s="246"/>
+      <c r="T54" s="247"/>
+      <c r="U54" s="251"/>
+      <c r="V54" s="252"/>
+      <c r="W54" s="252"/>
+      <c r="X54" s="252"/>
+      <c r="Y54" s="252"/>
+      <c r="Z54" s="252"/>
+      <c r="AA54" s="252"/>
+      <c r="AB54" s="252"/>
+      <c r="AC54" s="252"/>
+      <c r="AD54" s="252"/>
+      <c r="AE54" s="252"/>
+      <c r="AF54" s="252"/>
+      <c r="AG54" s="252"/>
+      <c r="AH54" s="252"/>
+      <c r="AI54" s="253"/>
+      <c r="AL54" s="11"/>
     </row>
     <row r="55" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="239"/>
-      <c r="B55" s="240"/>
-      <c r="C55" s="244"/>
-      <c r="D55" s="245"/>
-      <c r="E55" s="245"/>
-      <c r="F55" s="245"/>
-      <c r="G55" s="245"/>
-      <c r="H55" s="245"/>
-      <c r="I55" s="245"/>
-      <c r="J55" s="245"/>
-      <c r="K55" s="245"/>
-      <c r="L55" s="245"/>
-      <c r="M55" s="245"/>
-      <c r="N55" s="245"/>
-      <c r="O55" s="245"/>
-      <c r="P55" s="245"/>
-      <c r="Q55" s="246"/>
-      <c r="S55" s="239"/>
-      <c r="T55" s="240"/>
-      <c r="U55" s="244"/>
-      <c r="V55" s="245"/>
-      <c r="W55" s="245"/>
-      <c r="X55" s="245"/>
-      <c r="Y55" s="245"/>
-      <c r="Z55" s="245"/>
-      <c r="AA55" s="245"/>
-      <c r="AB55" s="245"/>
-      <c r="AC55" s="245"/>
-      <c r="AD55" s="245"/>
-      <c r="AE55" s="245"/>
-      <c r="AF55" s="245"/>
-      <c r="AG55" s="245"/>
-      <c r="AH55" s="245"/>
-      <c r="AI55" s="246"/>
+      <c r="A55" s="246"/>
+      <c r="B55" s="247"/>
+      <c r="C55" s="251"/>
+      <c r="D55" s="252"/>
+      <c r="E55" s="252"/>
+      <c r="F55" s="252"/>
+      <c r="G55" s="252"/>
+      <c r="H55" s="252"/>
+      <c r="I55" s="252"/>
+      <c r="J55" s="252"/>
+      <c r="K55" s="252"/>
+      <c r="L55" s="252"/>
+      <c r="M55" s="252"/>
+      <c r="N55" s="252"/>
+      <c r="O55" s="252"/>
+      <c r="P55" s="252"/>
+      <c r="Q55" s="253"/>
+      <c r="S55" s="246"/>
+      <c r="T55" s="247"/>
+      <c r="U55" s="251"/>
+      <c r="V55" s="252"/>
+      <c r="W55" s="252"/>
+      <c r="X55" s="252"/>
+      <c r="Y55" s="252"/>
+      <c r="Z55" s="252"/>
+      <c r="AA55" s="252"/>
+      <c r="AB55" s="252"/>
+      <c r="AC55" s="252"/>
+      <c r="AD55" s="252"/>
+      <c r="AE55" s="252"/>
+      <c r="AF55" s="252"/>
+      <c r="AG55" s="252"/>
+      <c r="AH55" s="252"/>
+      <c r="AI55" s="253"/>
     </row>
     <row r="56" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="239"/>
-      <c r="B56" s="240"/>
-      <c r="C56" s="244"/>
-      <c r="D56" s="245"/>
-      <c r="E56" s="245"/>
-      <c r="F56" s="245"/>
-      <c r="G56" s="245"/>
-      <c r="H56" s="245"/>
-      <c r="I56" s="245"/>
-      <c r="J56" s="245"/>
-      <c r="K56" s="245"/>
-      <c r="L56" s="245"/>
-      <c r="M56" s="245"/>
-      <c r="N56" s="245"/>
-      <c r="O56" s="245"/>
-      <c r="P56" s="245"/>
-      <c r="Q56" s="246"/>
-      <c r="S56" s="239"/>
-      <c r="T56" s="240"/>
-      <c r="U56" s="244"/>
-      <c r="V56" s="245"/>
-      <c r="W56" s="245"/>
-      <c r="X56" s="245"/>
-      <c r="Y56" s="245"/>
-      <c r="Z56" s="245"/>
-      <c r="AA56" s="245"/>
-      <c r="AB56" s="245"/>
-      <c r="AC56" s="245"/>
-      <c r="AD56" s="245"/>
-      <c r="AE56" s="245"/>
-      <c r="AF56" s="245"/>
-      <c r="AG56" s="245"/>
-      <c r="AH56" s="245"/>
-      <c r="AI56" s="246"/>
+      <c r="A56" s="246"/>
+      <c r="B56" s="247"/>
+      <c r="C56" s="251"/>
+      <c r="D56" s="252"/>
+      <c r="E56" s="252"/>
+      <c r="F56" s="252"/>
+      <c r="G56" s="252"/>
+      <c r="H56" s="252"/>
+      <c r="I56" s="252"/>
+      <c r="J56" s="252"/>
+      <c r="K56" s="252"/>
+      <c r="L56" s="252"/>
+      <c r="M56" s="252"/>
+      <c r="N56" s="252"/>
+      <c r="O56" s="252"/>
+      <c r="P56" s="252"/>
+      <c r="Q56" s="253"/>
+      <c r="S56" s="246"/>
+      <c r="T56" s="247"/>
+      <c r="U56" s="251"/>
+      <c r="V56" s="252"/>
+      <c r="W56" s="252"/>
+      <c r="X56" s="252"/>
+      <c r="Y56" s="252"/>
+      <c r="Z56" s="252"/>
+      <c r="AA56" s="252"/>
+      <c r="AB56" s="252"/>
+      <c r="AC56" s="252"/>
+      <c r="AD56" s="252"/>
+      <c r="AE56" s="252"/>
+      <c r="AF56" s="252"/>
+      <c r="AG56" s="252"/>
+      <c r="AH56" s="252"/>
+      <c r="AI56" s="253"/>
     </row>
     <row r="57" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="239"/>
-      <c r="B57" s="240"/>
-      <c r="C57" s="244"/>
-      <c r="D57" s="245"/>
-      <c r="E57" s="245"/>
-      <c r="F57" s="245"/>
-      <c r="G57" s="245"/>
-      <c r="H57" s="245"/>
-      <c r="I57" s="245"/>
-      <c r="J57" s="245"/>
-      <c r="K57" s="245"/>
-      <c r="L57" s="245"/>
-      <c r="M57" s="245"/>
-      <c r="N57" s="245"/>
-      <c r="O57" s="245"/>
-      <c r="P57" s="245"/>
-      <c r="Q57" s="246"/>
-      <c r="S57" s="239"/>
-      <c r="T57" s="240"/>
-      <c r="U57" s="244"/>
-      <c r="V57" s="245"/>
-      <c r="W57" s="245"/>
-      <c r="X57" s="245"/>
-      <c r="Y57" s="245"/>
-      <c r="Z57" s="245"/>
-      <c r="AA57" s="245"/>
-      <c r="AB57" s="245"/>
-      <c r="AC57" s="245"/>
-      <c r="AD57" s="245"/>
-      <c r="AE57" s="245"/>
-      <c r="AF57" s="245"/>
-      <c r="AG57" s="245"/>
-      <c r="AH57" s="245"/>
-      <c r="AI57" s="246"/>
-    </row>
-    <row r="58" spans="1:38" ht="12" x14ac:dyDescent="0.15">
-      <c r="A58" s="239"/>
-      <c r="B58" s="240"/>
-      <c r="C58" s="244"/>
-      <c r="D58" s="245"/>
-      <c r="E58" s="245"/>
-      <c r="F58" s="245"/>
-      <c r="G58" s="245"/>
-      <c r="H58" s="245"/>
-      <c r="I58" s="245"/>
-      <c r="J58" s="245"/>
-      <c r="K58" s="245"/>
-      <c r="L58" s="245"/>
-      <c r="M58" s="245"/>
-      <c r="N58" s="245"/>
-      <c r="O58" s="245"/>
-      <c r="P58" s="245"/>
-      <c r="Q58" s="246"/>
-      <c r="S58" s="239"/>
-      <c r="T58" s="240"/>
-      <c r="U58" s="244"/>
-      <c r="V58" s="245"/>
-      <c r="W58" s="245"/>
-      <c r="X58" s="245"/>
-      <c r="Y58" s="245"/>
-      <c r="Z58" s="245"/>
-      <c r="AA58" s="245"/>
-      <c r="AB58" s="245"/>
-      <c r="AC58" s="245"/>
-      <c r="AD58" s="245"/>
-      <c r="AE58" s="245"/>
-      <c r="AF58" s="245"/>
-      <c r="AG58" s="245"/>
-      <c r="AH58" s="245"/>
-      <c r="AI58" s="246"/>
-      <c r="AJ58" s="11"/>
-    </row>
-    <row r="59" spans="1:38" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="239"/>
-      <c r="B59" s="240"/>
-      <c r="C59" s="244"/>
-      <c r="D59" s="245"/>
-      <c r="E59" s="245"/>
-      <c r="F59" s="245"/>
-      <c r="G59" s="245"/>
-      <c r="H59" s="245"/>
-      <c r="I59" s="245"/>
-      <c r="J59" s="245"/>
-      <c r="K59" s="245"/>
-      <c r="L59" s="245"/>
-      <c r="M59" s="245"/>
-      <c r="N59" s="245"/>
-      <c r="O59" s="245"/>
-      <c r="P59" s="245"/>
-      <c r="Q59" s="246"/>
-      <c r="S59" s="239"/>
-      <c r="T59" s="240"/>
-      <c r="U59" s="244"/>
-      <c r="V59" s="245"/>
-      <c r="W59" s="245"/>
-      <c r="X59" s="245"/>
-      <c r="Y59" s="245"/>
-      <c r="Z59" s="245"/>
-      <c r="AA59" s="245"/>
-      <c r="AB59" s="245"/>
-      <c r="AC59" s="245"/>
-      <c r="AD59" s="245"/>
-      <c r="AE59" s="245"/>
-      <c r="AF59" s="245"/>
-      <c r="AG59" s="245"/>
-      <c r="AH59" s="245"/>
-      <c r="AI59" s="246"/>
-    </row>
-    <row r="60" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="72"/>
-      <c r="B60" s="73"/>
-      <c r="C60" s="247"/>
-      <c r="D60" s="248"/>
-      <c r="E60" s="248"/>
-      <c r="F60" s="248"/>
-      <c r="G60" s="248"/>
-      <c r="H60" s="248"/>
-      <c r="I60" s="248"/>
-      <c r="J60" s="248"/>
-      <c r="K60" s="248"/>
-      <c r="L60" s="248"/>
-      <c r="M60" s="248"/>
-      <c r="N60" s="248"/>
-      <c r="O60" s="248"/>
-      <c r="P60" s="248"/>
-      <c r="Q60" s="249"/>
-      <c r="S60" s="72"/>
-      <c r="T60" s="73"/>
-      <c r="U60" s="247"/>
-      <c r="V60" s="248"/>
-      <c r="W60" s="248"/>
-      <c r="X60" s="248"/>
-      <c r="Y60" s="248"/>
-      <c r="Z60" s="248"/>
-      <c r="AA60" s="248"/>
-      <c r="AB60" s="248"/>
-      <c r="AC60" s="248"/>
-      <c r="AD60" s="248"/>
-      <c r="AE60" s="248"/>
-      <c r="AF60" s="248"/>
-      <c r="AG60" s="248"/>
-      <c r="AH60" s="248"/>
-      <c r="AI60" s="249"/>
+      <c r="A57" s="246"/>
+      <c r="B57" s="247"/>
+      <c r="C57" s="251"/>
+      <c r="D57" s="252"/>
+      <c r="E57" s="252"/>
+      <c r="F57" s="252"/>
+      <c r="G57" s="252"/>
+      <c r="H57" s="252"/>
+      <c r="I57" s="252"/>
+      <c r="J57" s="252"/>
+      <c r="K57" s="252"/>
+      <c r="L57" s="252"/>
+      <c r="M57" s="252"/>
+      <c r="N57" s="252"/>
+      <c r="O57" s="252"/>
+      <c r="P57" s="252"/>
+      <c r="Q57" s="253"/>
+      <c r="S57" s="246"/>
+      <c r="T57" s="247"/>
+      <c r="U57" s="251"/>
+      <c r="V57" s="252"/>
+      <c r="W57" s="252"/>
+      <c r="X57" s="252"/>
+      <c r="Y57" s="252"/>
+      <c r="Z57" s="252"/>
+      <c r="AA57" s="252"/>
+      <c r="AB57" s="252"/>
+      <c r="AC57" s="252"/>
+      <c r="AD57" s="252"/>
+      <c r="AE57" s="252"/>
+      <c r="AF57" s="252"/>
+      <c r="AG57" s="252"/>
+      <c r="AH57" s="252"/>
+      <c r="AI57" s="253"/>
+    </row>
+    <row r="58" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="246"/>
+      <c r="B58" s="247"/>
+      <c r="C58" s="251"/>
+      <c r="D58" s="252"/>
+      <c r="E58" s="252"/>
+      <c r="F58" s="252"/>
+      <c r="G58" s="252"/>
+      <c r="H58" s="252"/>
+      <c r="I58" s="252"/>
+      <c r="J58" s="252"/>
+      <c r="K58" s="252"/>
+      <c r="L58" s="252"/>
+      <c r="M58" s="252"/>
+      <c r="N58" s="252"/>
+      <c r="O58" s="252"/>
+      <c r="P58" s="252"/>
+      <c r="Q58" s="253"/>
+      <c r="S58" s="246"/>
+      <c r="T58" s="247"/>
+      <c r="U58" s="251"/>
+      <c r="V58" s="252"/>
+      <c r="W58" s="252"/>
+      <c r="X58" s="252"/>
+      <c r="Y58" s="252"/>
+      <c r="Z58" s="252"/>
+      <c r="AA58" s="252"/>
+      <c r="AB58" s="252"/>
+      <c r="AC58" s="252"/>
+      <c r="AD58" s="252"/>
+      <c r="AE58" s="252"/>
+      <c r="AF58" s="252"/>
+      <c r="AG58" s="252"/>
+      <c r="AH58" s="252"/>
+      <c r="AI58" s="253"/>
+    </row>
+    <row r="59" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="246"/>
+      <c r="B59" s="247"/>
+      <c r="C59" s="251"/>
+      <c r="D59" s="252"/>
+      <c r="E59" s="252"/>
+      <c r="F59" s="252"/>
+      <c r="G59" s="252"/>
+      <c r="H59" s="252"/>
+      <c r="I59" s="252"/>
+      <c r="J59" s="252"/>
+      <c r="K59" s="252"/>
+      <c r="L59" s="252"/>
+      <c r="M59" s="252"/>
+      <c r="N59" s="252"/>
+      <c r="O59" s="252"/>
+      <c r="P59" s="252"/>
+      <c r="Q59" s="253"/>
+      <c r="S59" s="246"/>
+      <c r="T59" s="247"/>
+      <c r="U59" s="251"/>
+      <c r="V59" s="252"/>
+      <c r="W59" s="252"/>
+      <c r="X59" s="252"/>
+      <c r="Y59" s="252"/>
+      <c r="Z59" s="252"/>
+      <c r="AA59" s="252"/>
+      <c r="AB59" s="252"/>
+      <c r="AC59" s="252"/>
+      <c r="AD59" s="252"/>
+      <c r="AE59" s="252"/>
+      <c r="AF59" s="252"/>
+      <c r="AG59" s="252"/>
+      <c r="AH59" s="252"/>
+      <c r="AI59" s="253"/>
+    </row>
+    <row r="60" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="246"/>
+      <c r="B60" s="247"/>
+      <c r="C60" s="251"/>
+      <c r="D60" s="252"/>
+      <c r="E60" s="252"/>
+      <c r="F60" s="252"/>
+      <c r="G60" s="252"/>
+      <c r="H60" s="252"/>
+      <c r="I60" s="252"/>
+      <c r="J60" s="252"/>
+      <c r="K60" s="252"/>
+      <c r="L60" s="252"/>
+      <c r="M60" s="252"/>
+      <c r="N60" s="252"/>
+      <c r="O60" s="252"/>
+      <c r="P60" s="252"/>
+      <c r="Q60" s="253"/>
+      <c r="S60" s="246"/>
+      <c r="T60" s="247"/>
+      <c r="U60" s="251"/>
+      <c r="V60" s="252"/>
+      <c r="W60" s="252"/>
+      <c r="X60" s="252"/>
+      <c r="Y60" s="252"/>
+      <c r="Z60" s="252"/>
+      <c r="AA60" s="252"/>
+      <c r="AB60" s="252"/>
+      <c r="AC60" s="252"/>
+      <c r="AD60" s="252"/>
+      <c r="AE60" s="252"/>
+      <c r="AF60" s="252"/>
+      <c r="AG60" s="252"/>
+      <c r="AH60" s="252"/>
+      <c r="AI60" s="253"/>
+    </row>
+    <row r="61" spans="1:38" ht="12" x14ac:dyDescent="0.15">
+      <c r="A61" s="246"/>
+      <c r="B61" s="247"/>
+      <c r="C61" s="251"/>
+      <c r="D61" s="252"/>
+      <c r="E61" s="252"/>
+      <c r="F61" s="252"/>
+      <c r="G61" s="252"/>
+      <c r="H61" s="252"/>
+      <c r="I61" s="252"/>
+      <c r="J61" s="252"/>
+      <c r="K61" s="252"/>
+      <c r="L61" s="252"/>
+      <c r="M61" s="252"/>
+      <c r="N61" s="252"/>
+      <c r="O61" s="252"/>
+      <c r="P61" s="252"/>
+      <c r="Q61" s="253"/>
+      <c r="S61" s="246"/>
+      <c r="T61" s="247"/>
+      <c r="U61" s="251"/>
+      <c r="V61" s="252"/>
+      <c r="W61" s="252"/>
+      <c r="X61" s="252"/>
+      <c r="Y61" s="252"/>
+      <c r="Z61" s="252"/>
+      <c r="AA61" s="252"/>
+      <c r="AB61" s="252"/>
+      <c r="AC61" s="252"/>
+      <c r="AD61" s="252"/>
+      <c r="AE61" s="252"/>
+      <c r="AF61" s="252"/>
+      <c r="AG61" s="252"/>
+      <c r="AH61" s="252"/>
+      <c r="AI61" s="253"/>
+      <c r="AJ61" s="11"/>
+    </row>
+    <row r="62" spans="1:38" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="246"/>
+      <c r="B62" s="247"/>
+      <c r="C62" s="251"/>
+      <c r="D62" s="252"/>
+      <c r="E62" s="252"/>
+      <c r="F62" s="252"/>
+      <c r="G62" s="252"/>
+      <c r="H62" s="252"/>
+      <c r="I62" s="252"/>
+      <c r="J62" s="252"/>
+      <c r="K62" s="252"/>
+      <c r="L62" s="252"/>
+      <c r="M62" s="252"/>
+      <c r="N62" s="252"/>
+      <c r="O62" s="252"/>
+      <c r="P62" s="252"/>
+      <c r="Q62" s="253"/>
+      <c r="S62" s="246"/>
+      <c r="T62" s="247"/>
+      <c r="U62" s="251"/>
+      <c r="V62" s="252"/>
+      <c r="W62" s="252"/>
+      <c r="X62" s="252"/>
+      <c r="Y62" s="252"/>
+      <c r="Z62" s="252"/>
+      <c r="AA62" s="252"/>
+      <c r="AB62" s="252"/>
+      <c r="AC62" s="252"/>
+      <c r="AD62" s="252"/>
+      <c r="AE62" s="252"/>
+      <c r="AF62" s="252"/>
+      <c r="AG62" s="252"/>
+      <c r="AH62" s="252"/>
+      <c r="AI62" s="253"/>
+    </row>
+    <row r="63" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="114"/>
+      <c r="B63" s="115"/>
+      <c r="C63" s="254"/>
+      <c r="D63" s="255"/>
+      <c r="E63" s="255"/>
+      <c r="F63" s="255"/>
+      <c r="G63" s="255"/>
+      <c r="H63" s="255"/>
+      <c r="I63" s="255"/>
+      <c r="J63" s="255"/>
+      <c r="K63" s="255"/>
+      <c r="L63" s="255"/>
+      <c r="M63" s="255"/>
+      <c r="N63" s="255"/>
+      <c r="O63" s="255"/>
+      <c r="P63" s="255"/>
+      <c r="Q63" s="256"/>
+      <c r="S63" s="114"/>
+      <c r="T63" s="115"/>
+      <c r="U63" s="254"/>
+      <c r="V63" s="255"/>
+      <c r="W63" s="255"/>
+      <c r="X63" s="255"/>
+      <c r="Y63" s="255"/>
+      <c r="Z63" s="255"/>
+      <c r="AA63" s="255"/>
+      <c r="AB63" s="255"/>
+      <c r="AC63" s="255"/>
+      <c r="AD63" s="255"/>
+      <c r="AE63" s="255"/>
+      <c r="AF63" s="255"/>
+      <c r="AG63" s="255"/>
+      <c r="AH63" s="255"/>
+      <c r="AI63" s="256"/>
     </row>
   </sheetData>
-  <mergeCells count="201">
-    <mergeCell ref="A50:B60"/>
-    <mergeCell ref="C50:Q60"/>
-    <mergeCell ref="A38:D44"/>
-    <mergeCell ref="E38:AL44"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="S46:V46"/>
-    <mergeCell ref="W46:Z46"/>
-    <mergeCell ref="AA46:AD46"/>
-    <mergeCell ref="AE46:AH46"/>
-    <mergeCell ref="AI46:AL46"/>
-    <mergeCell ref="AE49:AH49"/>
-    <mergeCell ref="AI49:AL49"/>
-    <mergeCell ref="S50:T60"/>
-    <mergeCell ref="U50:AI60"/>
-    <mergeCell ref="S48:V48"/>
-    <mergeCell ref="W48:Z48"/>
-    <mergeCell ref="AA48:AD48"/>
-    <mergeCell ref="AE48:AH48"/>
+  <mergeCells count="214">
+    <mergeCell ref="A53:B63"/>
+    <mergeCell ref="C53:Q63"/>
+    <mergeCell ref="A41:D47"/>
+    <mergeCell ref="E41:AL47"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="N49:Q49"/>
     <mergeCell ref="S49:V49"/>
     <mergeCell ref="W49:Z49"/>
     <mergeCell ref="AA49:AD49"/>
+    <mergeCell ref="AE49:AH49"/>
+    <mergeCell ref="AI49:AL49"/>
+    <mergeCell ref="AE52:AH52"/>
+    <mergeCell ref="AI52:AL52"/>
+    <mergeCell ref="S53:T63"/>
+    <mergeCell ref="U53:AI63"/>
+    <mergeCell ref="S51:V51"/>
+    <mergeCell ref="W51:Z51"/>
+    <mergeCell ref="AA51:AD51"/>
+    <mergeCell ref="AE51:AH51"/>
+    <mergeCell ref="S52:V52"/>
+    <mergeCell ref="W52:Z52"/>
+    <mergeCell ref="AA52:AD52"/>
     <mergeCell ref="AF32:AH32"/>
     <mergeCell ref="AI32:AL32"/>
     <mergeCell ref="S32:V32"/>
@@ -5630,10 +5777,10 @@
     <mergeCell ref="S35:V35"/>
     <mergeCell ref="W35:AB35"/>
     <mergeCell ref="AC35:AH35"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E37:N37"/>
-    <mergeCell ref="O37:X37"/>
-    <mergeCell ref="Y37:AH37"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E40:N40"/>
+    <mergeCell ref="O40:X40"/>
+    <mergeCell ref="Y40:AH40"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="G31:P31"/>
     <mergeCell ref="U31:X31"/>
@@ -5654,7 +5801,7 @@
     <mergeCell ref="Z33:AB33"/>
     <mergeCell ref="AC33:AE33"/>
     <mergeCell ref="AF33:AH33"/>
-    <mergeCell ref="AI33:AL37"/>
+    <mergeCell ref="AI33:AL40"/>
     <mergeCell ref="W32:Y32"/>
     <mergeCell ref="Z32:AB32"/>
     <mergeCell ref="AC32:AE32"/>
@@ -5769,11 +5916,6 @@
     <mergeCell ref="N8:P8"/>
     <mergeCell ref="S8:X8"/>
     <mergeCell ref="Y8:AD8"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:P6"/>
-    <mergeCell ref="S6:X6"/>
-    <mergeCell ref="Y6:AH6"/>
-    <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:J7"/>
@@ -5799,52 +5941,70 @@
     <mergeCell ref="AI3:AL6"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:P4"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E38:P38"/>
+    <mergeCell ref="W38:AB38"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:P36"/>
+    <mergeCell ref="S36:V36"/>
+    <mergeCell ref="W36:AB36"/>
+    <mergeCell ref="AC36:AH36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:P37"/>
+    <mergeCell ref="W37:AB37"/>
+    <mergeCell ref="S37:V38"/>
+    <mergeCell ref="AC37:AH38"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:P6"/>
+    <mergeCell ref="S6:X6"/>
+    <mergeCell ref="Y6:AH6"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="17">
-    <dataValidation allowBlank="1" sqref="E38:AL44"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="入力しないでください" sqref="N7:P8"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G28:P28">
+    <dataValidation allowBlank="1" sqref="E41:AL47" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="入力しないでください" sqref="N7:P8" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G28:P28" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>下限時間</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G29:P29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G29:P29" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>上限時間</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="G31:P31 S17:X23 S3:AL16 Y17:AL30 AL51 AJ58"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="W48">
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="G31:P31 S17:X23 S3:AL16 Y17:AL30 AL54 AJ61" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="W51" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>他社決定時の案件内容確認</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AE48">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AE51" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>新HALｴﾝｼﾞﾆｱﾘｽﾄ</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE46:AH46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE49:AH49" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>性格</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA46:AD46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA49:AD49" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>勤態</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W46:Z46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W49:Z49" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>会話</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N46:Q46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N49:Q49" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>スキル</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E46:H46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E49:H49" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>今後の対応</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E37:AH37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E40:AH40" xr:uid="{00000000-0002-0000-0000-00000C000000}">
       <formula1>終了理由</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E35:E38" xr:uid="{00000000-0002-0000-0000-00000D000000}">
       <formula1>交代要員</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2" xr:uid="{00000000-0002-0000-0000-00000E000000}">
       <formula1>契約終了状況</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W35:AB35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W35:AB35" xr:uid="{00000000-0002-0000-0000-00000F000000}">
       <formula1>受給対象者</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC35:AH35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC35:AH35" xr:uid="{00000000-0002-0000-0000-000010000000}">
       <formula1>雇用保険受給</formula1>
     </dataValidation>
   </dataValidations>
